--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -13,12 +13,12 @@
     <sheet name="Runtime Scope" sheetId="4" r:id="rId4"/>
     <sheet name="Data Enums" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateCount="1000" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="759">
   <si>
     <t>Display Name</t>
   </si>
@@ -2308,6 +2308,18 @@
   </si>
   <si>
     <t>XLS_TEST_METHOD, XLS_PROPERTIES</t>
+  </si>
+  <si>
+    <t>Auto Type Discovery</t>
+  </si>
+  <si>
+    <t>autoType</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XLS_SPREADSHEET, XLS_PROPERTIES</t>
+  </si>
+  <si>
+    <t>Controls new Spreadsheet Auto Type Discovery feature. By default = false (old behaviour)</t>
   </si>
 </sst>
 </file>
@@ -2795,17 +2807,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2830,7 +2842,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2911,9 +2923,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2951,7 +2963,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3023,7 +3035,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3216,217 +3228,212 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3436,6 +3443,11 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3444,10 +3456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK56"/>
+  <dimension ref="A1:AMK58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M52" sqref="M51:M52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,154 +3489,154 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
     </row>
     <row r="9" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -5225,93 +5237,139 @@
         <v>752</v>
       </c>
     </row>
-    <row r="47" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
+    <row r="47" spans="2:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="N47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="5" t="s">
+      <c r="F50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5" t="s">
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5" t="s">
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T48" s="5" t="s">
+      <c r="T50" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="38" t="s">
+    <row r="54" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="38"/>
-    </row>
-    <row r="53" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="39" t="s">
+      <c r="C54" s="38"/>
+    </row>
+    <row r="55" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="39"/>
-    </row>
-    <row r="54" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="39" t="s">
+      <c r="C55" s="39"/>
+    </row>
+    <row r="56" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="39"/>
-    </row>
-    <row r="55" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="40" t="s">
+      <c r="C56" s="39"/>
+    </row>
+    <row r="57" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="40"/>
-    </row>
-    <row r="56" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="40" t="s">
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="40"/>
+      <c r="C58" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="B11:T11"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="B11:T11"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5585,7 +5643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K216"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19980" tabRatio="410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,17 @@
     <sheet name="Runtime Scope" sheetId="4" r:id="rId4"/>
     <sheet name="Data Enums" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="768">
   <si>
     <t>Display Name</t>
   </si>
@@ -2321,12 +2326,39 @@
   <si>
     <t>Controls new Spreadsheet Auto Type Discovery feature. By default = false (old behaviour)</t>
   </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>XLS_DT, XLS_SPREADSHEET, XLS_TBASIC, XLS_COLUMN_MATCH, XLS_METHOD, XLS_PROPERTIES</t>
+  </si>
+  <si>
+    <t>data: origins</t>
+  </si>
+  <si>
+    <t>Indicates origin of the rules to allow hierarchy of more generic and more specific rules</t>
+  </si>
+  <si>
+    <t>max(origin)</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition origins</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2366,6 +2398,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2415,7 +2463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -2622,54 +2670,111 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -2677,54 +2782,208 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="hair">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2735,13 +2994,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2787,14 +3040,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2804,28 +3058,72 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2837,11 +3135,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="33">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3211,229 +3555,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
       <selection activeCell="C12" sqref="C12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="15.5703125"/>
-    <col min="3" max="9" width="8.5703125"/>
-    <col min="10" max="10" width="74.7109375"/>
-    <col min="11" max="1025" width="8.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="30" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="2:10" ht="72" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="2:10" ht="30" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="2:10" ht="51.75" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="2:10" ht="30" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="2:10" ht="30" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="2:10" ht="30" customHeight="1">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="2:10" ht="30" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="2:10" ht="30" customHeight="1">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" spans="2:10" ht="15" customHeight="1">
+      <c r="B15" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3443,202 +3785,191 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK58"/>
+  <dimension ref="A1:AMK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2"/>
-    <col min="2" max="2" width="18.7109375" style="2"/>
-    <col min="3" max="3" width="15.7109375" style="2"/>
-    <col min="4" max="4" width="15.85546875" style="2"/>
-    <col min="5" max="5" width="21" style="2"/>
-    <col min="6" max="6" width="17.5703125" style="2"/>
-    <col min="7" max="7" width="19" style="2"/>
-    <col min="8" max="8" width="27.42578125" style="2"/>
-    <col min="9" max="9" width="13.28515625" style="2"/>
-    <col min="10" max="10" width="17.7109375" style="2"/>
-    <col min="11" max="11" width="13.28515625" style="2"/>
-    <col min="12" max="12" width="12.7109375" style="2"/>
-    <col min="13" max="13" width="22.140625" style="2"/>
-    <col min="14" max="14" width="12.5703125" style="2"/>
-    <col min="15" max="16" width="19.28515625" style="2"/>
-    <col min="17" max="18" width="25.28515625" style="2"/>
-    <col min="19" max="19" width="16.85546875" style="2"/>
-    <col min="20" max="20" width="38.28515625" style="2"/>
-    <col min="21" max="1025" width="9.28515625" style="2"/>
+    <col min="1" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="11" width="8.83203125" style="2"/>
+    <col min="12" max="12" width="19.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="2"/>
+    <col min="15" max="15" width="16" style="2" customWidth="1"/>
+    <col min="16" max="1025" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="11.25" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-    </row>
-    <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+    </row>
+    <row r="2" spans="2:20" ht="11.25" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-    </row>
-    <row r="3" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+    </row>
+    <row r="3" spans="2:20" ht="57.75" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-    </row>
-    <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+    </row>
+    <row r="4" spans="2:20" ht="22.5" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+    </row>
+    <row r="5" spans="2:20" ht="22.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="2:20" ht="51.75" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+    </row>
+    <row r="7" spans="2:20" ht="42.75" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-    </row>
-    <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+    </row>
+    <row r="8" spans="2:20" ht="33" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+    </row>
+    <row r="9" spans="2:20" ht="33" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="2:20" ht="15.75" customHeight="1" thickTop="1">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3647,1732 +3978,1788 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+    <row r="11" spans="2:20" ht="15" customHeight="1">
+      <c r="B11" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-    </row>
-    <row r="12" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58"/>
+    </row>
+    <row r="12" spans="2:20" ht="30" customHeight="1">
+      <c r="B12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:20" ht="60" customHeight="1">
+      <c r="B13" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="T13" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="2:20" ht="30" customHeight="1">
+      <c r="B14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5" t="s">
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:20" ht="105" customHeight="1">
+      <c r="B15" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="6" t="s">
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5" t="s">
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:20" ht="28.25" customHeight="1">
+      <c r="B16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5" t="s">
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:20" ht="30" customHeight="1">
+      <c r="B17" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T17" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="2:20" ht="30" customHeight="1">
+      <c r="B18" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5" t="s">
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5" t="s">
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5" t="s">
+      <c r="R18" s="24"/>
+      <c r="S18" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="2:20" ht="30" customHeight="1">
+      <c r="B19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5" t="s">
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5" t="s">
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5" t="s">
+      <c r="R19" s="24"/>
+      <c r="S19" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:20" ht="30" customHeight="1">
+      <c r="B20" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5" t="s">
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5" t="s">
+      <c r="R20" s="24"/>
+      <c r="S20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:20" ht="30" customHeight="1">
+      <c r="B21" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5" t="s">
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5" t="s">
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5" t="s">
+      <c r="R21" s="24"/>
+      <c r="S21" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T21" s="25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:20" ht="30" customHeight="1">
+      <c r="B22" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="F22" s="24"/>
+      <c r="G22" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5" t="s">
+      <c r="L22" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:20" ht="30" customHeight="1">
+      <c r="B23" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="F23" s="24"/>
+      <c r="G23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5" t="s">
+      <c r="L23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5" t="s">
+      <c r="R23" s="24"/>
+      <c r="S23" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="T23" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="2:20" ht="30" customHeight="1">
+      <c r="B24" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="F24" s="24"/>
+      <c r="G24" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5" t="s">
+      <c r="L24" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="T24" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="2:20" ht="30" customHeight="1">
+      <c r="B25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="F25" s="24"/>
+      <c r="G25" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5" t="s">
+      <c r="L25" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5" t="s">
+      <c r="R25" s="24"/>
+      <c r="S25" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="T25" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="2:20" ht="75" customHeight="1">
+      <c r="B26" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="F26" s="24"/>
+      <c r="G26" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M26" s="5" t="s">
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5" t="s">
+      <c r="N26" s="24"/>
+      <c r="O26" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="P26" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5" t="s">
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T26" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="2:20" ht="45" customHeight="1">
+      <c r="B27" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="5" t="s">
+      <c r="F27" s="24"/>
+      <c r="G27" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5" t="s">
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5" t="s">
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="2:20" ht="30" customHeight="1">
+      <c r="B28" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="F28" s="24"/>
+      <c r="G28" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M28" s="5" t="s">
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5" t="s">
+      <c r="N28" s="24"/>
+      <c r="O28" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5" t="s">
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="T28" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:20" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="2:20" ht="105" customHeight="1">
+      <c r="B29" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="5" t="s">
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5" t="s">
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5" t="s">
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="T29" s="25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="2:20" ht="105" customHeight="1">
+      <c r="B30" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="5" t="s">
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5" t="s">
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5" t="s">
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T30" s="5" t="s">
+      <c r="T30" s="25" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="2:20" ht="105" customHeight="1">
+      <c r="B31" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="5" t="s">
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5" t="s">
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5" t="s">
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="T31" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="2:20" ht="105" customHeight="1">
+      <c r="B32" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="5" t="s">
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5" t="s">
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5" t="s">
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="T32" s="25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="2:20" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="2:20" ht="105" customHeight="1">
+      <c r="B33" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="D33" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="5" t="s">
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5" t="s">
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5" t="s">
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T33" s="5" t="s">
+      <c r="T33" s="25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="2:20" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="2:20" ht="105" customHeight="1">
+      <c r="B34" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L34" s="5" t="s">
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5" t="s">
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5" t="s">
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T34" s="5" t="s">
+      <c r="T34" s="25" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="2:20" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="2:20" ht="105" customHeight="1">
+      <c r="B35" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="5" t="s">
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5" t="s">
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5" t="s">
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="T35" s="5" t="s">
+      <c r="T35" s="25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="2:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="2:20" ht="78.75" customHeight="1">
+      <c r="B36" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="5" t="s">
+      <c r="F36" s="24"/>
+      <c r="G36" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5" t="s">
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5" t="s">
+      <c r="N36" s="24"/>
+      <c r="O36" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5" t="s">
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T36" s="5" t="s">
+      <c r="T36" s="25" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="2:20" ht="75" customHeight="1">
+      <c r="B37" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="5" t="s">
+      <c r="F37" s="24"/>
+      <c r="G37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5" t="s">
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="7" t="b">
+      <c r="N37" s="27" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5" t="s">
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T37" s="5" t="s">
+      <c r="T37" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="2:20" ht="30" customHeight="1">
+      <c r="B38" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="5" t="s">
+      <c r="F38" s="24"/>
+      <c r="G38" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5" t="s">
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="N38" s="7" t="b">
+      <c r="N38" s="27" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5" t="s">
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T38" s="5" t="s">
+      <c r="T38" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="2:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="2:20" ht="58.5" customHeight="1">
+      <c r="B39" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="5" t="s">
+      <c r="F39" s="24"/>
+      <c r="G39" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5" t="s">
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5" t="s">
+      <c r="N39" s="24"/>
+      <c r="O39" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5" t="s">
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="T39" s="5" t="s">
+      <c r="T39" s="25" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+    <row r="40" spans="2:20" ht="75" customHeight="1">
+      <c r="B40" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="5" t="s">
+      <c r="F40" s="24"/>
+      <c r="G40" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5" t="s">
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="O40" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5" t="s">
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="T40" s="5" t="s">
+      <c r="T40" s="25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="2:20" ht="15" customHeight="1">
+      <c r="B41" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
+      <c r="D41" s="24"/>
+      <c r="E41" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" s="5" t="s">
+      <c r="F41" s="24"/>
+      <c r="G41" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5" t="s">
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T41" s="5"/>
-    </row>
-    <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="T41" s="25"/>
+    </row>
+    <row r="42" spans="2:20" ht="15" customHeight="1">
+      <c r="B42" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="5" t="s">
+      <c r="F42" s="24"/>
+      <c r="G42" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5" t="s">
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T42" s="5"/>
-    </row>
-    <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="T42" s="25"/>
+    </row>
+    <row r="43" spans="2:20" ht="15" customHeight="1">
+      <c r="B43" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="5" t="s">
+      <c r="F43" s="24"/>
+      <c r="G43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5" t="s">
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T43" s="5"/>
-    </row>
-    <row r="44" spans="2:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
+      <c r="T43" s="25"/>
+    </row>
+    <row r="44" spans="2:20" ht="182">
+      <c r="B44" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="D44" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="5" t="s">
+      <c r="F44" s="24"/>
+      <c r="G44" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5" t="s">
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T44" s="5" t="s">
+      <c r="T44" s="25" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="45" spans="2:20" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
+    <row r="45" spans="2:20" ht="38.25" customHeight="1">
+      <c r="B45" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="30" t="s">
+      <c r="D45" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="30" t="s">
+      <c r="F45" s="24"/>
+      <c r="G45" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30" t="s">
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30" t="s">
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T45" s="30" t="s">
+      <c r="T45" s="25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="2:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="31" t="s">
+    <row r="46" spans="2:20" ht="31.5" customHeight="1">
+      <c r="B46" s="23" t="s">
         <v>751</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="24" t="s">
         <v>750</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32" t="s">
+      <c r="D46" s="24"/>
+      <c r="E46" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="32" t="s">
+      <c r="F46" s="24"/>
+      <c r="G46" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32" t="s">
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24" t="s">
         <v>754</v>
       </c>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32" t="s">
+      <c r="N46" s="24"/>
+      <c r="O46" s="24" t="s">
         <v>753</v>
       </c>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32" t="s">
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T46" s="33" t="s">
+      <c r="T46" s="25" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="47" spans="2:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="2:20" ht="168">
+      <c r="B47" s="23" t="s">
         <v>755</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="24" t="s">
         <v>756</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="D47" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="5" t="s">
+      <c r="F47" s="24"/>
+      <c r="G47" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M47" s="5" t="s">
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M47" s="24" t="s">
         <v>757</v>
       </c>
-      <c r="N47" s="5" t="b">
+      <c r="N47" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5" t="s">
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T47" s="5" t="s">
+      <c r="T47" s="25" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="48" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="5" t="s">
+    <row r="48" spans="2:20" ht="140">
+      <c r="B48" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>760</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>761</v>
+      </c>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="T48" s="30" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="15" thickBot="1"/>
+    <row r="51" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B51" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="5" t="s">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5" t="s">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5" t="s">
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T50" s="5" t="s">
+      <c r="T51" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="38" t="s">
+    <row r="55" spans="2:20" ht="15" customHeight="1">
+      <c r="B55" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="C54" s="38"/>
-    </row>
-    <row r="55" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="39" t="s">
+      <c r="C55" s="59"/>
+    </row>
+    <row r="56" spans="2:20" ht="15" customHeight="1">
+      <c r="B56" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="C55" s="39"/>
-    </row>
-    <row r="56" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="39" t="s">
+      <c r="C56" s="60"/>
+    </row>
+    <row r="57" spans="2:20" ht="15" customHeight="1">
+      <c r="B57" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="39"/>
-    </row>
-    <row r="57" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="40" t="s">
+      <c r="C57" s="60"/>
+    </row>
+    <row r="58" spans="2:20" ht="15" customHeight="1">
+      <c r="B58" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="C57" s="40"/>
-    </row>
-    <row r="58" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="40" t="s">
+      <c r="C58" s="61"/>
+    </row>
+    <row r="59" spans="2:20" ht="15" customHeight="1">
+      <c r="B59" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="C58" s="40"/>
+      <c r="C59" s="61"/>
+    </row>
+    <row r="60" spans="2:20" ht="29" customHeight="1">
+      <c r="B60" s="55" t="s">
+        <v>764</v>
+      </c>
+      <c r="C60" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
+  <mergeCells count="16">
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C5:L5"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="B11:T11"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5380,70 +5767,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:F10"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+    <row r="5" spans="2:6" ht="15" customHeight="1">
+      <c r="B5" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" customHeight="1">
+      <c r="B6" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="8" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6" ht="15" customHeight="1">
+      <c r="B7" s="63"/>
+      <c r="C7" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="8" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="15" customHeight="1">
+      <c r="B8" s="63"/>
+      <c r="C8" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="8" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6" ht="15" customHeight="1">
+      <c r="B9" s="63"/>
+      <c r="C9" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="15" customHeight="1">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5453,6 +5837,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5460,173 +5849,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="23.7109375"/>
-    <col min="3" max="3" width="16.7109375"/>
-    <col min="4" max="4" width="19.140625"/>
-    <col min="5" max="5" width="13.28515625"/>
-    <col min="6" max="1025" width="8.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:5" ht="15" customHeight="1">
+      <c r="B2" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="2:5" ht="15" customHeight="1">
+      <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:5" ht="15" customHeight="1">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:5" ht="15" customHeight="1">
+      <c r="B5" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:5" ht="15" customHeight="1">
+      <c r="B6" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:5" ht="15" customHeight="1">
+      <c r="B7" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:5" ht="15" customHeight="1">
+      <c r="B8" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="2:5" ht="15" customHeight="1">
+      <c r="B9" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="2:5" ht="15" customHeight="1">
+      <c r="B10" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="2:5" ht="15" customHeight="1">
+      <c r="B11" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="2:5" ht="15" customHeight="1">
+      <c r="B12" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="2:5" ht="15" customHeight="1">
+      <c r="B13" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="17" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5636,2157 +6017,2189 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K216"/>
+  <dimension ref="B2:J216"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A15" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="20"/>
-    <col min="3" max="3" width="25.7109375"/>
-    <col min="4" max="4" width="8.5703125"/>
-    <col min="5" max="5" width="9.85546875"/>
-    <col min="6" max="6" width="20.7109375"/>
-    <col min="7" max="7" width="20.85546875"/>
-    <col min="8" max="9" width="8.5703125"/>
-    <col min="10" max="10" width="20.28515625"/>
-    <col min="11" max="11" width="24.5703125"/>
-    <col min="12" max="1025" width="8.5703125"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="F3" s="44" t="s">
+      <c r="C2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="J3" s="44" t="s">
+      <c r="F2" s="71"/>
+      <c r="I2" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="44"/>
-    </row>
-    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1">
+      <c r="B3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="E3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="F3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="I3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="J3" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+    <row r="4" spans="2:10" ht="15" customHeight="1">
+      <c r="B4" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C4" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="E4" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="F4" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="I4" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="J4" s="32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+    <row r="5" spans="2:10" ht="15" customHeight="1">
+      <c r="B5" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C5" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="E5" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="F5" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="I5" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="J5" s="34" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+    <row r="6" spans="2:10" ht="15" customHeight="1">
+      <c r="B6" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C6" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="E6" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="F6" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="I6" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="J6" s="34" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+    <row r="7" spans="2:10" ht="15" customHeight="1">
+      <c r="B7" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C7" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="E7" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="F7" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="I7" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="J7" s="34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+    <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B8" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C8" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="E8" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="F8" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="I8" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="J8" s="36" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+    <row r="9" spans="2:10" ht="15" customHeight="1" thickTop="1">
+      <c r="B9" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C9" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="E9" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="F9" s="34" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+    <row r="10" spans="2:10" ht="15" customHeight="1">
+      <c r="B10" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C10" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="E10" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="F10" s="34" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+    <row r="11" spans="2:10" ht="15" customHeight="1">
+      <c r="B11" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C11" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="E11" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="F11" s="34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+    <row r="12" spans="2:10" ht="15" customHeight="1">
+      <c r="B12" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C12" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="E12" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="F12" s="34" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+    <row r="13" spans="2:10" ht="15" customHeight="1">
+      <c r="B13" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C13" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="E13" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="F13" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="I13" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="J13" s="69"/>
+    </row>
+    <row r="14" spans="2:10" ht="15" customHeight="1">
+      <c r="B14" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C14" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="E14" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="F14" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="I14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="J14" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+    <row r="15" spans="2:10" ht="15" customHeight="1">
+      <c r="B15" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C15" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="E15" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="F15" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="I15" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="J15" s="32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
+    <row r="16" spans="2:10" ht="15" customHeight="1">
+      <c r="B16" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C16" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="E16" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="F16" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="I16" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="J16" s="34" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+    <row r="17" spans="2:10" ht="15" customHeight="1">
+      <c r="B17" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C17" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="E17" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="F17" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="I17" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="J17" s="34" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
+    <row r="18" spans="2:10" ht="15" customHeight="1">
+      <c r="B18" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C18" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="E18" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="F18" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="I18" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="J18" s="34" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
+    <row r="19" spans="2:10" ht="15" customHeight="1">
+      <c r="B19" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C19" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="E19" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="F19" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="I19" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="J19" s="34" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24" t="s">
+    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B20" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C20" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="E20" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="F20" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="I20" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="J20" s="36" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+    <row r="21" spans="2:10" ht="15" customHeight="1" thickTop="1">
+      <c r="B21" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C21" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="E21" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="F21" s="34" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
+    <row r="22" spans="2:10" ht="15" customHeight="1">
+      <c r="B22" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C22" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="E22" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="F22" s="34" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24" t="s">
+    <row r="23" spans="2:10" ht="15" customHeight="1">
+      <c r="B23" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C23" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="E23" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="F23" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="I23" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="K24" s="44"/>
-    </row>
-    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="24" t="s">
+      <c r="J23" s="69"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1">
+      <c r="B24" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C24" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="E24" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="F24" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="I24" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="J24" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="24" t="s">
+    <row r="25" spans="2:10" ht="15" customHeight="1">
+      <c r="B25" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C25" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="E25" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="F25" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="I25" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="J25" s="38" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+    <row r="26" spans="2:10" ht="15" customHeight="1">
+      <c r="B26" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C26" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="E26" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="F26" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="I26" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="J26" s="34" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24" t="s">
+    <row r="27" spans="2:10" ht="15" customHeight="1">
+      <c r="B27" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C27" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="E27" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="F27" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="I27" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="J27" s="40" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
+    <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B28" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C28" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="E28" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="F28" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="I28" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="J28" s="42" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
+    <row r="29" spans="2:10" ht="15" customHeight="1" thickTop="1">
+      <c r="B29" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C29" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="E29" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="F29" s="34" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
+    <row r="30" spans="2:10" ht="15" customHeight="1">
+      <c r="B30" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C30" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="E30" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="F30" s="34" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
+    <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B31" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C31" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="E31" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="F31" s="34" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
+    <row r="32" spans="2:10" ht="15" customHeight="1">
+      <c r="B32" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C32" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="E32" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="F32" s="34" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="24" t="s">
+      <c r="I32" s="66" t="s">
+        <v>765</v>
+      </c>
+      <c r="J32" s="67"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" customHeight="1">
+      <c r="B33" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C33" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="E33" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="F33" s="34" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
+      <c r="I33" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15" customHeight="1">
+      <c r="B34" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C34" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="E34" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="F34" s="34" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
+      <c r="I34" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15" customHeight="1">
+      <c r="B35" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C35" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="E35" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="F35" s="34" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="24" t="s">
+      <c r="I35" s="47" t="s">
+        <v>766</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15" customHeight="1">
+      <c r="B36" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C36" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="E36" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="F36" s="34" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="24" t="s">
+      <c r="I36" s="49" t="s">
+        <v>767</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B37" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C37" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="E37" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="F37" s="34" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="24" t="s">
+    <row r="38" spans="2:10" ht="15" customHeight="1">
+      <c r="B38" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C38" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="E38" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="F38" s="34" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="24" t="s">
+    <row r="39" spans="2:10" ht="15" customHeight="1">
+      <c r="B39" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C39" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="E39" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="F39" s="34" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="24" t="s">
+    <row r="40" spans="2:10" ht="15" customHeight="1">
+      <c r="B40" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C40" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="E40" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="F40" s="34" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="24" t="s">
+    <row r="41" spans="2:10" ht="15" customHeight="1">
+      <c r="B41" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C41" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="E41" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="F41" s="34" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+    <row r="42" spans="2:10" ht="15" customHeight="1">
+      <c r="B42" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C42" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="E42" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="F42" s="34" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+    <row r="43" spans="2:10" ht="15" customHeight="1">
+      <c r="B43" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C43" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="E43" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="F43" s="34" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
+    <row r="44" spans="2:10" ht="15" customHeight="1">
+      <c r="B44" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C44" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="E44" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="F44" s="34" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="24" t="s">
+    <row r="45" spans="2:10" ht="15" customHeight="1">
+      <c r="B45" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C45" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="E45" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="F45" s="34" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="24" t="s">
+    <row r="46" spans="2:10" ht="15" customHeight="1">
+      <c r="B46" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C46" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="E46" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="F46" s="34" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="24" t="s">
+    <row r="47" spans="2:10" ht="15" customHeight="1">
+      <c r="B47" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C47" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="E47" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="F47" s="34" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="24" t="s">
+    <row r="48" spans="2:10" ht="15" customHeight="1">
+      <c r="B48" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C48" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="E48" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="F48" s="34" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="24" t="s">
+    <row r="49" spans="2:6" ht="15" customHeight="1">
+      <c r="B49" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C49" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="E49" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="F49" s="34" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="24" t="s">
+    <row r="50" spans="2:6" ht="15" customHeight="1">
+      <c r="B50" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C50" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="E50" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="F50" s="34" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="24" t="s">
+    <row r="51" spans="2:6" ht="15" customHeight="1">
+      <c r="B51" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C51" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="E51" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="F51" s="34" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="24" t="s">
+    <row r="52" spans="2:6" ht="15" customHeight="1">
+      <c r="B52" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C52" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="E52" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="F52" s="34" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="24" t="s">
+    <row r="53" spans="2:6" ht="15" customHeight="1">
+      <c r="B53" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C53" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="E53" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="F53" s="34" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="24" t="s">
+    <row r="54" spans="2:6" ht="15" customHeight="1">
+      <c r="B54" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C54" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="E54" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="F54" s="34" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="24" t="s">
+    <row r="55" spans="2:6" ht="15" customHeight="1">
+      <c r="B55" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C55" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="E55" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="F55" s="34" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="24" t="s">
+    <row r="56" spans="2:6" ht="15" customHeight="1" thickBot="1">
+      <c r="B56" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C56" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="E56" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="G57" s="27" t="s">
+      <c r="F56" s="36" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="24" t="s">
+    <row r="57" spans="2:6" ht="15" customHeight="1" thickTop="1">
+      <c r="B57" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C57" s="34" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="24" t="s">
+    <row r="58" spans="2:6" ht="15" customHeight="1">
+      <c r="B58" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C58" s="34" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="24" t="s">
+    <row r="59" spans="2:6" ht="15" customHeight="1">
+      <c r="B59" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C59" s="34" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="24" t="s">
+    <row r="60" spans="2:6" ht="15" customHeight="1">
+      <c r="B60" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C60" s="34" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="24" t="s">
+    <row r="61" spans="2:6" ht="15" customHeight="1">
+      <c r="B61" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C61" s="34" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="24" t="s">
+    <row r="62" spans="2:6" ht="15" customHeight="1">
+      <c r="B62" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C62" s="34" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="24" t="s">
+    <row r="63" spans="2:6" ht="15" customHeight="1">
+      <c r="B63" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C63" s="34" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="24" t="s">
+    <row r="64" spans="2:6" ht="15" customHeight="1">
+      <c r="B64" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C64" s="34" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="24" t="s">
+    <row r="65" spans="2:3" ht="15" customHeight="1">
+      <c r="B65" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C65" s="34" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="24" t="s">
+    <row r="66" spans="2:3" ht="15" customHeight="1">
+      <c r="B66" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C66" s="34" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="24" t="s">
+    <row r="67" spans="2:3" ht="15" customHeight="1">
+      <c r="B67" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C67" s="34" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="24" t="s">
+    <row r="68" spans="2:3" ht="15" customHeight="1">
+      <c r="B68" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C68" s="34" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="24" t="s">
+    <row r="69" spans="2:3" ht="15" customHeight="1">
+      <c r="B69" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C69" s="34" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="24" t="s">
+    <row r="70" spans="2:3" ht="15" customHeight="1">
+      <c r="B70" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C70" s="34" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="24" t="s">
+    <row r="71" spans="2:3" ht="15" customHeight="1">
+      <c r="B71" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C71" s="34" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="24" t="s">
+    <row r="72" spans="2:3" ht="15" customHeight="1">
+      <c r="B72" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C72" s="34" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="74" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="24" t="s">
+    <row r="73" spans="2:3" ht="15" customHeight="1">
+      <c r="B73" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C73" s="34" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="24" t="s">
+    <row r="74" spans="2:3" ht="15" customHeight="1">
+      <c r="B74" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C74" s="34" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="24" t="s">
+    <row r="75" spans="2:3" ht="15" customHeight="1">
+      <c r="B75" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C75" s="34" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="24" t="s">
+    <row r="76" spans="2:3" ht="15" customHeight="1">
+      <c r="B76" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C76" s="34" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="24" t="s">
+    <row r="77" spans="2:3" ht="15" customHeight="1">
+      <c r="B77" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C77" s="34" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="24" t="s">
+    <row r="78" spans="2:3" ht="15" customHeight="1">
+      <c r="B78" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C78" s="34" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="80" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="24" t="s">
+    <row r="79" spans="2:3" ht="15" customHeight="1">
+      <c r="B79" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C79" s="34" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="24" t="s">
+    <row r="80" spans="2:3" ht="15" customHeight="1">
+      <c r="B80" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C80" s="34" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="24" t="s">
+    <row r="81" spans="2:3" ht="15" customHeight="1">
+      <c r="B81" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C81" s="34" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="24" t="s">
+    <row r="82" spans="2:3" ht="15" customHeight="1">
+      <c r="B82" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C82" s="34" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="24" t="s">
+    <row r="83" spans="2:3" ht="15" customHeight="1">
+      <c r="B83" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C83" s="34" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="24" t="s">
+    <row r="84" spans="2:3" ht="15" customHeight="1">
+      <c r="B84" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C84" s="34" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="24" t="s">
+    <row r="85" spans="2:3" ht="15" customHeight="1">
+      <c r="B85" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C85" s="34" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="24" t="s">
+    <row r="86" spans="2:3" ht="15" customHeight="1">
+      <c r="B86" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C86" s="34" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="24" t="s">
+    <row r="87" spans="2:3" ht="15" customHeight="1">
+      <c r="B87" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C87" s="34" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="24" t="s">
+    <row r="88" spans="2:3" ht="15" customHeight="1">
+      <c r="B88" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C88" s="34" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="24" t="s">
+    <row r="89" spans="2:3" ht="15" customHeight="1">
+      <c r="B89" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C89" s="34" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="24" t="s">
+    <row r="90" spans="2:3" ht="15" customHeight="1">
+      <c r="B90" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C90" s="34" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="24" t="s">
+    <row r="91" spans="2:3" ht="15" customHeight="1">
+      <c r="B91" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C91" s="34" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="24" t="s">
+    <row r="92" spans="2:3" ht="15" customHeight="1">
+      <c r="B92" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C92" s="34" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="24" t="s">
+    <row r="93" spans="2:3" ht="15" customHeight="1">
+      <c r="B93" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C93" s="34" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="24" t="s">
+    <row r="94" spans="2:3" ht="15" customHeight="1">
+      <c r="B94" s="33" t="s">
         <v>525</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C94" s="34" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="24" t="s">
+    <row r="95" spans="2:3" ht="15" customHeight="1">
+      <c r="B95" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C95" s="34" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="44" t="s">
+    <row r="96" spans="2:3" ht="15" customHeight="1"/>
+    <row r="99" spans="2:3">
+      <c r="B99" s="70" t="s">
         <v>529</v>
       </c>
-      <c r="C100" s="44"/>
-    </row>
-    <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="22" t="s">
+      <c r="C99" s="71"/>
+    </row>
+    <row r="100" spans="2:3" ht="15" customHeight="1">
+      <c r="B100" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C100" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="22" t="s">
+    <row r="101" spans="2:3" ht="15" customHeight="1">
+      <c r="B101" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C101" s="32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="24" t="s">
+    <row r="102" spans="2:3" ht="15" customHeight="1">
+      <c r="B102" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C102" s="34" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="24" t="s">
+    <row r="103" spans="2:3" ht="15" customHeight="1">
+      <c r="B103" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C103" s="34" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="24" t="s">
+    <row r="104" spans="2:3" ht="15" customHeight="1">
+      <c r="B104" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C104" s="34" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="24" t="s">
+    <row r="105" spans="2:3" ht="15" customHeight="1">
+      <c r="B105" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C105" s="34" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="24" t="s">
+    <row r="106" spans="2:3" ht="15" customHeight="1">
+      <c r="B106" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C106" s="34" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="24" t="s">
+    <row r="107" spans="2:3" ht="15" customHeight="1">
+      <c r="B107" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C107" s="34" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="24" t="s">
+    <row r="108" spans="2:3" ht="15" customHeight="1">
+      <c r="B108" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C108" s="34" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="24" t="s">
+    <row r="109" spans="2:3" ht="15" customHeight="1">
+      <c r="B109" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C109" s="34" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="24" t="s">
+    <row r="110" spans="2:3" ht="15" customHeight="1">
+      <c r="B110" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C110" s="34" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="24" t="s">
+    <row r="111" spans="2:3" ht="15" customHeight="1">
+      <c r="B111" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C111" s="34" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="24" t="s">
+    <row r="112" spans="2:3" ht="15" customHeight="1">
+      <c r="B112" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C112" s="34" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="24" t="s">
+    <row r="113" spans="2:3" ht="15" customHeight="1">
+      <c r="B113" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C113" s="34" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="24" t="s">
+    <row r="114" spans="2:3" ht="15" customHeight="1">
+      <c r="B114" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C114" s="34" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="24" t="s">
+    <row r="115" spans="2:3" ht="15" customHeight="1">
+      <c r="B115" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C115" s="34" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="24" t="s">
+    <row r="116" spans="2:3" ht="15" customHeight="1">
+      <c r="B116" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="C116" s="34" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="24" t="s">
+    <row r="117" spans="2:3" ht="15" customHeight="1">
+      <c r="B117" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C117" s="34" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="24" t="s">
+    <row r="118" spans="2:3" ht="15" customHeight="1">
+      <c r="B118" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C118" s="34" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="24" t="s">
+    <row r="119" spans="2:3" ht="15" customHeight="1">
+      <c r="B119" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="C119" s="34" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="24" t="s">
+    <row r="120" spans="2:3" ht="15" customHeight="1">
+      <c r="B120" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="C120" s="34" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="24" t="s">
+    <row r="121" spans="2:3" ht="15" customHeight="1">
+      <c r="B121" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C121" s="34" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="24" t="s">
+    <row r="122" spans="2:3" ht="15" customHeight="1">
+      <c r="B122" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="C122" s="34" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="24" t="s">
+    <row r="123" spans="2:3" ht="15" customHeight="1">
+      <c r="B123" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="C123" s="34" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="24" t="s">
+    <row r="124" spans="2:3" ht="15" customHeight="1">
+      <c r="B124" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="C124" s="34" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="24" t="s">
+    <row r="125" spans="2:3" ht="15" customHeight="1">
+      <c r="B125" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C125" s="34" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="24" t="s">
+    <row r="126" spans="2:3" ht="15" customHeight="1">
+      <c r="B126" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="C126" s="34" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="24" t="s">
+    <row r="127" spans="2:3" ht="15" customHeight="1">
+      <c r="B127" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="C127" s="34" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="24" t="s">
+    <row r="128" spans="2:3" ht="15" customHeight="1">
+      <c r="B128" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C128" s="34" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="24" t="s">
+    <row r="129" spans="2:3" ht="15" customHeight="1">
+      <c r="B129" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C129" s="34" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="24" t="s">
+    <row r="130" spans="2:3" ht="15" customHeight="1">
+      <c r="B130" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C130" s="34" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="24" t="s">
+    <row r="131" spans="2:3" ht="15" customHeight="1">
+      <c r="B131" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C131" s="34" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="24" t="s">
+    <row r="132" spans="2:3" ht="15" customHeight="1">
+      <c r="B132" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C132" s="34" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="24" t="s">
+    <row r="133" spans="2:3" ht="15" customHeight="1">
+      <c r="B133" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C133" s="34" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="24" t="s">
+    <row r="134" spans="2:3" ht="15" customHeight="1">
+      <c r="B134" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C134" s="34" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="24" t="s">
+    <row r="135" spans="2:3" ht="15" customHeight="1">
+      <c r="B135" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C135" s="34" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="24" t="s">
+    <row r="136" spans="2:3" ht="15" customHeight="1">
+      <c r="B136" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C136" s="34" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="24" t="s">
+    <row r="137" spans="2:3" ht="15" customHeight="1">
+      <c r="B137" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C137" s="34" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="24" t="s">
+    <row r="138" spans="2:3" ht="15" customHeight="1">
+      <c r="B138" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C138" s="34" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="140" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="24" t="s">
+    <row r="139" spans="2:3" ht="15" customHeight="1">
+      <c r="B139" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C139" s="34" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="24" t="s">
+    <row r="140" spans="2:3" ht="15" customHeight="1">
+      <c r="B140" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="C141" s="25" t="s">
+      <c r="C140" s="34" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="44" t="s">
+    <row r="141" spans="2:3" ht="15" customHeight="1"/>
+    <row r="143" spans="2:3">
+      <c r="B143" s="68" t="s">
         <v>608</v>
       </c>
-      <c r="C144" s="44"/>
-    </row>
-    <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="22" t="s">
+      <c r="C143" s="69"/>
+    </row>
+    <row r="144" spans="2:3" ht="15" customHeight="1">
+      <c r="B144" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C145" s="23" t="s">
+      <c r="C144" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="22" t="s">
+    <row r="145" spans="2:3" ht="15" customHeight="1">
+      <c r="B145" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="C146" s="23" t="s">
+      <c r="C145" s="32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="24" t="s">
+    <row r="146" spans="2:3" ht="15" customHeight="1">
+      <c r="B146" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="C147" s="25" t="s">
+      <c r="C146" s="34" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="24" t="s">
+    <row r="147" spans="2:3" ht="15" customHeight="1">
+      <c r="B147" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="C148" s="25" t="s">
+      <c r="C147" s="34" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="24" t="s">
+    <row r="148" spans="2:3" ht="15" customHeight="1">
+      <c r="B148" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="C149" s="25" t="s">
+      <c r="C148" s="34" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="24" t="s">
+    <row r="149" spans="2:3" ht="15" customHeight="1">
+      <c r="B149" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="C150" s="25" t="s">
+      <c r="C149" s="34" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="24" t="s">
+    <row r="150" spans="2:3" ht="15" customHeight="1">
+      <c r="B150" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="C151" s="25" t="s">
+      <c r="C150" s="34" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="24" t="s">
+    <row r="151" spans="2:3" ht="15" customHeight="1">
+      <c r="B151" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="C152" s="25" t="s">
+      <c r="C151" s="34" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="24" t="s">
+    <row r="152" spans="2:3" ht="15" customHeight="1">
+      <c r="B152" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C152" s="34" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="24" t="s">
+    <row r="153" spans="2:3" ht="15" customHeight="1">
+      <c r="B153" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C153" s="34" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="24" t="s">
+    <row r="154" spans="2:3" ht="15" customHeight="1">
+      <c r="B154" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C154" s="34" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="24" t="s">
+    <row r="155" spans="2:3" ht="15" customHeight="1">
+      <c r="B155" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C155" s="34" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="24" t="s">
+    <row r="156" spans="2:3" ht="15" customHeight="1">
+      <c r="B156" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="C157" s="25" t="s">
+      <c r="C156" s="34" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="24" t="s">
+    <row r="157" spans="2:3" ht="15" customHeight="1">
+      <c r="B157" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="C158" s="25" t="s">
+      <c r="C157" s="34" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="24" t="s">
+    <row r="158" spans="2:3" ht="15" customHeight="1">
+      <c r="B158" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="C159" s="25" t="s">
+      <c r="C158" s="34" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="24" t="s">
+    <row r="159" spans="2:3" ht="15" customHeight="1">
+      <c r="B159" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="C160" s="25" t="s">
+      <c r="C159" s="34" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="24" t="s">
+    <row r="160" spans="2:3" ht="15" customHeight="1">
+      <c r="B160" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="C161" s="25" t="s">
+      <c r="C160" s="34" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="24" t="s">
+    <row r="161" spans="2:3" ht="15" customHeight="1">
+      <c r="B161" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="C162" s="25" t="s">
+      <c r="C161" s="34" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="24" t="s">
+    <row r="162" spans="2:3" ht="15" customHeight="1">
+      <c r="B162" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="C163" s="25" t="s">
+      <c r="C162" s="34" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="24" t="s">
+    <row r="163" spans="2:3" ht="15" customHeight="1">
+      <c r="B163" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="C164" s="25" t="s">
+      <c r="C163" s="34" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="24" t="s">
+    <row r="164" spans="2:3" ht="15" customHeight="1">
+      <c r="B164" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="C164" s="34" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="24" t="s">
+    <row r="165" spans="2:3" ht="15" customHeight="1">
+      <c r="B165" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="C166" s="25" t="s">
+      <c r="C165" s="34" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="24" t="s">
+    <row r="166" spans="2:3" ht="15" customHeight="1">
+      <c r="B166" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="C167" s="25" t="s">
+      <c r="C166" s="34" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="24" t="s">
+    <row r="167" spans="2:3" ht="15" customHeight="1">
+      <c r="B167" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="C168" s="25" t="s">
+      <c r="C167" s="34" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="24" t="s">
+    <row r="168" spans="2:3" ht="15" customHeight="1">
+      <c r="B168" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="C169" s="25" t="s">
+      <c r="C168" s="34" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="24" t="s">
+    <row r="169" spans="2:3" ht="15" customHeight="1">
+      <c r="B169" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="C170" s="25" t="s">
+      <c r="C169" s="34" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="24" t="s">
+    <row r="170" spans="2:3" ht="15" customHeight="1">
+      <c r="B170" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="C171" s="25" t="s">
+      <c r="C170" s="34" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="24" t="s">
+    <row r="171" spans="2:3" ht="15" customHeight="1">
+      <c r="B171" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="C172" s="25" t="s">
+      <c r="C171" s="34" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="24" t="s">
+    <row r="172" spans="2:3" ht="15" customHeight="1">
+      <c r="B172" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="C173" s="25" t="s">
+      <c r="C172" s="34" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="24" t="s">
+    <row r="173" spans="2:3" ht="15" customHeight="1">
+      <c r="B173" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="C174" s="25" t="s">
+      <c r="C173" s="34" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="24" t="s">
+    <row r="174" spans="2:3" ht="15" customHeight="1">
+      <c r="B174" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="C175" s="25" t="s">
+      <c r="C174" s="34" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="24" t="s">
+    <row r="175" spans="2:3" ht="15" customHeight="1">
+      <c r="B175" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="C176" s="25" t="s">
+      <c r="C175" s="34" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="24" t="s">
+    <row r="176" spans="2:3" ht="15" customHeight="1">
+      <c r="B176" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="C177" s="25" t="s">
+      <c r="C176" s="34" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="24" t="s">
+    <row r="177" spans="2:3" ht="15" customHeight="1">
+      <c r="B177" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="C178" s="25" t="s">
+      <c r="C177" s="34" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="24" t="s">
+    <row r="178" spans="2:3" ht="15" customHeight="1">
+      <c r="B178" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="C179" s="25" t="s">
+      <c r="C178" s="34" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="24" t="s">
+    <row r="179" spans="2:3" ht="15" customHeight="1">
+      <c r="B179" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="C179" s="34" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="24" t="s">
+    <row r="180" spans="2:3" ht="15" customHeight="1">
+      <c r="B180" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="C181" s="25" t="s">
+      <c r="C180" s="34" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="24" t="s">
+    <row r="181" spans="2:3" ht="15" customHeight="1">
+      <c r="B181" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C181" s="34" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="24" t="s">
+    <row r="182" spans="2:3" ht="15" customHeight="1">
+      <c r="B182" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="C183" s="25" t="s">
+      <c r="C182" s="34" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="24" t="s">
+    <row r="183" spans="2:3" ht="15" customHeight="1">
+      <c r="B183" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="C184" s="25" t="s">
+      <c r="C183" s="34" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="24" t="s">
+    <row r="184" spans="2:3" ht="15" customHeight="1">
+      <c r="B184" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="C185" s="25" t="s">
+      <c r="C184" s="34" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="24" t="s">
+    <row r="185" spans="2:3" ht="15" customHeight="1">
+      <c r="B185" s="33" t="s">
         <v>687</v>
       </c>
-      <c r="C186" s="25" t="s">
+      <c r="C185" s="34" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="24" t="s">
+    <row r="186" spans="2:3" ht="15" customHeight="1">
+      <c r="B186" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="C187" s="25" t="s">
+      <c r="C186" s="34" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="24" t="s">
+    <row r="187" spans="2:3" ht="15" customHeight="1">
+      <c r="B187" s="33" t="s">
         <v>691</v>
       </c>
-      <c r="C188" s="25" t="s">
+      <c r="C187" s="34" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="24" t="s">
+    <row r="188" spans="2:3" ht="15" customHeight="1">
+      <c r="B188" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="C189" s="25" t="s">
+      <c r="C188" s="34" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="24" t="s">
+    <row r="189" spans="2:3" ht="15" customHeight="1">
+      <c r="B189" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="C190" s="25" t="s">
+      <c r="C189" s="34" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="24" t="s">
+    <row r="190" spans="2:3" ht="15" customHeight="1">
+      <c r="B190" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="C191" s="25" t="s">
+      <c r="C190" s="34" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="24" t="s">
+    <row r="191" spans="2:3" ht="15" customHeight="1">
+      <c r="B191" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="C192" s="25" t="s">
+      <c r="C191" s="34" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="24" t="s">
+    <row r="192" spans="2:3" ht="15" customHeight="1">
+      <c r="B192" s="33" t="s">
         <v>701</v>
       </c>
-      <c r="C193" s="25" t="s">
+      <c r="C192" s="34" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="24" t="s">
+    <row r="193" spans="2:3" ht="15" customHeight="1">
+      <c r="B193" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="C194" s="25" t="s">
+      <c r="C193" s="34" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="24" t="s">
+    <row r="194" spans="2:3" ht="15" customHeight="1">
+      <c r="B194" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="C195" s="25" t="s">
+      <c r="C194" s="34" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="24" t="s">
+    <row r="195" spans="2:3" ht="15" customHeight="1">
+      <c r="B195" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="C196" s="25" t="s">
+      <c r="C195" s="34" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="24" t="s">
+    <row r="196" spans="2:3" ht="15" customHeight="1">
+      <c r="B196" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="C197" s="25" t="s">
+      <c r="C196" s="34" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="24" t="s">
+    <row r="197" spans="2:3" ht="15" customHeight="1">
+      <c r="B197" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="C198" s="25" t="s">
+      <c r="C197" s="34" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="24" t="s">
+    <row r="198" spans="2:3" ht="15" customHeight="1">
+      <c r="B198" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="C199" s="25" t="s">
+      <c r="C198" s="34" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="24" t="s">
+    <row r="199" spans="2:3" ht="15" customHeight="1">
+      <c r="B199" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="C200" s="25" t="s">
+      <c r="C199" s="34" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="24" t="s">
+    <row r="200" spans="2:3" ht="15" customHeight="1">
+      <c r="B200" s="33" t="s">
         <v>717</v>
       </c>
-      <c r="C201" s="25" t="s">
+      <c r="C200" s="34" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="24" t="s">
+    <row r="201" spans="2:3" ht="15" customHeight="1">
+      <c r="B201" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="C202" s="25" t="s">
+      <c r="C201" s="34" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="24" t="s">
+    <row r="202" spans="2:3" ht="15" customHeight="1">
+      <c r="B202" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="C203" s="25" t="s">
+      <c r="C202" s="34" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="24" t="s">
+    <row r="203" spans="2:3" ht="15" customHeight="1">
+      <c r="B203" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="C204" s="25" t="s">
+      <c r="C203" s="34" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="24" t="s">
+    <row r="204" spans="2:3" ht="15" customHeight="1">
+      <c r="B204" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="C205" s="25" t="s">
+      <c r="C204" s="34" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="24" t="s">
+    <row r="205" spans="2:3" ht="15" customHeight="1">
+      <c r="B205" s="33" t="s">
         <v>727</v>
       </c>
-      <c r="C206" s="25" t="s">
+      <c r="C205" s="34" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="24" t="s">
+    <row r="206" spans="2:3" ht="15" customHeight="1">
+      <c r="B206" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="C207" s="25" t="s">
+      <c r="C206" s="34" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="24" t="s">
+    <row r="207" spans="2:3" ht="15" customHeight="1">
+      <c r="B207" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C208" s="25" t="s">
+      <c r="C207" s="34" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="24" t="s">
+    <row r="208" spans="2:3" ht="15" customHeight="1">
+      <c r="B208" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="C209" s="25" t="s">
+      <c r="C208" s="34" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="24" t="s">
+    <row r="209" spans="2:3" ht="15" customHeight="1">
+      <c r="B209" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="C210" s="25" t="s">
+      <c r="C209" s="34" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="24" t="s">
+    <row r="210" spans="2:3" ht="15" customHeight="1">
+      <c r="B210" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="C211" s="25" t="s">
+      <c r="C210" s="34" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="24" t="s">
+    <row r="211" spans="2:3" ht="15" customHeight="1">
+      <c r="B211" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="C212" s="25" t="s">
+      <c r="C211" s="34" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="24" t="s">
+    <row r="212" spans="2:3" ht="15" customHeight="1">
+      <c r="B212" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="C213" s="25" t="s">
+      <c r="C212" s="34" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="24" t="s">
+    <row r="213" spans="2:3" ht="15" customHeight="1">
+      <c r="B213" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="C214" s="25" t="s">
+      <c r="C213" s="34" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="24" t="s">
+    <row r="214" spans="2:3" ht="15" customHeight="1">
+      <c r="B214" s="33" t="s">
         <v>745</v>
       </c>
-      <c r="C215" s="25" t="s">
+      <c r="C214" s="34" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="24" t="s">
+    <row r="215" spans="2:3" ht="15" customHeight="1">
+      <c r="B215" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="C216" s="25" t="s">
+      <c r="C215" s="34" t="s">
         <v>748</v>
       </c>
     </row>
+    <row r="216" spans="2:3" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J24:K24"/>
+  <mergeCells count="6">
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="410" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="799">
   <si>
     <t>Display Name</t>
   </si>
@@ -2321,12 +2321,132 @@
   <si>
     <t>Controls new Spreadsheet Auto Type Discovery feature. By default = false (old behaviour)</t>
   </si>
+  <si>
+    <t>caRegions</t>
+  </si>
+  <si>
+    <t>contains(caRegion)</t>
+  </si>
+  <si>
+    <t>data: caRegions</t>
+  </si>
+  <si>
+    <t>Région d'opération pour laquelle la table devrait être utilisée</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>caProvinces</t>
+  </si>
+  <si>
+    <t>contains(caProvince)</t>
+  </si>
+  <si>
+    <t>data: caProvinces</t>
+  </si>
+  <si>
+    <t>Province pour laquelle la table devrait être utilisée</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition caProvinces</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Colombie-Britannique</t>
+  </si>
+  <si>
+    <t>Île-du-Prince-Édouard</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Nouveau-Brunswick</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Nouvelle-Écosse</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Nunavut</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Québec</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Terre-Neuve-et-Labrador</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Territoires du Nord-Ouest</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition caRegions</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Hors Québec</t>
+  </si>
+  <si>
+    <t>caProvince</t>
+  </si>
+  <si>
+    <t>Canada Province</t>
+  </si>
+  <si>
+    <t>caRegion</t>
+  </si>
+  <si>
+    <t>Canada Region Operation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2369,6 +2489,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2415,7 +2549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2445,64 +2579,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2567,21 +2643,6 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -2600,19 +2661,6 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -2720,11 +2768,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2751,33 +2989,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2787,26 +3012,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2822,10 +3048,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2837,12 +3075,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="3"/>
+    <cellStyle name="Обычный 3" xfId="1"/>
+    <cellStyle name="Обычный 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2923,9 +3179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2963,7 +3219,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3035,7 +3291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3456,10 +3712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK58"/>
+  <dimension ref="A1:AMK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5156,84 +5412,84 @@
       </c>
     </row>
     <row r="45" spans="2:20" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="30" t="s">
+      <c r="D45" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="30" t="s">
+      <c r="F45" s="20"/>
+      <c r="G45" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30" t="s">
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30" t="s">
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="T45" s="30" t="s">
+      <c r="T45" s="20" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="21" t="s">
         <v>751</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="22" t="s">
         <v>750</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="32" t="s">
+      <c r="F46" s="22"/>
+      <c r="G46" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32" t="s">
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22" t="s">
         <v>754</v>
       </c>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32" t="s">
+      <c r="N46" s="22"/>
+      <c r="O46" s="22" t="s">
         <v>753</v>
       </c>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32" t="s">
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="T46" s="33" t="s">
+      <c r="T46" s="23" t="s">
         <v>752</v>
       </c>
     </row>
@@ -5282,84 +5538,174 @@
         <v>758</v>
       </c>
     </row>
-    <row r="48" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="5" t="s">
+    <row r="48" spans="2:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="5" t="s">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5" t="s">
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5" t="s">
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T50" s="5" t="s">
+      <c r="T52" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="54" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="C54" s="38"/>
-    </row>
-    <row r="55" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="C55" s="39"/>
     </row>
     <row r="56" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="42"/>
+    </row>
+    <row r="58" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="39"/>
-    </row>
-    <row r="57" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="40" t="s">
+      <c r="C58" s="42"/>
+    </row>
+    <row r="59" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="C57" s="40"/>
-    </row>
-    <row r="58" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="40" t="s">
+      <c r="C59" s="44"/>
+    </row>
+    <row r="60" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="C58" s="40"/>
+      <c r="C60" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="C8:L8"/>
@@ -5381,7 +5727,7 @@
   <dimension ref="B5:F10"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5390,16 +5736,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="46" t="s">
         <v>218</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -5410,7 +5756,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="8" t="s">
         <v>220</v>
       </c>
@@ -5419,7 +5765,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="8" t="s">
         <v>221</v>
       </c>
@@ -5428,7 +5774,7 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="8" t="s">
         <v>222</v>
       </c>
@@ -5437,13 +5783,13 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5458,10 +5804,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5474,16 +5820,17 @@
     <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="2:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -5492,12 +5839,12 @@
       <c r="D3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -5506,128 +5853,156 @@
       <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="27" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="27" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="27" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="27" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="27" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -5643,8 +6018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K216"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A44" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,2121 +6038,2243 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="F3" s="44" t="s">
+      <c r="C3" s="51"/>
+      <c r="F3" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="J3" s="44" t="s">
+      <c r="G3" s="51"/>
+      <c r="J3" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="15" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="15" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="15" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="17" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="15" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="15" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="15" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="15" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="K14" s="44"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="15" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="15" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="15" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="17" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="15" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="15" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="J24" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="K24" s="44"/>
+      <c r="K24" s="51"/>
     </row>
     <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="15" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K28" s="19" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="17" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="15" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="15" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
+    <row r="32" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="15" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
+    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="15" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="24" t="s">
+      <c r="J33" s="52" t="s">
+        <v>792</v>
+      </c>
+      <c r="K33" s="53"/>
+    </row>
+    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="15" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
+      <c r="J34" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="15" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
+      <c r="J35" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="15" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="24" t="s">
+      <c r="J36" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="15" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="24" t="s">
+      <c r="J37" s="32" t="s">
+        <v>793</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="24" t="s">
+    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="15" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="24" t="s">
+    <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="15" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="24" t="s">
+    <row r="41" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="15" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="24" t="s">
+    <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+    <row r="43" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+    <row r="44" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="15" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
+    <row r="45" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="15" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="24" t="s">
+    <row r="46" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="24" t="s">
+    <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="15" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="24" t="s">
+    <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="15" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="15" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="15" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="15" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="15" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="15" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="15" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="G55" s="15" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="15" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="G57" s="27" t="s">
+      <c r="G57" s="17" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="15" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="24" t="s">
+    <row r="59" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="15" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="15" t="s">
         <v>462</v>
       </c>
+      <c r="F60" s="52" t="s">
+        <v>768</v>
+      </c>
+      <c r="G60" s="53"/>
     </row>
     <row r="61" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="15" t="s">
         <v>464</v>
       </c>
+      <c r="F61" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="15" t="s">
         <v>466</v>
       </c>
+      <c r="F62" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="15" t="s">
         <v>468</v>
       </c>
+      <c r="F63" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="64" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="15" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="24" t="s">
+      <c r="F64" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="15" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="24" t="s">
+      <c r="F65" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="G65" s="31" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="24" t="s">
+      <c r="F66" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="15" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="24" t="s">
+      <c r="F67" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="15" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="24" t="s">
+      <c r="F68" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="15" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="24" t="s">
+      <c r="F69" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="15" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="24" t="s">
+      <c r="F70" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="15" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="24" t="s">
+      <c r="F71" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="15" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="24" t="s">
+      <c r="F72" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="15" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="24" t="s">
+      <c r="F73" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="15" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="24" t="s">
+      <c r="F74" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="15" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="24" t="s">
+      <c r="F75" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="15" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="24" t="s">
+    <row r="77" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="15" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="24" t="s">
+    <row r="78" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="15" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="24" t="s">
+    <row r="79" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="15" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="80" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="24" t="s">
+    <row r="80" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="15" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="15" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="15" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="15" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="15" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="15" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="15" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="15" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="15" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="24" t="s">
+      <c r="B89" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="15" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="24" t="s">
+      <c r="B90" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="15" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="15" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="15" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="24" t="s">
+      <c r="B93" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="15" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C94" s="15" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="15" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="15" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="51" t="s">
         <v>529</v>
       </c>
-      <c r="C100" s="44"/>
+      <c r="C100" s="51"/>
     </row>
     <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="24" t="s">
+      <c r="B103" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="15" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="24" t="s">
+      <c r="B105" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="15" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="24" t="s">
+      <c r="B106" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C106" s="15" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C107" s="15" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="24" t="s">
+      <c r="B108" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="15" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="24" t="s">
+      <c r="B109" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="15" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="24" t="s">
+      <c r="B110" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="24" t="s">
+      <c r="B111" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="15" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="15" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="15" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="24" t="s">
+      <c r="B114" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="15" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="24" t="s">
+      <c r="B115" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="15" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="15" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="15" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="15" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="15" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="24" t="s">
+      <c r="B120" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="C120" s="15" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="24" t="s">
+      <c r="B121" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="C121" s="15" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C122" s="15" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="24" t="s">
+      <c r="B123" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="C123" s="15" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="24" t="s">
+      <c r="B124" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="C124" s="15" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="C125" s="15" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C126" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="C127" s="15" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="C128" s="15" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="24" t="s">
+      <c r="B129" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="15" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="24" t="s">
+      <c r="B130" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C130" s="15" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="24" t="s">
+      <c r="B131" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C131" s="15" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="24" t="s">
+      <c r="B132" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="15" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="24" t="s">
+      <c r="B133" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C133" s="15" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="24" t="s">
+      <c r="B134" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C134" s="15" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="24" t="s">
+      <c r="B135" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C135" s="15" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="24" t="s">
+      <c r="B136" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C136" s="15" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C137" s="15" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="24" t="s">
+      <c r="B138" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C139" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="24" t="s">
+      <c r="B140" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="15" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="24" t="s">
+      <c r="B141" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="C141" s="25" t="s">
+      <c r="C141" s="15" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="44" t="s">
+      <c r="B144" s="51" t="s">
         <v>608</v>
       </c>
-      <c r="C144" s="44"/>
+      <c r="C144" s="51"/>
     </row>
     <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C145" s="23" t="s">
+      <c r="C145" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="22" t="s">
+      <c r="B146" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C146" s="23" t="s">
+      <c r="C146" s="13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="24" t="s">
+      <c r="B147" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="C147" s="25" t="s">
+      <c r="C147" s="15" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="24" t="s">
+      <c r="B148" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="C148" s="25" t="s">
+      <c r="C148" s="15" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="24" t="s">
+      <c r="B149" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="C149" s="25" t="s">
+      <c r="C149" s="15" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="24" t="s">
+      <c r="B150" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="C150" s="25" t="s">
+      <c r="C150" s="15" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="24" t="s">
+      <c r="B151" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="C151" s="25" t="s">
+      <c r="C151" s="15" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="24" t="s">
+      <c r="B152" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="C152" s="25" t="s">
+      <c r="C152" s="15" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="24" t="s">
+      <c r="B153" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="24" t="s">
+      <c r="B154" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="15" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="24" t="s">
+      <c r="B155" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C155" s="15" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="24" t="s">
+      <c r="B156" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C156" s="15" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="24" t="s">
+      <c r="B157" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="C157" s="25" t="s">
+      <c r="C157" s="15" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="24" t="s">
+      <c r="B158" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="C158" s="25" t="s">
+      <c r="C158" s="15" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="24" t="s">
+      <c r="B159" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="C159" s="25" t="s">
+      <c r="C159" s="15" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="24" t="s">
+      <c r="B160" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="C160" s="25" t="s">
+      <c r="C160" s="15" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="24" t="s">
+      <c r="B161" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="C161" s="25" t="s">
+      <c r="C161" s="15" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="24" t="s">
+      <c r="B162" s="14" t="s">
         <v>639</v>
       </c>
-      <c r="C162" s="25" t="s">
+      <c r="C162" s="15" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="24" t="s">
+      <c r="B163" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="C163" s="25" t="s">
+      <c r="C163" s="15" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="24" t="s">
+      <c r="B164" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="C164" s="25" t="s">
+      <c r="C164" s="15" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="24" t="s">
+      <c r="B165" s="14" t="s">
         <v>645</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="C165" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="24" t="s">
+      <c r="B166" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="C166" s="25" t="s">
+      <c r="C166" s="15" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="24" t="s">
+      <c r="B167" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="C167" s="25" t="s">
+      <c r="C167" s="15" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="C168" s="25" t="s">
+      <c r="C168" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="24" t="s">
+      <c r="B169" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="C169" s="25" t="s">
+      <c r="C169" s="15" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="24" t="s">
+      <c r="B170" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="C170" s="25" t="s">
+      <c r="C170" s="15" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="24" t="s">
+      <c r="B171" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="C171" s="25" t="s">
+      <c r="C171" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="24" t="s">
+      <c r="B172" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="C172" s="25" t="s">
+      <c r="C172" s="15" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="24" t="s">
+      <c r="B173" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="C173" s="25" t="s">
+      <c r="C173" s="15" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="24" t="s">
+      <c r="B174" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="C174" s="25" t="s">
+      <c r="C174" s="15" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="24" t="s">
+      <c r="B175" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="C175" s="25" t="s">
+      <c r="C175" s="15" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="24" t="s">
+      <c r="B176" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="C176" s="25" t="s">
+      <c r="C176" s="15" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="C177" s="25" t="s">
+      <c r="C177" s="15" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="14" t="s">
         <v>671</v>
       </c>
-      <c r="C178" s="25" t="s">
+      <c r="C178" s="15" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="24" t="s">
+      <c r="B179" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="C179" s="25" t="s">
+      <c r="C179" s="15" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="24" t="s">
+      <c r="B180" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="C180" s="15" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="24" t="s">
+      <c r="B181" s="14" t="s">
         <v>677</v>
       </c>
-      <c r="C181" s="25" t="s">
+      <c r="C181" s="15" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="15" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="24" t="s">
+      <c r="B183" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="C183" s="25" t="s">
+      <c r="C183" s="15" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="24" t="s">
+      <c r="B184" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C184" s="25" t="s">
+      <c r="C184" s="15" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="24" t="s">
+      <c r="B185" s="14" t="s">
         <v>685</v>
       </c>
-      <c r="C185" s="25" t="s">
+      <c r="C185" s="15" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="24" t="s">
+      <c r="B186" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="C186" s="25" t="s">
+      <c r="C186" s="15" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="24" t="s">
+      <c r="B187" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="C187" s="25" t="s">
+      <c r="C187" s="15" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="24" t="s">
+      <c r="B188" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="C188" s="25" t="s">
+      <c r="C188" s="15" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="24" t="s">
+      <c r="B189" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="C189" s="25" t="s">
+      <c r="C189" s="15" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="24" t="s">
+      <c r="B190" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="C190" s="25" t="s">
+      <c r="C190" s="15" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="C191" s="25" t="s">
+      <c r="C191" s="15" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="24" t="s">
+      <c r="B192" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="C192" s="25" t="s">
+      <c r="C192" s="15" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="24" t="s">
+      <c r="B193" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="C193" s="25" t="s">
+      <c r="C193" s="15" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="24" t="s">
+      <c r="B194" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="C194" s="25" t="s">
+      <c r="C194" s="15" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="24" t="s">
+      <c r="B195" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="C195" s="25" t="s">
+      <c r="C195" s="15" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="24" t="s">
+      <c r="B196" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="C196" s="25" t="s">
+      <c r="C196" s="15" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="24" t="s">
+      <c r="B197" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="C197" s="25" t="s">
+      <c r="C197" s="15" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="24" t="s">
+      <c r="B198" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="C198" s="25" t="s">
+      <c r="C198" s="15" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="24" t="s">
+      <c r="B199" s="14" t="s">
         <v>713</v>
       </c>
-      <c r="C199" s="25" t="s">
+      <c r="C199" s="15" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="24" t="s">
+      <c r="B200" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="C200" s="25" t="s">
+      <c r="C200" s="15" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="24" t="s">
+      <c r="B201" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="C201" s="25" t="s">
+      <c r="C201" s="15" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="24" t="s">
+      <c r="B202" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="C202" s="25" t="s">
+      <c r="C202" s="15" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="24" t="s">
+      <c r="B203" s="14" t="s">
         <v>721</v>
       </c>
-      <c r="C203" s="25" t="s">
+      <c r="C203" s="15" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="24" t="s">
+      <c r="B204" s="14" t="s">
         <v>723</v>
       </c>
-      <c r="C204" s="25" t="s">
+      <c r="C204" s="15" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="24" t="s">
+      <c r="B205" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="C205" s="25" t="s">
+      <c r="C205" s="15" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="24" t="s">
+      <c r="B206" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="C206" s="25" t="s">
+      <c r="C206" s="15" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="24" t="s">
+      <c r="B207" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C207" s="25" t="s">
+      <c r="C207" s="15" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="24" t="s">
+      <c r="B208" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="C208" s="25" t="s">
+      <c r="C208" s="15" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="24" t="s">
+      <c r="B209" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="C209" s="25" t="s">
+      <c r="C209" s="15" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="24" t="s">
+      <c r="B210" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="C210" s="25" t="s">
+      <c r="C210" s="15" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="24" t="s">
+      <c r="B211" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="C211" s="25" t="s">
+      <c r="C211" s="15" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="24" t="s">
+      <c r="B212" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="C212" s="25" t="s">
+      <c r="C212" s="15" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="24" t="s">
+      <c r="B213" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="C213" s="25" t="s">
+      <c r="C213" s="15" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="24" t="s">
+      <c r="B214" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="C214" s="25" t="s">
+      <c r="C214" s="15" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="24" t="s">
+      <c r="B215" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="C215" s="25" t="s">
+      <c r="C215" s="15" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="24" t="s">
+      <c r="B216" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="C216" s="25" t="s">
+      <c r="C216" s="15" t="s">
         <v>748</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="B144:C144"/>
     <mergeCell ref="B3:C3"/>
@@ -7785,6 +8282,8 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J24:K24"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19980" tabRatio="410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18900" tabRatio="410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Runtime Scope" sheetId="4" r:id="rId4"/>
     <sheet name="Data Enums" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="145621" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="808">
   <si>
     <t>Display Name</t>
   </si>
@@ -2352,6 +2352,126 @@
   </si>
   <si>
     <t>Deviation</t>
+  </si>
+  <si>
+    <t>caProvince</t>
+  </si>
+  <si>
+    <t>data: caProvinces</t>
+  </si>
+  <si>
+    <t>Canada Province</t>
+  </si>
+  <si>
+    <t>caRegion</t>
+  </si>
+  <si>
+    <t>data: caRegions</t>
+  </si>
+  <si>
+    <t>Canada Region Operation</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition caProvinces</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Colombie-Britannique</t>
+  </si>
+  <si>
+    <t>Île-du-Prince-Édouard</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Nouveau-Brunswick</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Nouvelle-Écosse</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Nunavut</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Québec</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Terre-Neuve-et-Labrador</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Territoires du Nord-Ouest</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition caRegions</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Hors Québec</t>
+  </si>
+  <si>
+    <t>caRegions</t>
+  </si>
+  <si>
+    <t>contains(caRegion)</t>
+  </si>
+  <si>
+    <t>Région d'opération pour laquelle la table devrait être utilisée</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>caProvinces</t>
+  </si>
+  <si>
+    <t>contains(caProvince)</t>
+  </si>
+  <si>
+    <t>Province pour laquelle la table devrait être utilisée</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2475,97 +2595,9 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2579,140 +2611,6 @@
         <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2736,44 +2634,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2838,78 +2701,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
         <color auto="1"/>
       </right>
       <top/>
@@ -2924,13 +2717,63 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="hair">
         <color auto="1"/>
       </right>
@@ -2939,12 +2782,297 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2983,210 +3111,200 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="32" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3556,226 +3674,221 @@
   <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:J12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="30" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-    </row>
-    <row r="4" spans="2:10" ht="72" customHeight="1">
-      <c r="B4" s="1" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1">
-      <c r="B6" s="1" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-    </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1">
-      <c r="B7" s="1" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="2:10" ht="51.75" customHeight="1">
-      <c r="B8" s="1" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-    </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1">
-      <c r="B9" s="1" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-    </row>
-    <row r="10" spans="2:10" ht="30" customHeight="1">
-      <c r="B10" s="1" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="11" spans="2:10" ht="30" customHeight="1">
-      <c r="B11" s="1" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-    </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1">
-      <c r="B12" s="1" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" customHeight="1">
-      <c r="B13" s="1" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-    </row>
-    <row r="14" spans="2:10" ht="30" customHeight="1">
-      <c r="B14" s="1" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-    </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1">
-      <c r="B15" s="52" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3785,6 +3898,11 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3798,1945 +3916,2047 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK60"/>
+  <dimension ref="A1:AMK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="2"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="11" width="8.83203125" style="2"/>
-    <col min="12" max="12" width="19.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="2"/>
-    <col min="15" max="15" width="16" style="2" customWidth="1"/>
-    <col min="16" max="1025" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="20.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="1"/>
+    <col min="17" max="17" width="14" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="45.85546875" style="1" customWidth="1"/>
+    <col min="21" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="11.25" customHeight="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-    </row>
-    <row r="2" spans="2:20" ht="11.25" customHeight="1">
-      <c r="B2" s="1" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="2:20" ht="57.75" customHeight="1">
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-    </row>
-    <row r="4" spans="2:20" ht="22.5" customHeight="1">
-      <c r="B4" s="1" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-    </row>
-    <row r="5" spans="2:20" ht="22.5" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-    </row>
-    <row r="6" spans="2:20" ht="51.75" customHeight="1">
-      <c r="B6" s="1" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-    </row>
-    <row r="7" spans="2:20" ht="42.75" customHeight="1">
-      <c r="B7" s="1" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-    </row>
-    <row r="8" spans="2:20" ht="33" customHeight="1">
-      <c r="B8" s="1" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-    </row>
-    <row r="9" spans="2:20" ht="33" customHeight="1">
-      <c r="B9" s="1" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-    </row>
-    <row r="10" spans="2:20" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:20" ht="15" customHeight="1">
-      <c r="B11" s="56" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="58"/>
-    </row>
-    <row r="12" spans="2:20" ht="30" customHeight="1">
-      <c r="B12" s="20" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+    </row>
+    <row r="12" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="R12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="S12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T12" s="22" t="s">
+      <c r="T12" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="60" customHeight="1">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="2:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="R13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="22" t="s">
+      <c r="T13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="30" customHeight="1">
-      <c r="B14" s="23" t="s">
+    <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="24" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="P14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24" t="s">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="S14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="T14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="105" customHeight="1">
-      <c r="B15" s="23" t="s">
+    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="24" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="26" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24" t="s">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="T15" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="28.25" customHeight="1">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="24" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T16" s="25" t="s">
+      <c r="T16" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="30" customHeight="1">
-      <c r="B17" s="23" t="s">
+    <row r="17" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="24" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T17" s="25" t="s">
+      <c r="T17" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="30" customHeight="1">
-      <c r="B18" s="23" t="s">
+    <row r="18" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24" t="s">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24" t="s">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24" t="s">
+      <c r="R18" s="5"/>
+      <c r="S18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T18" s="25" t="s">
+      <c r="T18" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="30" customHeight="1">
-      <c r="B19" s="23" t="s">
+    <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24" t="s">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24" t="s">
+      <c r="R19" s="5"/>
+      <c r="S19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T19" s="25" t="s">
+      <c r="T19" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="30" customHeight="1">
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24" t="s">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24" t="s">
+      <c r="R20" s="5"/>
+      <c r="S20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T20" s="25" t="s">
+      <c r="T20" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="30" customHeight="1">
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="D21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24" t="s">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24" t="s">
+      <c r="R21" s="5"/>
+      <c r="S21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T21" s="25" t="s">
+      <c r="T21" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="30" customHeight="1">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="24" t="s">
+      <c r="D22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="24" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L22" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24" t="s">
+      <c r="L22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T22" s="25" t="s">
+      <c r="T22" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="30" customHeight="1">
-      <c r="B23" s="23" t="s">
+    <row r="23" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="24" t="s">
+      <c r="D23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="24" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L23" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24" t="s">
+      <c r="L23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24" t="s">
+      <c r="R23" s="5"/>
+      <c r="S23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="T23" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="30" customHeight="1">
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="24" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24" t="s">
+      <c r="L24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T24" s="25" t="s">
+      <c r="T24" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="30" customHeight="1">
-      <c r="B25" s="23" t="s">
+    <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="24" t="s">
+      <c r="D25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="24" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24" t="s">
+      <c r="L25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24" t="s">
+      <c r="R25" s="5"/>
+      <c r="S25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T25" s="25" t="s">
+      <c r="T25" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="75" customHeight="1">
-      <c r="B26" s="23" t="s">
+    <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="24" t="s">
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="24" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M26" s="24" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24" t="s">
+      <c r="N26" s="5"/>
+      <c r="O26" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="24" t="s">
+      <c r="P26" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24" t="s">
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T26" s="25" t="s">
+      <c r="T26" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="45" customHeight="1">
-      <c r="B27" s="23" t="s">
+    <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="24" t="s">
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="24" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24" t="s">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24" t="s">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T27" s="25" t="s">
+      <c r="T27" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="30" customHeight="1">
-      <c r="B28" s="23" t="s">
+    <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="24" t="s">
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="24" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M28" s="24" t="s">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24" t="s">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24" t="s">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T28" s="25" t="s">
+      <c r="T28" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:20" ht="105" customHeight="1">
-      <c r="B29" s="23" t="s">
+    <row r="29" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="24" t="s">
+      <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="24" t="s">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24" t="s">
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24" t="s">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="25" t="s">
+      <c r="T29" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="105" customHeight="1">
-      <c r="B30" s="23" t="s">
+    <row r="30" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="24" t="s">
+      <c r="D30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="24" t="s">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24" t="s">
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24" t="s">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T30" s="25" t="s">
+      <c r="T30" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="105" customHeight="1">
-      <c r="B31" s="23" t="s">
+    <row r="31" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="24" t="s">
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="24" t="s">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24" t="s">
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24" t="s">
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T31" s="25" t="s">
+      <c r="T31" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="105" customHeight="1">
-      <c r="B32" s="23" t="s">
+    <row r="32" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="24" t="s">
+      <c r="D32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="24" t="s">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24" t="s">
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24" t="s">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T32" s="25" t="s">
+      <c r="T32" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="2:20" ht="105" customHeight="1">
-      <c r="B33" s="23" t="s">
+    <row r="33" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="24" t="s">
+      <c r="D33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="24" t="s">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24" t="s">
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24" t="s">
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T33" s="25" t="s">
+      <c r="T33" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="2:20" ht="105" customHeight="1">
-      <c r="B34" s="23" t="s">
+    <row r="34" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="24" t="s">
+      <c r="D34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L34" s="24" t="s">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24" t="s">
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24" t="s">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T34" s="25" t="s">
+      <c r="T34" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="2:20" ht="105" customHeight="1">
-      <c r="B35" s="23" t="s">
+    <row r="35" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="24" t="s">
+      <c r="D35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="24" t="s">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24" t="s">
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24" t="s">
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="T35" s="25" t="s">
+      <c r="T35" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="2:20" ht="78.75" customHeight="1">
-      <c r="B36" s="23" t="s">
+    <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="24" t="s">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24" t="s">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24" t="s">
+      <c r="N36" s="5"/>
+      <c r="O36" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24" t="s">
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T36" s="25" t="s">
+      <c r="T36" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="2:20" ht="75" customHeight="1">
-      <c r="B37" s="23" t="s">
+    <row r="37" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="24" t="s">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24" t="s">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="27" t="b">
+      <c r="N37" s="7" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O37" s="24" t="s">
+      <c r="O37" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24" t="s">
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T37" s="25" t="s">
+      <c r="T37" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="2:20" ht="30" customHeight="1">
-      <c r="B38" s="23" t="s">
+    <row r="38" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24" t="s">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="24" t="s">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24" t="s">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="N38" s="27" t="b">
+      <c r="N38" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24" t="s">
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T38" s="25" t="s">
+      <c r="T38" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="2:20" ht="58.5" customHeight="1">
-      <c r="B39" s="23" t="s">
+    <row r="39" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="24" t="s">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24" t="s">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24" t="s">
+      <c r="N39" s="5"/>
+      <c r="O39" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24" t="s">
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="T39" s="25" t="s">
+      <c r="T39" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="2:20" ht="75" customHeight="1">
-      <c r="B40" s="23" t="s">
+    <row r="40" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="24" t="s">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24" t="s">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="N40" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="O40" s="24" t="s">
+      <c r="O40" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24" t="s">
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="T40" s="25" t="s">
+      <c r="T40" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="2:20" ht="15" customHeight="1">
-      <c r="B41" s="23" t="s">
+    <row r="41" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" s="24" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24" t="s">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T41" s="25"/>
-    </row>
-    <row r="42" spans="2:20" ht="15" customHeight="1">
-      <c r="B42" s="23" t="s">
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="24" t="s">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24" t="s">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T42" s="25"/>
-    </row>
-    <row r="43" spans="2:20" ht="15" customHeight="1">
-      <c r="B43" s="23" t="s">
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="24" t="s">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24" t="s">
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T43" s="25"/>
-    </row>
-    <row r="44" spans="2:20" ht="182">
-      <c r="B44" s="23" t="s">
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="24" t="s">
+      <c r="D44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="24" t="s">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24" t="s">
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T44" s="25" t="s">
+      <c r="T44" s="5" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="45" spans="2:20" ht="38.25" customHeight="1">
-      <c r="B45" s="23" t="s">
+    <row r="45" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="24" t="s">
+      <c r="D45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="24" t="s">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24" t="s">
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24" t="s">
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T45" s="25" t="s">
+      <c r="T45" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="2:20" ht="31.5" customHeight="1">
-      <c r="B46" s="23" t="s">
+    <row r="46" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24" t="s">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="24" t="s">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24" t="s">
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24" t="s">
+      <c r="N46" s="5"/>
+      <c r="O46" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24" t="s">
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T46" s="25" t="s">
+      <c r="T46" s="5" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="47" spans="2:20" ht="168">
-      <c r="B47" s="23" t="s">
+    <row r="47" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="24" t="s">
+      <c r="D47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="24" t="s">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L47" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M47" s="24" t="s">
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M47" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="N47" s="24" t="b">
+      <c r="N47" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24" t="s">
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T47" s="25" t="s">
+      <c r="T47" s="5" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="48" spans="2:20" ht="140">
-      <c r="B48" s="28" t="s">
+    <row r="48" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="D48" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="29" t="s">
+      <c r="D48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29" t="s">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="L48" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="M48" s="29" t="s">
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M48" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29" t="s">
+      <c r="N48" s="5"/>
+      <c r="O48" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29" t="s">
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T48" s="30" t="s">
+      <c r="T48" s="5" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="50" spans="2:20" ht="15" thickBot="1"/>
-    <row r="51" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B51" s="4" t="s">
+    <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" s="4" t="s">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4" t="s">
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T51" s="4" t="s">
+      <c r="T53" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="2:20" ht="15" customHeight="1">
-      <c r="B55" s="59" t="s">
+    <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="59"/>
-    </row>
-    <row r="56" spans="2:20" ht="15" customHeight="1">
-      <c r="B56" s="60" t="s">
+      <c r="C57" s="21"/>
+    </row>
+    <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C56" s="60"/>
-    </row>
-    <row r="57" spans="2:20" ht="15" customHeight="1">
-      <c r="B57" s="60" t="s">
+      <c r="C58" s="22"/>
+    </row>
+    <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="C57" s="60"/>
-    </row>
-    <row r="58" spans="2:20" ht="15" customHeight="1">
-      <c r="B58" s="61" t="s">
+      <c r="C59" s="22"/>
+    </row>
+    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C58" s="61"/>
-    </row>
-    <row r="59" spans="2:20" ht="15" customHeight="1">
-      <c r="B59" s="61" t="s">
+      <c r="C60" s="23"/>
+    </row>
+    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="61"/>
-    </row>
-    <row r="60" spans="2:20" ht="29" customHeight="1">
-      <c r="B60" s="55" t="s">
+      <c r="C61" s="23"/>
+    </row>
+    <row r="62" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="C60" s="55"/>
+      <c r="C62" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C3:L3"/>
@@ -5747,14 +5967,14 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="B11:T11"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5768,66 +5988,66 @@
   <dimension ref="B5:F10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="2:6" ht="15" customHeight="1">
-      <c r="B5" s="62" t="s">
+    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1">
-      <c r="B6" s="63" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1">
-      <c r="B7" s="63"/>
-      <c r="C7" s="6" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1">
-      <c r="B8" s="63"/>
-      <c r="C8" s="6" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1">
-      <c r="B9" s="63"/>
-      <c r="C9" s="6" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5847,168 +6067,202 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" customHeight="1">
-      <c r="B2" s="65" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-    </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1">
-      <c r="B3" s="7" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="58" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="58" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="58" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="58" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="58" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="58" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="60" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1">
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="58" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="57" t="s">
+        <v>768</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="61" t="s">
+        <v>771</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>772</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -6027,2172 +6281,2300 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J216"/>
+  <dimension ref="B1:J216"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A40" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="24.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="11" max="11" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="68" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="C2" s="34"/>
+      <c r="E2" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="I2" s="68" t="s">
+      <c r="F2" s="40"/>
+      <c r="I2" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="69"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="31" t="s">
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1">
-      <c r="B5" s="33" t="s">
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1">
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1">
-      <c r="B7" s="33" t="s">
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B8" s="33" t="s">
+    <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="38" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" thickTop="1">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1">
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="J13" s="69"/>
-    </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1">
-      <c r="B14" s="33" t="s">
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="B16" s="33" t="s">
+    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="14" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="33" t="s">
+    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="33" t="s">
+    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="33" t="s">
+    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B20" s="33" t="s">
+    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15" customHeight="1" thickTop="1">
-      <c r="B21" s="33" t="s">
+    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="14" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1">
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1">
-      <c r="B23" s="33" t="s">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="I23" s="68" t="s">
+      <c r="I23" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="J23" s="69"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1">
-      <c r="B24" s="33" t="s">
+      <c r="J23" s="34"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1">
-      <c r="B25" s="33" t="s">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1">
-      <c r="B26" s="33" t="s">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="J26" s="34" t="s">
+      <c r="J26" s="14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1">
-      <c r="B27" s="33" t="s">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="J27" s="40" t="s">
+      <c r="J27" s="15" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="44" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" thickTop="1">
-      <c r="B29" s="33" t="s">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="14" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1">
-      <c r="B30" s="33" t="s">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="14" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B31" s="33" t="s">
+    <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="14" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1">
-      <c r="B32" s="33" t="s">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="I32" s="66" t="s">
+      <c r="I32" s="26" t="s">
         <v>765</v>
       </c>
-      <c r="J32" s="67"/>
-    </row>
-    <row r="33" spans="2:10" ht="15" customHeight="1">
-      <c r="B33" s="33" t="s">
+      <c r="J32" s="34"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="I33" s="43" t="s">
+      <c r="I33" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15" customHeight="1">
-      <c r="B34" s="33" t="s">
+    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="J34" s="46" t="s">
+      <c r="J34" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="15" customHeight="1">
-      <c r="B35" s="33" t="s">
+    <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="36" t="s">
         <v>374</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="I35" s="47" t="s">
+      <c r="I35" s="36" t="s">
         <v>766</v>
       </c>
-      <c r="J35" s="48" t="s">
+      <c r="J35" s="14" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="15" customHeight="1">
-      <c r="B36" s="33" t="s">
+    <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="I36" s="49" t="s">
+      <c r="I36" s="37" t="s">
         <v>767</v>
       </c>
-      <c r="J36" s="50" t="s">
+      <c r="J36" s="38" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B37" s="33" t="s">
+    <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="14" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1">
-      <c r="B38" s="33" t="s">
+    <row r="38" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="14" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15" customHeight="1">
-      <c r="B39" s="33" t="s">
+    <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="14" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1">
-      <c r="B40" s="33" t="s">
+      <c r="I39" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="J39" s="34"/>
+    </row>
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="14" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1">
-      <c r="B41" s="33" t="s">
+      <c r="I40" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="14" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1">
-      <c r="B42" s="33" t="s">
+      <c r="I41" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" s="65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="14" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1">
-      <c r="B43" s="33" t="s">
+      <c r="I42" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="J42" s="67" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F43" s="14" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1">
-      <c r="B44" s="33" t="s">
+      <c r="I43" s="68" t="s">
+        <v>799</v>
+      </c>
+      <c r="J43" s="69" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1">
-      <c r="B45" s="33" t="s">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="14" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1">
-      <c r="B46" s="33" t="s">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1">
-      <c r="B47" s="33" t="s">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F47" s="14" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1">
-      <c r="B48" s="33" t="s">
+    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="14" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15" customHeight="1">
-      <c r="B49" s="33" t="s">
+    <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="14" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="15" customHeight="1">
-      <c r="B50" s="33" t="s">
+    <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="36" t="s">
         <v>431</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="36" t="s">
         <v>433</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F50" s="14" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="15" customHeight="1">
-      <c r="B51" s="33" t="s">
+    <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="36" t="s">
         <v>435</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="F51" s="14" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="15" customHeight="1">
-      <c r="B52" s="33" t="s">
+    <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="14" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="15" customHeight="1">
-      <c r="B53" s="33" t="s">
+    <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F53" s="14" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="15" customHeight="1">
-      <c r="B54" s="33" t="s">
+    <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="14" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="15" customHeight="1">
-      <c r="B55" s="33" t="s">
+    <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="14" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="15" customHeight="1" thickBot="1">
-      <c r="B56" s="33" t="s">
+    <row r="56" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="38" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="15" customHeight="1" thickTop="1">
-      <c r="B57" s="33" t="s">
+    <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="14" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="15" customHeight="1">
-      <c r="B58" s="33" t="s">
+    <row r="58" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="36" t="s">
         <v>459</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="15" customHeight="1">
-      <c r="B59" s="33" t="s">
+    <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="14" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" ht="15" customHeight="1">
-      <c r="B60" s="33" t="s">
+      <c r="E59" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="F59" s="34"/>
+    </row>
+    <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="14" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" ht="15" customHeight="1">
-      <c r="B61" s="33" t="s">
+      <c r="E60" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="14" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" ht="15" customHeight="1">
-      <c r="B62" s="33" t="s">
+      <c r="E61" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" s="65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="36" t="s">
         <v>467</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="14" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" ht="15" customHeight="1">
-      <c r="B63" s="33" t="s">
+      <c r="E62" s="66" t="s">
+        <v>775</v>
+      </c>
+      <c r="F62" s="67" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="14" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" ht="15" customHeight="1">
-      <c r="B64" s="33" t="s">
+      <c r="E63" s="66" t="s">
+        <v>777</v>
+      </c>
+      <c r="F63" s="67" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="36" t="s">
         <v>470</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="14" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" ht="15" customHeight="1">
-      <c r="B65" s="33" t="s">
+      <c r="E64" s="66" t="s">
         <v>472</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="F64" s="67" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" ht="15" customHeight="1">
-      <c r="B66" s="33" t="s">
+      <c r="E65" s="66" t="s">
+        <v>780</v>
+      </c>
+      <c r="F65" s="67" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="14" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" ht="15" customHeight="1">
-      <c r="B67" s="33" t="s">
+      <c r="E66" s="66" t="s">
+        <v>782</v>
+      </c>
+      <c r="F66" s="67" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="36" t="s">
         <v>476</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="14" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" ht="15" customHeight="1">
-      <c r="B68" s="33" t="s">
+      <c r="E67" s="66" t="s">
+        <v>784</v>
+      </c>
+      <c r="F67" s="67" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="14" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" ht="15" customHeight="1">
-      <c r="B69" s="33" t="s">
+      <c r="E68" s="66" t="s">
+        <v>786</v>
+      </c>
+      <c r="F68" s="67" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="14" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" ht="15" customHeight="1">
-      <c r="B70" s="33" t="s">
+      <c r="E69" s="66" t="s">
+        <v>788</v>
+      </c>
+      <c r="F69" s="67" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="14" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" ht="15" customHeight="1">
-      <c r="B71" s="33" t="s">
+      <c r="E70" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="F70" s="67" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="14" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" ht="15" customHeight="1">
-      <c r="B72" s="33" t="s">
+      <c r="E71" s="66" t="s">
+        <v>492</v>
+      </c>
+      <c r="F71" s="67" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="36" t="s">
         <v>484</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="14" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" ht="15" customHeight="1">
-      <c r="B73" s="33" t="s">
+      <c r="E72" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="F72" s="67" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="36" t="s">
         <v>486</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="14" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" ht="15" customHeight="1">
-      <c r="B74" s="33" t="s">
+      <c r="E73" s="66" t="s">
+        <v>794</v>
+      </c>
+      <c r="F73" s="67" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="14" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" ht="15" customHeight="1">
-      <c r="B75" s="33" t="s">
+      <c r="E74" s="68" t="s">
+        <v>796</v>
+      </c>
+      <c r="F74" s="69" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="36" t="s">
         <v>490</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="14" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="15" customHeight="1">
-      <c r="B76" s="33" t="s">
+    <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="36" t="s">
         <v>492</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="14" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="15" customHeight="1">
-      <c r="B77" s="33" t="s">
+    <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="14" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="15" customHeight="1">
-      <c r="B78" s="33" t="s">
+    <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="14" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="15" customHeight="1">
-      <c r="B79" s="33" t="s">
+    <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="14" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="80" spans="2:3" ht="15" customHeight="1">
-      <c r="B80" s="33" t="s">
+    <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="C80" s="14" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="15" customHeight="1">
-      <c r="B81" s="33" t="s">
+    <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="14" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="15" customHeight="1">
-      <c r="B82" s="33" t="s">
+    <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="14" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="15" customHeight="1">
-      <c r="B83" s="33" t="s">
+    <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="14" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="15" customHeight="1">
-      <c r="B84" s="33" t="s">
+    <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="14" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="15" customHeight="1">
-      <c r="B85" s="33" t="s">
+    <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C85" s="14" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="15" customHeight="1">
-      <c r="B86" s="33" t="s">
+    <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="14" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="15" customHeight="1">
-      <c r="B87" s="33" t="s">
+    <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C87" s="14" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="15" customHeight="1">
-      <c r="B88" s="33" t="s">
+    <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="14" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="15" customHeight="1">
-      <c r="B89" s="33" t="s">
+    <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="C89" s="34" t="s">
+      <c r="C89" s="14" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="15" customHeight="1">
-      <c r="B90" s="33" t="s">
+    <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="14" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="15" customHeight="1">
-      <c r="B91" s="33" t="s">
+    <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="C91" s="14" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="15" customHeight="1">
-      <c r="B92" s="33" t="s">
+    <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="C92" s="34" t="s">
+      <c r="C92" s="14" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="15" customHeight="1">
-      <c r="B93" s="33" t="s">
+    <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="36" t="s">
         <v>523</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C93" s="14" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="15" customHeight="1">
-      <c r="B94" s="33" t="s">
+    <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="36" t="s">
         <v>525</v>
       </c>
-      <c r="C94" s="34" t="s">
+      <c r="C94" s="14" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="15" customHeight="1">
-      <c r="B95" s="33" t="s">
+    <row r="95" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="37" t="s">
         <v>527</v>
       </c>
-      <c r="C95" s="34" t="s">
+      <c r="C95" s="38" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="15" customHeight="1"/>
-    <row r="99" spans="2:3">
-      <c r="B99" s="70" t="s">
+    <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="C99" s="71"/>
-    </row>
-    <row r="100" spans="2:3" ht="15" customHeight="1">
-      <c r="B100" s="31" t="s">
+      <c r="C99" s="40"/>
+    </row>
+    <row r="100" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C100" s="32" t="s">
+      <c r="C100" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="15" customHeight="1">
-      <c r="B101" s="31" t="s">
+    <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C101" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="15" customHeight="1">
-      <c r="B102" s="33" t="s">
+    <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="36" t="s">
         <v>530</v>
       </c>
-      <c r="C102" s="34" t="s">
+      <c r="C102" s="14" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="103" spans="2:3" ht="15" customHeight="1">
-      <c r="B103" s="33" t="s">
+    <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="C103" s="34" t="s">
+      <c r="C103" s="14" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="104" spans="2:3" ht="15" customHeight="1">
-      <c r="B104" s="33" t="s">
+    <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="C104" s="34" t="s">
+      <c r="C104" s="14" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="15" customHeight="1">
-      <c r="B105" s="33" t="s">
+    <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="C105" s="14" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="15" customHeight="1">
-      <c r="B106" s="33" t="s">
+    <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="36" t="s">
         <v>538</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="14" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="2:3" ht="15" customHeight="1">
-      <c r="B107" s="33" t="s">
+    <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="36" t="s">
         <v>540</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="14" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="108" spans="2:3" ht="15" customHeight="1">
-      <c r="B108" s="33" t="s">
+    <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="14" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="15" customHeight="1">
-      <c r="B109" s="33" t="s">
+    <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="14" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="110" spans="2:3" ht="15" customHeight="1">
-      <c r="B110" s="33" t="s">
+    <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="14" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="111" spans="2:3" ht="15" customHeight="1">
-      <c r="B111" s="33" t="s">
+    <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="C111" s="34" t="s">
+      <c r="C111" s="14" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="15" customHeight="1">
-      <c r="B112" s="33" t="s">
+    <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="C112" s="34" t="s">
+      <c r="C112" s="14" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="15" customHeight="1">
-      <c r="B113" s="33" t="s">
+    <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="C113" s="34" t="s">
+      <c r="C113" s="14" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="15" customHeight="1">
-      <c r="B114" s="33" t="s">
+    <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="C114" s="34" t="s">
+      <c r="C114" s="14" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="15" customHeight="1">
-      <c r="B115" s="33" t="s">
+    <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="36" t="s">
         <v>556</v>
       </c>
-      <c r="C115" s="34" t="s">
+      <c r="C115" s="14" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="116" spans="2:3" ht="15" customHeight="1">
-      <c r="B116" s="33" t="s">
+    <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="C116" s="34" t="s">
+      <c r="C116" s="14" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="117" spans="2:3" ht="15" customHeight="1">
-      <c r="B117" s="33" t="s">
+    <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="C117" s="34" t="s">
+      <c r="C117" s="14" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="15" customHeight="1">
-      <c r="B118" s="33" t="s">
+    <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="C118" s="34" t="s">
+      <c r="C118" s="14" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="119" spans="2:3" ht="15" customHeight="1">
-      <c r="B119" s="33" t="s">
+    <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="C119" s="34" t="s">
+      <c r="C119" s="14" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="15" customHeight="1">
-      <c r="B120" s="33" t="s">
+    <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="C120" s="34" t="s">
+      <c r="C120" s="14" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="15" customHeight="1">
-      <c r="B121" s="33" t="s">
+    <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="C121" s="34" t="s">
+      <c r="C121" s="14" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="122" spans="2:3" ht="15" customHeight="1">
-      <c r="B122" s="33" t="s">
+    <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="C122" s="34" t="s">
+      <c r="C122" s="14" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="123" spans="2:3" ht="15" customHeight="1">
-      <c r="B123" s="33" t="s">
+    <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="36" t="s">
         <v>572</v>
       </c>
-      <c r="C123" s="34" t="s">
+      <c r="C123" s="14" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="124" spans="2:3" ht="15" customHeight="1">
-      <c r="B124" s="33" t="s">
+    <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="C124" s="34" t="s">
+      <c r="C124" s="14" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="15" customHeight="1">
-      <c r="B125" s="33" t="s">
+    <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="36" t="s">
         <v>576</v>
       </c>
-      <c r="C125" s="34" t="s">
+      <c r="C125" s="14" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="126" spans="2:3" ht="15" customHeight="1">
-      <c r="B126" s="33" t="s">
+    <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="36" t="s">
         <v>578</v>
       </c>
-      <c r="C126" s="34" t="s">
+      <c r="C126" s="14" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="15" customHeight="1">
-      <c r="B127" s="33" t="s">
+    <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="36" t="s">
         <v>580</v>
       </c>
-      <c r="C127" s="34" t="s">
+      <c r="C127" s="14" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="15" customHeight="1">
-      <c r="B128" s="33" t="s">
+    <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="36" t="s">
         <v>582</v>
       </c>
-      <c r="C128" s="34" t="s">
+      <c r="C128" s="14" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="129" spans="2:3" ht="15" customHeight="1">
-      <c r="B129" s="33" t="s">
+    <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="36" t="s">
         <v>584</v>
       </c>
-      <c r="C129" s="34" t="s">
+      <c r="C129" s="14" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="130" spans="2:3" ht="15" customHeight="1">
-      <c r="B130" s="33" t="s">
+    <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="C130" s="34" t="s">
+      <c r="C130" s="14" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="15" customHeight="1">
-      <c r="B131" s="33" t="s">
+    <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="36" t="s">
         <v>588</v>
       </c>
-      <c r="C131" s="34" t="s">
+      <c r="C131" s="14" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="132" spans="2:3" ht="15" customHeight="1">
-      <c r="B132" s="33" t="s">
+    <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="36" t="s">
         <v>590</v>
       </c>
-      <c r="C132" s="34" t="s">
+      <c r="C132" s="14" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="133" spans="2:3" ht="15" customHeight="1">
-      <c r="B133" s="33" t="s">
+    <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="C133" s="34" t="s">
+      <c r="C133" s="14" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="134" spans="2:3" ht="15" customHeight="1">
-      <c r="B134" s="33" t="s">
+    <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="36" t="s">
         <v>594</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="C134" s="14" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="135" spans="2:3" ht="15" customHeight="1">
-      <c r="B135" s="33" t="s">
+    <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="36" t="s">
         <v>596</v>
       </c>
-      <c r="C135" s="34" t="s">
+      <c r="C135" s="14" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="136" spans="2:3" ht="15" customHeight="1">
-      <c r="B136" s="33" t="s">
+    <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="36" t="s">
         <v>598</v>
       </c>
-      <c r="C136" s="34" t="s">
+      <c r="C136" s="14" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="137" spans="2:3" ht="15" customHeight="1">
-      <c r="B137" s="33" t="s">
+    <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="36" t="s">
         <v>600</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C137" s="14" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="15" customHeight="1">
-      <c r="B138" s="33" t="s">
+    <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="36" t="s">
         <v>602</v>
       </c>
-      <c r="C138" s="34" t="s">
+      <c r="C138" s="14" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="15" customHeight="1">
-      <c r="B139" s="33" t="s">
+    <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="36" t="s">
         <v>604</v>
       </c>
-      <c r="C139" s="34" t="s">
+      <c r="C139" s="14" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="140" spans="2:3" ht="15" customHeight="1">
-      <c r="B140" s="33" t="s">
+    <row r="140" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="37" t="s">
         <v>606</v>
       </c>
-      <c r="C140" s="34" t="s">
+      <c r="C140" s="38" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="15" customHeight="1"/>
-    <row r="143" spans="2:3">
-      <c r="B143" s="68" t="s">
+    <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="C143" s="69"/>
-    </row>
-    <row r="144" spans="2:3" ht="15" customHeight="1">
-      <c r="B144" s="31" t="s">
+      <c r="C143" s="25"/>
+    </row>
+    <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C144" s="32" t="s">
+      <c r="C144" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="15" customHeight="1">
-      <c r="B145" s="31" t="s">
+    <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C145" s="32" t="s">
+      <c r="C145" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="15" customHeight="1">
-      <c r="B146" s="33" t="s">
+    <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="C146" s="34" t="s">
+      <c r="C146" s="11" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="15" customHeight="1">
-      <c r="B147" s="33" t="s">
+    <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="C147" s="34" t="s">
+      <c r="C147" s="11" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="15" customHeight="1">
-      <c r="B148" s="33" t="s">
+    <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="C148" s="34" t="s">
+      <c r="C148" s="11" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="149" spans="2:3" ht="15" customHeight="1">
-      <c r="B149" s="33" t="s">
+    <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="C149" s="34" t="s">
+      <c r="C149" s="11" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="150" spans="2:3" ht="15" customHeight="1">
-      <c r="B150" s="33" t="s">
+    <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="C150" s="34" t="s">
+      <c r="C150" s="11" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="15" customHeight="1">
-      <c r="B151" s="33" t="s">
+    <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C151" s="34" t="s">
+      <c r="C151" s="11" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="15" customHeight="1">
-      <c r="B152" s="33" t="s">
+    <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="C152" s="34" t="s">
+      <c r="C152" s="11" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="15" customHeight="1">
-      <c r="B153" s="33" t="s">
+    <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="C153" s="34" t="s">
+      <c r="C153" s="11" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="154" spans="2:3" ht="15" customHeight="1">
-      <c r="B154" s="33" t="s">
+    <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="C154" s="34" t="s">
+      <c r="C154" s="11" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="155" spans="2:3" ht="15" customHeight="1">
-      <c r="B155" s="33" t="s">
+    <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="C155" s="34" t="s">
+      <c r="C155" s="11" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="156" spans="2:3" ht="15" customHeight="1">
-      <c r="B156" s="33" t="s">
+    <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="C156" s="34" t="s">
+      <c r="C156" s="11" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="15" customHeight="1">
-      <c r="B157" s="33" t="s">
+    <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="C157" s="34" t="s">
+      <c r="C157" s="11" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="15" customHeight="1">
-      <c r="B158" s="33" t="s">
+    <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="C158" s="34" t="s">
+      <c r="C158" s="11" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="159" spans="2:3" ht="15" customHeight="1">
-      <c r="B159" s="33" t="s">
+    <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C159" s="34" t="s">
+      <c r="C159" s="11" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="15" customHeight="1">
-      <c r="B160" s="33" t="s">
+    <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="C160" s="34" t="s">
+      <c r="C160" s="11" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="161" spans="2:3" ht="15" customHeight="1">
-      <c r="B161" s="33" t="s">
+    <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="C161" s="34" t="s">
+      <c r="C161" s="11" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="15" customHeight="1">
-      <c r="B162" s="33" t="s">
+    <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="C162" s="34" t="s">
+      <c r="C162" s="11" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="163" spans="2:3" ht="15" customHeight="1">
-      <c r="B163" s="33" t="s">
+    <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="C163" s="34" t="s">
+      <c r="C163" s="11" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="164" spans="2:3" ht="15" customHeight="1">
-      <c r="B164" s="33" t="s">
+    <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C164" s="34" t="s">
+      <c r="C164" s="11" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="165" spans="2:3" ht="15" customHeight="1">
-      <c r="B165" s="33" t="s">
+    <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="C165" s="34" t="s">
+      <c r="C165" s="11" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="166" spans="2:3" ht="15" customHeight="1">
-      <c r="B166" s="33" t="s">
+    <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="C166" s="34" t="s">
+      <c r="C166" s="11" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="15" customHeight="1">
-      <c r="B167" s="33" t="s">
+    <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="C167" s="34" t="s">
+      <c r="C167" s="11" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="15" customHeight="1">
-      <c r="B168" s="33" t="s">
+    <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="C168" s="34" t="s">
+      <c r="C168" s="11" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="169" spans="2:3" ht="15" customHeight="1">
-      <c r="B169" s="33" t="s">
+    <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="C169" s="34" t="s">
+      <c r="C169" s="11" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="170" spans="2:3" ht="15" customHeight="1">
-      <c r="B170" s="33" t="s">
+    <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="C170" s="34" t="s">
+      <c r="C170" s="11" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="171" spans="2:3" ht="15" customHeight="1">
-      <c r="B171" s="33" t="s">
+    <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="C171" s="34" t="s">
+      <c r="C171" s="11" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="172" spans="2:3" ht="15" customHeight="1">
-      <c r="B172" s="33" t="s">
+    <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="C172" s="34" t="s">
+      <c r="C172" s="11" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="173" spans="2:3" ht="15" customHeight="1">
-      <c r="B173" s="33" t="s">
+    <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="C173" s="34" t="s">
+      <c r="C173" s="11" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="174" spans="2:3" ht="15" customHeight="1">
-      <c r="B174" s="33" t="s">
+    <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="C174" s="34" t="s">
+      <c r="C174" s="11" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="175" spans="2:3" ht="15" customHeight="1">
-      <c r="B175" s="33" t="s">
+    <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="C175" s="34" t="s">
+      <c r="C175" s="11" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="176" spans="2:3" ht="15" customHeight="1">
-      <c r="B176" s="33" t="s">
+    <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="C176" s="34" t="s">
+      <c r="C176" s="11" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="177" spans="2:3" ht="15" customHeight="1">
-      <c r="B177" s="33" t="s">
+    <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="C177" s="34" t="s">
+      <c r="C177" s="11" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="178" spans="2:3" ht="15" customHeight="1">
-      <c r="B178" s="33" t="s">
+    <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="C178" s="34" t="s">
+      <c r="C178" s="11" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="179" spans="2:3" ht="15" customHeight="1">
-      <c r="B179" s="33" t="s">
+    <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="C179" s="34" t="s">
+      <c r="C179" s="11" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="180" spans="2:3" ht="15" customHeight="1">
-      <c r="B180" s="33" t="s">
+    <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="C180" s="34" t="s">
+      <c r="C180" s="11" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="181" spans="2:3" ht="15" customHeight="1">
-      <c r="B181" s="33" t="s">
+    <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="C181" s="34" t="s">
+      <c r="C181" s="11" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="182" spans="2:3" ht="15" customHeight="1">
-      <c r="B182" s="33" t="s">
+    <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="C182" s="34" t="s">
+      <c r="C182" s="11" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="183" spans="2:3" ht="15" customHeight="1">
-      <c r="B183" s="33" t="s">
+    <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C183" s="34" t="s">
+      <c r="C183" s="11" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="184" spans="2:3" ht="15" customHeight="1">
-      <c r="B184" s="33" t="s">
+    <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="C184" s="34" t="s">
+      <c r="C184" s="11" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="15" customHeight="1">
-      <c r="B185" s="33" t="s">
+    <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="C185" s="34" t="s">
+      <c r="C185" s="11" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="15" customHeight="1">
-      <c r="B186" s="33" t="s">
+    <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="C186" s="34" t="s">
+      <c r="C186" s="11" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="187" spans="2:3" ht="15" customHeight="1">
-      <c r="B187" s="33" t="s">
+    <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="C187" s="34" t="s">
+      <c r="C187" s="11" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="188" spans="2:3" ht="15" customHeight="1">
-      <c r="B188" s="33" t="s">
+    <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="C188" s="34" t="s">
+      <c r="C188" s="11" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="15" customHeight="1">
-      <c r="B189" s="33" t="s">
+    <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="C189" s="34" t="s">
+      <c r="C189" s="11" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="15" customHeight="1">
-      <c r="B190" s="33" t="s">
+    <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="C190" s="34" t="s">
+      <c r="C190" s="11" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="191" spans="2:3" ht="15" customHeight="1">
-      <c r="B191" s="33" t="s">
+    <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="C191" s="34" t="s">
+      <c r="C191" s="11" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="15" customHeight="1">
-      <c r="B192" s="33" t="s">
+    <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="C192" s="34" t="s">
+      <c r="C192" s="11" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="193" spans="2:3" ht="15" customHeight="1">
-      <c r="B193" s="33" t="s">
+    <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="C193" s="34" t="s">
+      <c r="C193" s="11" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="15" customHeight="1">
-      <c r="B194" s="33" t="s">
+    <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="C194" s="34" t="s">
+      <c r="C194" s="11" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="195" spans="2:3" ht="15" customHeight="1">
-      <c r="B195" s="33" t="s">
+    <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="C195" s="34" t="s">
+      <c r="C195" s="11" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="196" spans="2:3" ht="15" customHeight="1">
-      <c r="B196" s="33" t="s">
+    <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C196" s="34" t="s">
+      <c r="C196" s="11" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="197" spans="2:3" ht="15" customHeight="1">
-      <c r="B197" s="33" t="s">
+    <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="C197" s="34" t="s">
+      <c r="C197" s="11" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="198" spans="2:3" ht="15" customHeight="1">
-      <c r="B198" s="33" t="s">
+    <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="C198" s="34" t="s">
+      <c r="C198" s="11" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="199" spans="2:3" ht="15" customHeight="1">
-      <c r="B199" s="33" t="s">
+    <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="C199" s="34" t="s">
+      <c r="C199" s="11" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="200" spans="2:3" ht="15" customHeight="1">
-      <c r="B200" s="33" t="s">
+    <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="C200" s="34" t="s">
+      <c r="C200" s="11" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="201" spans="2:3" ht="15" customHeight="1">
-      <c r="B201" s="33" t="s">
+    <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="C201" s="34" t="s">
+      <c r="C201" s="11" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="202" spans="2:3" ht="15" customHeight="1">
-      <c r="B202" s="33" t="s">
+    <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="C202" s="34" t="s">
+      <c r="C202" s="11" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="203" spans="2:3" ht="15" customHeight="1">
-      <c r="B203" s="33" t="s">
+    <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="C203" s="34" t="s">
+      <c r="C203" s="11" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="204" spans="2:3" ht="15" customHeight="1">
-      <c r="B204" s="33" t="s">
+    <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="C204" s="34" t="s">
+      <c r="C204" s="11" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="205" spans="2:3" ht="15" customHeight="1">
-      <c r="B205" s="33" t="s">
+    <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="C205" s="34" t="s">
+      <c r="C205" s="11" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="206" spans="2:3" ht="15" customHeight="1">
-      <c r="B206" s="33" t="s">
+    <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="C206" s="34" t="s">
+      <c r="C206" s="11" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="207" spans="2:3" ht="15" customHeight="1">
-      <c r="B207" s="33" t="s">
+    <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="C207" s="34" t="s">
+      <c r="C207" s="11" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="208" spans="2:3" ht="15" customHeight="1">
-      <c r="B208" s="33" t="s">
+    <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="C208" s="34" t="s">
+      <c r="C208" s="11" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="15" customHeight="1">
-      <c r="B209" s="33" t="s">
+    <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C209" s="34" t="s">
+      <c r="C209" s="11" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="15" customHeight="1">
-      <c r="B210" s="33" t="s">
+    <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="C210" s="34" t="s">
+      <c r="C210" s="11" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="15" customHeight="1">
-      <c r="B211" s="33" t="s">
+    <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="C211" s="34" t="s">
+      <c r="C211" s="11" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="15" customHeight="1">
-      <c r="B212" s="33" t="s">
+    <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="C212" s="34" t="s">
+      <c r="C212" s="11" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="15" customHeight="1">
-      <c r="B213" s="33" t="s">
+    <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="C213" s="34" t="s">
+      <c r="C213" s="11" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="214" spans="2:3" ht="15" customHeight="1">
-      <c r="B214" s="33" t="s">
+    <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="C214" s="34" t="s">
+      <c r="C214" s="11" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="215" spans="2:3" ht="15" customHeight="1">
-      <c r="B215" s="33" t="s">
+    <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="C215" s="34" t="s">
+      <c r="C215" s="11" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="15" customHeight="1"/>
+    <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="B143:C143"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="I39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="809">
   <si>
     <t>Display Name</t>
   </si>
@@ -2472,6 +2472,9 @@
   </si>
   <si>
     <t>Province pour laquelle la table devrait être utilisée</t>
+  </si>
+  <si>
+    <t>Canada Region</t>
   </si>
 </sst>
 </file>
@@ -3142,60 +3145,15 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3207,15 +3165,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3270,6 +3219,60 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
@@ -3680,215 +3683,220 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3898,11 +3906,6 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3919,7 +3922,7 @@
   <dimension ref="A1:AMK62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3948,157 +3951,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -4110,27 +4113,27 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
     </row>
     <row r="12" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -5791,7 +5794,7 @@
     </row>
     <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>164</v>
+        <v>808</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>801</v>
@@ -5919,40 +5922,40 @@
       </c>
     </row>
     <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="57"/>
     </row>
     <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="58"/>
     </row>
     <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="C59" s="22"/>
+      <c r="C59" s="58"/>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="C60" s="23"/>
+      <c r="C60" s="59"/>
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="23"/>
+      <c r="C61" s="59"/>
     </row>
     <row r="62" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="56" t="s">
         <v>764</v>
       </c>
-      <c r="C62" s="20"/>
+      <c r="C62" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5994,60 +5997,60 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6082,79 +6085,79 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="31" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="39" t="s">
         <v>225</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="58" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="40" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="39" t="s">
         <v>134</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="40" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="39" t="s">
         <v>226</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -6163,12 +6166,12 @@
       <c r="D8" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="40" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="39" t="s">
         <v>145</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -6177,12 +6180,12 @@
       <c r="D9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="40" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="39" t="s">
         <v>229</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -6191,40 +6194,40 @@
       <c r="D10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="40" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="41" t="s">
         <v>150</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="41" t="s">
         <v>155</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="42" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="39" t="s">
         <v>165</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -6233,12 +6236,12 @@
       <c r="D13" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="40" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="39" t="s">
         <v>768</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -6247,21 +6250,21 @@
       <c r="D14" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="40" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="43" t="s">
         <v>771</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="44" t="s">
         <v>772</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="45" t="s">
         <v>773</v>
       </c>
     </row>
@@ -6298,33 +6301,33 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="69"/>
+      <c r="E2" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="I2" s="26" t="s">
+      <c r="F2" s="25"/>
+      <c r="I2" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="34"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="20" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -6332,19 +6335,19 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="20" t="s">
         <v>233</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="20" t="s">
         <v>233</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="20" t="s">
         <v>233</v>
       </c>
       <c r="J4" s="12" t="s">
@@ -6352,19 +6355,19 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="21" t="s">
         <v>235</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="21" t="s">
         <v>235</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="21" t="s">
         <v>238</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -6372,19 +6375,19 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="21" t="s">
         <v>240</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="21" t="s">
         <v>242</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="21" t="s">
         <v>244</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -6392,19 +6395,19 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="21" t="s">
         <v>246</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="21" t="s">
         <v>248</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="21" t="s">
         <v>250</v>
       </c>
       <c r="J7" s="14" t="s">
@@ -6412,33 +6415,33 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="21" t="s">
         <v>252</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="21" t="s">
         <v>246</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="23" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="21" t="s">
         <v>257</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="21" t="s">
         <v>259</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -6446,13 +6449,13 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="21" t="s">
         <v>261</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="21" t="s">
         <v>263</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -6460,13 +6463,13 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="21" t="s">
         <v>265</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="21" t="s">
         <v>267</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -6474,13 +6477,13 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="21" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="21" t="s">
         <v>271</v>
       </c>
       <c r="F12" s="14" t="s">
@@ -6488,37 +6491,37 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="21" t="s">
         <v>273</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="21" t="s">
         <v>275</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="J13" s="34"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="21" t="s">
         <v>278</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="21" t="s">
         <v>280</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="20" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="12" t="s">
@@ -6526,19 +6529,19 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="21" t="s">
         <v>282</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="21" t="s">
         <v>284</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="20" t="s">
         <v>233</v>
       </c>
       <c r="J15" s="12" t="s">
@@ -6546,19 +6549,19 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="21" t="s">
         <v>286</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="21" t="s">
         <v>288</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="21" t="s">
         <v>290</v>
       </c>
       <c r="J16" s="14" t="s">
@@ -6566,19 +6569,19 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="21" t="s">
         <v>259</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="21" t="s">
         <v>117</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="21" t="s">
         <v>294</v>
       </c>
       <c r="J17" s="14" t="s">
@@ -6586,19 +6589,19 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="21" t="s">
         <v>296</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="21" t="s">
         <v>298</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="21" t="s">
         <v>300</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -6606,19 +6609,19 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="21" t="s">
         <v>302</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="21" t="s">
         <v>304</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="21" t="s">
         <v>306</v>
       </c>
       <c r="J19" s="14" t="s">
@@ -6626,33 +6629,33 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="21" t="s">
         <v>263</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="21" t="s">
         <v>309</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="23" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="21" t="s">
         <v>313</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="21" t="s">
         <v>315</v>
       </c>
       <c r="F21" s="14" t="s">
@@ -6660,13 +6663,13 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="21" t="s">
         <v>317</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="21" t="s">
         <v>319</v>
       </c>
       <c r="F22" s="14" t="s">
@@ -6674,37 +6677,37 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="21" t="s">
         <v>321</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="21" t="s">
         <v>323</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="69"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="21" t="s">
         <v>326</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="21" t="s">
         <v>328</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="20" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="12" t="s">
@@ -6712,19 +6715,19 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="21" t="s">
         <v>330</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="21" t="s">
         <v>332</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="26" t="s">
         <v>233</v>
       </c>
       <c r="J25" s="13" t="s">
@@ -6732,19 +6735,19 @@
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="21" t="s">
         <v>334</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="21" t="s">
         <v>336</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="21" t="s">
         <v>338</v>
       </c>
       <c r="J26" s="14" t="s">
@@ -6752,19 +6755,19 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="21" t="s">
         <v>340</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="21" t="s">
         <v>342</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="27" t="s">
         <v>344</v>
       </c>
       <c r="J27" s="15" t="s">
@@ -6772,33 +6775,33 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="21" t="s">
         <v>346</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="21" t="s">
         <v>348</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="J28" s="44" t="s">
+      <c r="J28" s="29" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="21" t="s">
         <v>352</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="21" t="s">
         <v>354</v>
       </c>
       <c r="F29" s="14" t="s">
@@ -6806,13 +6809,13 @@
       </c>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="21" t="s">
         <v>356</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="21" t="s">
         <v>358</v>
       </c>
       <c r="F30" s="14" t="s">
@@ -6820,13 +6823,13 @@
       </c>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="21" t="s">
         <v>360</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="21" t="s">
         <v>362</v>
       </c>
       <c r="F31" s="14" t="s">
@@ -6834,37 +6837,37 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="21" t="s">
         <v>364</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="21" t="s">
         <v>294</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="68" t="s">
         <v>765</v>
       </c>
-      <c r="J32" s="34"/>
+      <c r="J32" s="69"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="21" t="s">
         <v>275</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="21" t="s">
         <v>368</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="20" t="s">
         <v>29</v>
       </c>
       <c r="J33" s="12" t="s">
@@ -6872,19 +6875,19 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="21" t="s">
         <v>370</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="21" t="s">
         <v>372</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="I34" s="41" t="s">
+      <c r="I34" s="26" t="s">
         <v>233</v>
       </c>
       <c r="J34" s="13" t="s">
@@ -6892,19 +6895,19 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="21" t="s">
         <v>374</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="21" t="s">
         <v>376</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="21" t="s">
         <v>766</v>
       </c>
       <c r="J35" s="14" t="s">
@@ -6912,33 +6915,33 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="21" t="s">
         <v>378</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="21" t="s">
         <v>380</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="23" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="21" t="s">
         <v>382</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="21" t="s">
         <v>384</v>
       </c>
       <c r="F37" s="14" t="s">
@@ -6946,13 +6949,13 @@
       </c>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="21" t="s">
         <v>386</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="21" t="s">
         <v>388</v>
       </c>
       <c r="F38" s="14" t="s">
@@ -6960,111 +6963,111 @@
       </c>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="21" t="s">
         <v>390</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="21" t="s">
         <v>392</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="I39" s="26" t="s">
+      <c r="I39" s="68" t="s">
         <v>798</v>
       </c>
-      <c r="J39" s="34"/>
+      <c r="J39" s="69"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="21" t="s">
         <v>304</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="21" t="s">
         <v>395</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="I40" s="64" t="s">
+      <c r="I40" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="J40" s="65" t="s">
+      <c r="J40" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="21" t="s">
         <v>117</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="21" t="s">
         <v>398</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="I41" s="64" t="s">
+      <c r="I41" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="J41" s="65" t="s">
+      <c r="J41" s="47" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="21" t="s">
         <v>400</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="21" t="s">
         <v>402</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="I42" s="66" t="s">
+      <c r="I42" s="48" t="s">
         <v>790</v>
       </c>
-      <c r="J42" s="67" t="s">
+      <c r="J42" s="49" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="21" t="s">
         <v>406</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="50" t="s">
         <v>799</v>
       </c>
-      <c r="J43" s="69" t="s">
+      <c r="J43" s="51" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="21" t="s">
         <v>298</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="21" t="s">
         <v>409</v>
       </c>
       <c r="F44" s="14" t="s">
@@ -7072,13 +7075,13 @@
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="21" t="s">
         <v>411</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="21" t="s">
         <v>413</v>
       </c>
       <c r="F45" s="14" t="s">
@@ -7086,13 +7089,13 @@
       </c>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="21" t="s">
         <v>415</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="21" t="s">
         <v>417</v>
       </c>
       <c r="F46" s="14" t="s">
@@ -7100,13 +7103,13 @@
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="21" t="s">
         <v>419</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="21" t="s">
         <v>421</v>
       </c>
       <c r="F47" s="14" t="s">
@@ -7114,13 +7117,13 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="21" t="s">
         <v>423</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="21" t="s">
         <v>425</v>
       </c>
       <c r="F48" s="14" t="s">
@@ -7128,13 +7131,13 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="21" t="s">
         <v>427</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="21" t="s">
         <v>429</v>
       </c>
       <c r="F49" s="14" t="s">
@@ -7142,13 +7145,13 @@
       </c>
     </row>
     <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="21" t="s">
         <v>431</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="21" t="s">
         <v>433</v>
       </c>
       <c r="F50" s="14" t="s">
@@ -7156,13 +7159,13 @@
       </c>
     </row>
     <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="21" t="s">
         <v>435</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="21" t="s">
         <v>437</v>
       </c>
       <c r="F51" s="14" t="s">
@@ -7170,13 +7173,13 @@
       </c>
     </row>
     <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="21" t="s">
         <v>439</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="21" t="s">
         <v>441</v>
       </c>
       <c r="F52" s="14" t="s">
@@ -7184,13 +7187,13 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="21" t="s">
         <v>443</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="21" t="s">
         <v>445</v>
       </c>
       <c r="F53" s="14" t="s">
@@ -7198,13 +7201,13 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="21" t="s">
         <v>447</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="21" t="s">
         <v>449</v>
       </c>
       <c r="F54" s="14" t="s">
@@ -7212,13 +7215,13 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="21" t="s">
         <v>362</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="21" t="s">
         <v>452</v>
       </c>
       <c r="F55" s="14" t="s">
@@ -7226,21 +7229,21 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="21" t="s">
         <v>454</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="F56" s="38" t="s">
+      <c r="F56" s="23" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="21" t="s">
         <v>336</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -7248,7 +7251,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="21" t="s">
         <v>459</v>
       </c>
       <c r="C58" s="14" t="s">
@@ -7256,229 +7259,229 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="21" t="s">
         <v>461</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="68" t="s">
         <v>774</v>
       </c>
-      <c r="F59" s="34"/>
+      <c r="F59" s="69"/>
     </row>
     <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="E60" s="64" t="s">
+      <c r="E60" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="65" t="s">
+      <c r="F60" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="21" t="s">
         <v>465</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="E61" s="64" t="s">
+      <c r="E61" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="47" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="21" t="s">
         <v>467</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="E62" s="66" t="s">
+      <c r="E62" s="48" t="s">
         <v>775</v>
       </c>
-      <c r="F62" s="67" t="s">
+      <c r="F62" s="49" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="21" t="s">
         <v>406</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="E63" s="66" t="s">
+      <c r="E63" s="48" t="s">
         <v>777</v>
       </c>
-      <c r="F63" s="67" t="s">
+      <c r="F63" s="49" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="21" t="s">
         <v>470</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="E64" s="66" t="s">
+      <c r="E64" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="F64" s="67" t="s">
+      <c r="F64" s="49" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="21" t="s">
         <v>472</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="E65" s="66" t="s">
+      <c r="E65" s="48" t="s">
         <v>780</v>
       </c>
-      <c r="F65" s="67" t="s">
+      <c r="F65" s="49" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="21" t="s">
         <v>474</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="E66" s="66" t="s">
+      <c r="E66" s="48" t="s">
         <v>782</v>
       </c>
-      <c r="F66" s="67" t="s">
+      <c r="F66" s="49" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="21" t="s">
         <v>476</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="E67" s="66" t="s">
+      <c r="E67" s="48" t="s">
         <v>784</v>
       </c>
-      <c r="F67" s="67" t="s">
+      <c r="F67" s="49" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="21" t="s">
         <v>478</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="E68" s="66" t="s">
+      <c r="E68" s="48" t="s">
         <v>786</v>
       </c>
-      <c r="F68" s="67" t="s">
+      <c r="F68" s="49" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="21" t="s">
         <v>409</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="E69" s="66" t="s">
+      <c r="E69" s="48" t="s">
         <v>788</v>
       </c>
-      <c r="F69" s="67" t="s">
+      <c r="F69" s="49" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="21" t="s">
         <v>480</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="E70" s="66" t="s">
+      <c r="E70" s="48" t="s">
         <v>790</v>
       </c>
-      <c r="F70" s="67" t="s">
+      <c r="F70" s="49" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="21" t="s">
         <v>482</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="E71" s="66" t="s">
+      <c r="E71" s="48" t="s">
         <v>492</v>
       </c>
-      <c r="F71" s="67" t="s">
+      <c r="F71" s="49" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="21" t="s">
         <v>484</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="E72" s="66" t="s">
+      <c r="E72" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="49" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="21" t="s">
         <v>486</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="E73" s="66" t="s">
+      <c r="E73" s="48" t="s">
         <v>794</v>
       </c>
-      <c r="F73" s="67" t="s">
+      <c r="F73" s="49" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="21" t="s">
         <v>488</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="E74" s="68" t="s">
+      <c r="E74" s="50" t="s">
         <v>796</v>
       </c>
-      <c r="F74" s="69" t="s">
+      <c r="F74" s="51" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="21" t="s">
         <v>490</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -7486,7 +7489,7 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="21" t="s">
         <v>492</v>
       </c>
       <c r="C76" s="14" t="s">
@@ -7494,7 +7497,7 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="21" t="s">
         <v>494</v>
       </c>
       <c r="C77" s="14" t="s">
@@ -7502,7 +7505,7 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="21" t="s">
         <v>496</v>
       </c>
       <c r="C78" s="14" t="s">
@@ -7510,7 +7513,7 @@
       </c>
     </row>
     <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="21" t="s">
         <v>498</v>
       </c>
       <c r="C79" s="14" t="s">
@@ -7518,7 +7521,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="21" t="s">
         <v>421</v>
       </c>
       <c r="C80" s="14" t="s">
@@ -7526,7 +7529,7 @@
       </c>
     </row>
     <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="21" t="s">
         <v>300</v>
       </c>
       <c r="C81" s="14" t="s">
@@ -7534,7 +7537,7 @@
       </c>
     </row>
     <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="21" t="s">
         <v>502</v>
       </c>
       <c r="C82" s="14" t="s">
@@ -7542,7 +7545,7 @@
       </c>
     </row>
     <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="21" t="s">
         <v>504</v>
       </c>
       <c r="C83" s="14" t="s">
@@ -7550,7 +7553,7 @@
       </c>
     </row>
     <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="21" t="s">
         <v>506</v>
       </c>
       <c r="C84" s="14" t="s">
@@ -7558,7 +7561,7 @@
       </c>
     </row>
     <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="21" t="s">
         <v>508</v>
       </c>
       <c r="C85" s="14" t="s">
@@ -7566,7 +7569,7 @@
       </c>
     </row>
     <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="21" t="s">
         <v>425</v>
       </c>
       <c r="C86" s="14" t="s">
@@ -7574,7 +7577,7 @@
       </c>
     </row>
     <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="21" t="s">
         <v>511</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -7582,7 +7585,7 @@
       </c>
     </row>
     <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="21" t="s">
         <v>513</v>
       </c>
       <c r="C88" s="14" t="s">
@@ -7590,7 +7593,7 @@
       </c>
     </row>
     <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="21" t="s">
         <v>515</v>
       </c>
       <c r="C89" s="14" t="s">
@@ -7598,7 +7601,7 @@
       </c>
     </row>
     <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="21" t="s">
         <v>517</v>
       </c>
       <c r="C90" s="14" t="s">
@@ -7606,7 +7609,7 @@
       </c>
     </row>
     <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="21" t="s">
         <v>519</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -7614,7 +7617,7 @@
       </c>
     </row>
     <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="21" t="s">
         <v>521</v>
       </c>
       <c r="C92" s="14" t="s">
@@ -7622,7 +7625,7 @@
       </c>
     </row>
     <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="21" t="s">
         <v>523</v>
       </c>
       <c r="C93" s="14" t="s">
@@ -7630,7 +7633,7 @@
       </c>
     </row>
     <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="21" t="s">
         <v>525</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -7638,23 +7641,23 @@
       </c>
     </row>
     <row r="95" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="C95" s="38" t="s">
+      <c r="C95" s="23" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="39" t="s">
+      <c r="B99" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="C99" s="40"/>
+      <c r="C99" s="25"/>
     </row>
     <row r="100" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C100" s="12" t="s">
@@ -7662,7 +7665,7 @@
       </c>
     </row>
     <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="20" t="s">
         <v>233</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -7670,7 +7673,7 @@
       </c>
     </row>
     <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="21" t="s">
         <v>530</v>
       </c>
       <c r="C102" s="14" t="s">
@@ -7678,7 +7681,7 @@
       </c>
     </row>
     <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="21" t="s">
         <v>532</v>
       </c>
       <c r="C103" s="14" t="s">
@@ -7686,7 +7689,7 @@
       </c>
     </row>
     <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="21" t="s">
         <v>534</v>
       </c>
       <c r="C104" s="14" t="s">
@@ -7694,7 +7697,7 @@
       </c>
     </row>
     <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="21" t="s">
         <v>536</v>
       </c>
       <c r="C105" s="14" t="s">
@@ -7702,7 +7705,7 @@
       </c>
     </row>
     <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="21" t="s">
         <v>538</v>
       </c>
       <c r="C106" s="14" t="s">
@@ -7710,7 +7713,7 @@
       </c>
     </row>
     <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="21" t="s">
         <v>540</v>
       </c>
       <c r="C107" s="14" t="s">
@@ -7718,7 +7721,7 @@
       </c>
     </row>
     <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="21" t="s">
         <v>542</v>
       </c>
       <c r="C108" s="14" t="s">
@@ -7726,7 +7729,7 @@
       </c>
     </row>
     <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="21" t="s">
         <v>544</v>
       </c>
       <c r="C109" s="14" t="s">
@@ -7734,7 +7737,7 @@
       </c>
     </row>
     <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="21" t="s">
         <v>546</v>
       </c>
       <c r="C110" s="14" t="s">
@@ -7742,7 +7745,7 @@
       </c>
     </row>
     <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="36" t="s">
+      <c r="B111" s="21" t="s">
         <v>548</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -7750,7 +7753,7 @@
       </c>
     </row>
     <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="21" t="s">
         <v>550</v>
       </c>
       <c r="C112" s="14" t="s">
@@ -7758,7 +7761,7 @@
       </c>
     </row>
     <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="21" t="s">
         <v>552</v>
       </c>
       <c r="C113" s="14" t="s">
@@ -7766,7 +7769,7 @@
       </c>
     </row>
     <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="36" t="s">
+      <c r="B114" s="21" t="s">
         <v>554</v>
       </c>
       <c r="C114" s="14" t="s">
@@ -7774,7 +7777,7 @@
       </c>
     </row>
     <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="36" t="s">
+      <c r="B115" s="21" t="s">
         <v>556</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -7782,7 +7785,7 @@
       </c>
     </row>
     <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="36" t="s">
+      <c r="B116" s="21" t="s">
         <v>558</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -7790,7 +7793,7 @@
       </c>
     </row>
     <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="21" t="s">
         <v>560</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -7798,7 +7801,7 @@
       </c>
     </row>
     <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="21" t="s">
         <v>562</v>
       </c>
       <c r="C118" s="14" t="s">
@@ -7806,7 +7809,7 @@
       </c>
     </row>
     <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="36" t="s">
+      <c r="B119" s="21" t="s">
         <v>564</v>
       </c>
       <c r="C119" s="14" t="s">
@@ -7814,7 +7817,7 @@
       </c>
     </row>
     <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="36" t="s">
+      <c r="B120" s="21" t="s">
         <v>566</v>
       </c>
       <c r="C120" s="14" t="s">
@@ -7822,7 +7825,7 @@
       </c>
     </row>
     <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="36" t="s">
+      <c r="B121" s="21" t="s">
         <v>568</v>
       </c>
       <c r="C121" s="14" t="s">
@@ -7830,7 +7833,7 @@
       </c>
     </row>
     <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="36" t="s">
+      <c r="B122" s="21" t="s">
         <v>570</v>
       </c>
       <c r="C122" s="14" t="s">
@@ -7838,7 +7841,7 @@
       </c>
     </row>
     <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="36" t="s">
+      <c r="B123" s="21" t="s">
         <v>572</v>
       </c>
       <c r="C123" s="14" t="s">
@@ -7846,7 +7849,7 @@
       </c>
     </row>
     <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="36" t="s">
+      <c r="B124" s="21" t="s">
         <v>574</v>
       </c>
       <c r="C124" s="14" t="s">
@@ -7854,7 +7857,7 @@
       </c>
     </row>
     <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="36" t="s">
+      <c r="B125" s="21" t="s">
         <v>576</v>
       </c>
       <c r="C125" s="14" t="s">
@@ -7862,7 +7865,7 @@
       </c>
     </row>
     <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="36" t="s">
+      <c r="B126" s="21" t="s">
         <v>578</v>
       </c>
       <c r="C126" s="14" t="s">
@@ -7870,7 +7873,7 @@
       </c>
     </row>
     <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="36" t="s">
+      <c r="B127" s="21" t="s">
         <v>580</v>
       </c>
       <c r="C127" s="14" t="s">
@@ -7878,7 +7881,7 @@
       </c>
     </row>
     <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="36" t="s">
+      <c r="B128" s="21" t="s">
         <v>582</v>
       </c>
       <c r="C128" s="14" t="s">
@@ -7886,7 +7889,7 @@
       </c>
     </row>
     <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="36" t="s">
+      <c r="B129" s="21" t="s">
         <v>584</v>
       </c>
       <c r="C129" s="14" t="s">
@@ -7894,7 +7897,7 @@
       </c>
     </row>
     <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="36" t="s">
+      <c r="B130" s="21" t="s">
         <v>586</v>
       </c>
       <c r="C130" s="14" t="s">
@@ -7902,7 +7905,7 @@
       </c>
     </row>
     <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="36" t="s">
+      <c r="B131" s="21" t="s">
         <v>588</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -7910,7 +7913,7 @@
       </c>
     </row>
     <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="36" t="s">
+      <c r="B132" s="21" t="s">
         <v>590</v>
       </c>
       <c r="C132" s="14" t="s">
@@ -7918,7 +7921,7 @@
       </c>
     </row>
     <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="36" t="s">
+      <c r="B133" s="21" t="s">
         <v>592</v>
       </c>
       <c r="C133" s="14" t="s">
@@ -7926,7 +7929,7 @@
       </c>
     </row>
     <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="36" t="s">
+      <c r="B134" s="21" t="s">
         <v>594</v>
       </c>
       <c r="C134" s="14" t="s">
@@ -7934,7 +7937,7 @@
       </c>
     </row>
     <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="36" t="s">
+      <c r="B135" s="21" t="s">
         <v>596</v>
       </c>
       <c r="C135" s="14" t="s">
@@ -7942,7 +7945,7 @@
       </c>
     </row>
     <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="36" t="s">
+      <c r="B136" s="21" t="s">
         <v>598</v>
       </c>
       <c r="C136" s="14" t="s">
@@ -7950,7 +7953,7 @@
       </c>
     </row>
     <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="36" t="s">
+      <c r="B137" s="21" t="s">
         <v>600</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -7958,7 +7961,7 @@
       </c>
     </row>
     <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="36" t="s">
+      <c r="B138" s="21" t="s">
         <v>602</v>
       </c>
       <c r="C138" s="14" t="s">
@@ -7966,7 +7969,7 @@
       </c>
     </row>
     <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="36" t="s">
+      <c r="B139" s="21" t="s">
         <v>604</v>
       </c>
       <c r="C139" s="14" t="s">
@@ -7974,19 +7977,19 @@
       </c>
     </row>
     <row r="140" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="37" t="s">
+      <c r="B140" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="C140" s="38" t="s">
+      <c r="C140" s="23" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="24" t="s">
+      <c r="B143" s="66" t="s">
         <v>608</v>
       </c>
-      <c r="C143" s="25"/>
+      <c r="C143" s="67"/>
     </row>
     <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="808">
   <si>
     <t>Display Name</t>
   </si>
@@ -2460,9 +2460,6 @@
   </si>
   <si>
     <t>Région d'opération pour laquelle la table devrait être utilisée</t>
-  </si>
-  <si>
-    <t>Province</t>
   </si>
   <si>
     <t>caProvinces</t>
@@ -3222,14 +3219,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3716,16 +3713,16 @@
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -3761,31 +3758,31 @@
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
@@ -3839,13 +3836,13 @@
       <c r="C12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3854,13 +3851,13 @@
       <c r="C13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -3869,34 +3866,29 @@
       <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3906,6 +3898,11 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3922,7 +3919,7 @@
   <dimension ref="A1:AMK62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3988,18 +3985,18 @@
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -4039,35 +4036,35 @@
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -5794,7 +5791,7 @@
     </row>
     <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>801</v>
@@ -5839,10 +5836,10 @@
     </row>
     <row r="50" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>804</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>805</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>58</v>
@@ -5851,7 +5848,7 @@
         <v>140</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>78</v>
@@ -5879,7 +5876,7 @@
         <v>84</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18900" tabRatio="410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -3219,14 +3219,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3272,39 +3272,39 @@
     </xf>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3713,16 +3713,16 @@
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -3758,31 +3758,31 @@
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
@@ -3836,13 +3836,13 @@
       <c r="C12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3851,13 +3851,13 @@
       <c r="C13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -3866,29 +3866,34 @@
       <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3898,11 +3903,6 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3916,10 +3916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK62"/>
+  <dimension ref="A1:AMK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,18 +3985,18 @@
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -4036,35 +4036,35 @@
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -4342,10 +4342,10 @@
     </row>
     <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>58</v>
@@ -4360,12 +4360,16 @@
       <c r="H16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="K16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>58</v>
       </c>
       <c r="M16" s="5"/>
@@ -4380,21 +4384,21 @@
         <v>64</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
@@ -4403,10 +4407,14 @@
       <c r="H17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="K17" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>58</v>
@@ -4417,41 +4425,45 @@
         <v>58</v>
       </c>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>58</v>
@@ -4459,26 +4471,24 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>58</v>
@@ -4486,19 +4496,21 @@
       <c r="E19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>58</v>
@@ -4506,7 +4518,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5" t="s">
@@ -4514,80 +4526,74 @@
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>93</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="6" t="s">
         <v>58</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="P20" s="5"/>
-      <c r="Q20" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>98</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -4600,48 +4606,44 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="P21" s="5"/>
-      <c r="Q21" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G22" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>104</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>58</v>
@@ -4649,24 +4651,26 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>58</v>
@@ -4674,21 +4678,19 @@
       <c r="E23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="G23" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>104</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>58</v>
@@ -4696,7 +4698,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5" t="s">
@@ -4704,40 +4706,38 @@
       </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G24" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>112</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>58</v>
@@ -4745,24 +4745,26 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>58</v>
@@ -4770,21 +4772,19 @@
       <c r="E25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="G25" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>112</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>58</v>
@@ -4792,7 +4792,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5" t="s">
@@ -4800,31 +4800,33 @@
       </c>
       <c r="R25" s="5"/>
       <c r="S25" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>117</v>
+        <v>807</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>118</v>
+        <v>801</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>802</v>
+      </c>
       <c r="G26" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -4834,44 +4836,42 @@
       <c r="L26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>122</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>123</v>
+        <v>803</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>124</v>
+        <v>770</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>125</v>
+        <v>804</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>805</v>
+      </c>
       <c r="G27" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -4884,7 +4884,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>126</v>
+        <v>769</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -4893,28 +4893,30 @@
         <v>84</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>127</v>
+        <v>806</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="G28" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -4922,14 +4924,12 @@
         <v>58</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>130</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -4938,24 +4938,24 @@
         <v>84</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>78</v>
@@ -4974,24 +4974,24 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>58</v>
@@ -5000,7 +5000,7 @@
         <v>140</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>78</v>
@@ -5019,7 +5019,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
@@ -5028,15 +5028,15 @@
         <v>84</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>58</v>
@@ -5045,7 +5045,7 @@
         <v>140</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>78</v>
@@ -5064,7 +5064,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -5073,24 +5073,24 @@
         <v>84</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>78</v>
@@ -5109,7 +5109,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
@@ -5118,25 +5118,23 @@
         <v>84</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>154</v>
+        <v>759</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>155</v>
+        <v>760</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
         <v>78</v>
       </c>
@@ -5149,12 +5147,14 @@
         <v>58</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M33" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>761</v>
+      </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>157</v>
+        <v>762</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -5163,15 +5163,15 @@
         <v>84</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>158</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>58</v>
@@ -5180,7 +5180,7 @@
         <v>140</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>78</v>
@@ -5199,7 +5199,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -5208,15 +5208,15 @@
         <v>84</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>58</v>
@@ -5225,7 +5225,7 @@
         <v>140</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>78</v>
@@ -5244,16 +5244,16 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5343,14 +5343,16 @@
     </row>
     <row r="38" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E38" s="5" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
@@ -5364,33 +5366,38 @@
       <c r="K38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L38" s="5"/>
+      <c r="L38" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="M38" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="N38" s="7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E39" s="5" t="s">
         <v>59</v>
       </c>
@@ -5406,32 +5413,34 @@
       <c r="K39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="L39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D40" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E40" s="5" t="s">
         <v>59</v>
       </c>
@@ -5447,36 +5456,36 @@
       <c r="K40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="5"/>
+      <c r="L40" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="M40" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>191</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
@@ -5491,29 +5500,34 @@
         <v>58</v>
       </c>
       <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="M41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N41" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T41" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="42" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
@@ -5528,29 +5542,33 @@
         <v>58</v>
       </c>
       <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="M42" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T42" s="5"/>
+        <v>186</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="43" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
@@ -5565,31 +5583,35 @@
         <v>58</v>
       </c>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="M43" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="O43" s="5" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T43" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="44" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
@@ -5606,29 +5628,27 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="O44" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>749</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="T44" s="5"/>
     </row>
     <row r="45" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
@@ -5646,28 +5666,26 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T45" s="5" t="s">
-        <v>207</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="T45" s="5"/>
     </row>
     <row r="46" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>751</v>
+        <v>199</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
@@ -5682,29 +5700,25 @@
         <v>58</v>
       </c>
       <c r="L46" s="5"/>
-      <c r="M46" s="5" t="s">
-        <v>754</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5" t="s">
-        <v>753</v>
+        <v>58</v>
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>752</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="T46" s="5"/>
     </row>
     <row r="47" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>755</v>
+        <v>201</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>756</v>
+        <v>202</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>58</v>
@@ -5724,15 +5738,9 @@
       <c r="K47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="N47" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
@@ -5741,15 +5749,15 @@
         <v>84</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>759</v>
+        <v>203</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>760</v>
+        <v>204</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>58</v>
@@ -5759,25 +5767,21 @@
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>761</v>
-      </c>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5" t="s">
-        <v>762</v>
+        <v>206</v>
       </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
@@ -5786,43 +5790,39 @@
         <v>84</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>763</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>807</v>
+        <v>751</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>802</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5" t="s">
+        <v>754</v>
+      </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
@@ -5831,30 +5831,28 @@
         <v>84</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>803</v>
+        <v>752</v>
       </c>
     </row>
     <row r="50" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>804</v>
+        <v>756</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>805</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -5864,11 +5862,13 @@
       <c r="L50" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5" t="s">
-        <v>769</v>
-      </c>
+      <c r="M50" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="N50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
@@ -5876,87 +5876,87 @@
         <v>84</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53" s="5" t="s">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5" t="s">
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5" t="s">
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T53" s="5" t="s">
+      <c r="T55" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="57" t="s">
+    <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="C57" s="57"/>
-    </row>
-    <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="58" t="s">
+      <c r="C59" s="57"/>
+    </row>
+    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="C58" s="58"/>
-    </row>
-    <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="58" t="s">
+      <c r="C60" s="58"/>
+    </row>
+    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="C59" s="58"/>
-    </row>
-    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="59" t="s">
+      <c r="C61" s="58"/>
+    </row>
+    <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="C60" s="59"/>
-    </row>
-    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="59" t="s">
+      <c r="C62" s="59"/>
+    </row>
+    <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="59"/>
-    </row>
-    <row r="62" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="56" t="s">
+      <c r="C63" s="59"/>
+    </row>
+    <row r="64" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="56" t="s">
         <v>764</v>
       </c>
-      <c r="C62" s="56"/>
+      <c r="C64" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C3:L3"/>
@@ -5967,11 +5967,11 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="B11:T11"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -2459,19 +2459,19 @@
     <t>contains(caRegion)</t>
   </si>
   <si>
-    <t>Région d'opération pour laquelle la table devrait être utilisée</t>
-  </si>
-  <si>
     <t>caProvinces</t>
   </si>
   <si>
     <t>contains(caProvince)</t>
   </si>
   <si>
-    <t>Province pour laquelle la table devrait être utilisée</t>
-  </si>
-  <si>
     <t>Canada Region</t>
+  </si>
+  <si>
+    <t>Canada region(s) of operation for which the table should be used</t>
+  </si>
+  <si>
+    <t>Canada province for which the table should be used</t>
   </si>
 </sst>
 </file>
@@ -3219,14 +3219,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3713,16 +3713,16 @@
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -3758,31 +3758,31 @@
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
@@ -3836,13 +3836,13 @@
       <c r="C12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3851,13 +3851,13 @@
       <c r="C13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -3866,34 +3866,29 @@
       <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3903,6 +3898,11 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3918,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="E34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,18 +3985,18 @@
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -4036,35 +4036,35 @@
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -4808,7 +4808,7 @@
     </row>
     <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>801</v>
@@ -4848,7 +4848,7 @@
         <v>84</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4856,7 +4856,7 @@
         <v>770</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>58</v>
@@ -4865,7 +4865,7 @@
         <v>140</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>78</v>
@@ -4893,7 +4893,7 @@
         <v>84</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="Runtime Scope" sheetId="4" r:id="rId4"/>
     <sheet name="Data Enums" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="812">
   <si>
     <t>Display Name</t>
   </si>
@@ -443,12 +448,6 @@
     <t>XLS_DT, XLS_PROPERTIES</t>
   </si>
   <si>
-    <t>one of: on, off, gaps, overlaps</t>
-  </si>
-  <si>
-    <t>On/Off/Gap/Overlap validation mode for the rule table</t>
-  </si>
-  <si>
     <t>LOB</t>
   </si>
   <si>
@@ -2472,12 +2471,30 @@
   </si>
   <si>
     <t>Canada province for which the table should be used</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition validateDT</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>data: validateDT</t>
+  </si>
+  <si>
+    <t>On/Off validation mode for the rule table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3272,39 +3289,39 @@
     </xf>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="32" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3380,14 +3397,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3425,9 +3445,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3460,9 +3480,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3495,9 +3532,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3918,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,19 +4862,19 @@
     </row>
     <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>78</v>
@@ -4839,7 +4893,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -4848,24 +4902,24 @@
         <v>84</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>78</v>
@@ -4884,7 +4938,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -4893,24 +4947,24 @@
         <v>84</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>78</v>
@@ -4929,7 +4983,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -4938,24 +4992,24 @@
         <v>84</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>78</v>
@@ -4974,33 +5028,33 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>78</v>
@@ -5019,7 +5073,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
@@ -5028,24 +5082,24 @@
         <v>84</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>78</v>
@@ -5064,7 +5118,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -5073,15 +5127,15 @@
         <v>84</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>58</v>
@@ -5090,7 +5144,7 @@
         <v>59</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>78</v>
@@ -5109,7 +5163,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
@@ -5118,21 +5172,21 @@
         <v>84</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
@@ -5150,11 +5204,11 @@
         <v>58</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -5163,24 +5217,24 @@
         <v>84</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>78</v>
@@ -5199,7 +5253,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -5208,24 +5262,24 @@
         <v>84</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>78</v>
@@ -5244,7 +5298,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -5253,15 +5307,15 @@
         <v>84</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
@@ -5272,7 +5326,7 @@
         <v>58</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5285,7 +5339,7 @@
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -5294,26 +5348,26 @@
         <v>64</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5329,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -5338,7 +5392,7 @@
         <v>64</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5442,7 +5496,7 @@
         <v>58</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
@@ -5464,7 +5518,7 @@
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
-        <v>131</v>
+        <v>810</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
@@ -5473,19 +5527,19 @@
         <v>84</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>132</v>
+        <v>811</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
@@ -5515,15 +5569,15 @@
         <v>84</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
@@ -5543,28 +5597,28 @@
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T42" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
@@ -5584,30 +5638,30 @@
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O43" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T43" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
@@ -5641,10 +5695,10 @@
     </row>
     <row r="45" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
@@ -5678,10 +5732,10 @@
     </row>
     <row r="46" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
@@ -5715,16 +5769,16 @@
     </row>
     <row r="47" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
@@ -5749,21 +5803,21 @@
         <v>84</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
@@ -5781,7 +5835,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
@@ -5790,15 +5844,15 @@
         <v>84</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
@@ -5818,11 +5872,11 @@
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
@@ -5831,21 +5885,21 @@
         <v>84</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="50" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
@@ -5863,7 +5917,7 @@
         <v>58</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="N50" s="5" t="b">
         <v>0</v>
@@ -5876,19 +5930,19 @@
         <v>84</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
@@ -5904,7 +5958,7 @@
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -5915,42 +5969,42 @@
         <v>64</v>
       </c>
       <c r="T55" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C59" s="57"/>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C60" s="58"/>
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C61" s="58"/>
     </row>
     <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C62" s="59"/>
     </row>
     <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C63" s="59"/>
     </row>
     <row r="64" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="56" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C64" s="56"/>
     </row>
@@ -5987,7 +6041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -5995,7 +6049,7 @@
   <sheetData>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
@@ -6004,10 +6058,10 @@
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -6016,7 +6070,7 @@
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
       <c r="C7" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -6025,7 +6079,7 @@
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="61"/>
       <c r="C8" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -6034,7 +6088,7 @@
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
       <c r="C9" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -6043,7 +6097,7 @@
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
       <c r="C10" s="62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -6083,7 +6137,7 @@
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -6131,7 +6185,7 @@
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>79</v>
@@ -6143,126 +6197,126 @@
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="E9" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>152</v>
-      </c>
       <c r="E11" s="40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>157</v>
-      </c>
       <c r="E12" s="42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="E13" s="40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>768</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="43" t="s">
+        <v>769</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" s="45" t="s">
         <v>771</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>772</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -6283,8 +6337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J216"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6299,15 +6353,15 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="69"/>
       <c r="E2" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F2" s="25"/>
       <c r="I2" s="68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J2" s="69"/>
     </row>
@@ -6333,190 +6387,190 @@
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="I5" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="I6" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="I7" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="I8" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="J8" s="23" t="s">
         <v>254</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>262</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>270</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="I13" s="68" t="s">
         <v>275</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>277</v>
       </c>
       <c r="J13" s="69"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>279</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>281</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>29</v>
@@ -6527,182 +6581,182 @@
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>285</v>
-      </c>
       <c r="I15" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="F16" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="I16" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="J16" s="14" t="s">
         <v>289</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>117</v>
       </c>
       <c r="F17" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>293</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="F18" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="I18" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="J18" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="I19" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="J19" s="14" t="s">
         <v>305</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="I20" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="J20" s="23" t="s">
         <v>310</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="F21" s="14" t="s">
         <v>314</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>318</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="I23" s="68" t="s">
         <v>323</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="I23" s="68" t="s">
-        <v>325</v>
       </c>
       <c r="J23" s="69"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="F24" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>329</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>29</v>
@@ -6713,156 +6767,156 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="F25" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>333</v>
-      </c>
       <c r="I25" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="F26" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="I26" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="J26" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="F27" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="I27" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="J27" s="15" t="s">
         <v>343</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="F28" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="I28" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="J28" s="29" t="s">
         <v>349</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="F29" s="14" t="s">
         <v>353</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="F30" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="F31" s="14" t="s">
         <v>361</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>366</v>
-      </c>
       <c r="I32" s="68" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="J32" s="69"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>367</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>369</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>29</v>
@@ -6873,122 +6927,122 @@
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="F34" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>373</v>
-      </c>
       <c r="I34" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="F35" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>377</v>
-      </c>
       <c r="I35" s="21" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="F36" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>381</v>
-      </c>
       <c r="I36" s="22" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="F37" s="14" t="s">
         <v>383</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="F38" s="14" t="s">
         <v>387</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="F39" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>393</v>
-      </c>
       <c r="I39" s="68" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="J39" s="69"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="F40" s="14" t="s">
         <v>394</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>396</v>
       </c>
       <c r="I40" s="46" t="s">
         <v>29</v>
@@ -7002,277 +7056,305 @@
         <v>117</v>
       </c>
       <c r="C41" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="E41" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>399</v>
-      </c>
       <c r="I41" s="46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J41" s="47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="F42" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="E42" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>403</v>
-      </c>
       <c r="I42" s="48" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="J42" s="49" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="E43" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>407</v>
-      </c>
       <c r="I43" s="50" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J43" s="51" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C44" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="E44" s="21" t="s">
+    </row>
+    <row r="45" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
+      <c r="E45" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="F45" s="14" t="s">
         <v>412</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="F46" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="E46" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>418</v>
-      </c>
+      <c r="I46" s="68" t="s">
+        <v>806</v>
+      </c>
+      <c r="J46" s="69"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="F47" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="E47" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>422</v>
+      <c r="I47" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="E48" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="F48" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="I48" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
+      <c r="E49" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="F49" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="I49" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
+      <c r="E50" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="F50" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="I50" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
+      <c r="E51" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="F51" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="E51" s="21" t="s">
+    </row>
+    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="21" t="s">
+      <c r="E52" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="F52" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="E52" s="21" t="s">
+    </row>
+    <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
+      <c r="E53" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="F53" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="E53" s="21" t="s">
+    </row>
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
+      <c r="E54" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="F54" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="E54" s="21" t="s">
+    </row>
+    <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="E55" s="21" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="C55" s="14" t="s">
+      <c r="F55" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="E55" s="21" t="s">
+    </row>
+    <row r="56" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="21" t="s">
+      <c r="E56" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="F56" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="E56" s="22" t="s">
+    </row>
+    <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="F56" s="23" t="s">
+    </row>
+    <row r="58" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="21" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="21" t="s">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="21" t="s">
+      <c r="E59" s="68" t="s">
+        <v>772</v>
+      </c>
+      <c r="F59" s="69"/>
+    </row>
+    <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>462</v>
-      </c>
-      <c r="E59" s="68" t="s">
-        <v>774</v>
-      </c>
-      <c r="F59" s="69"/>
-    </row>
-    <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>464</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>29</v>
@@ -7281,375 +7363,375 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="F61" s="47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="E61" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="F61" s="47" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="21" t="s">
+      <c r="E62" s="48" t="s">
+        <v>773</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="E63" s="48" t="s">
+        <v>775</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="E62" s="48" t="s">
-        <v>775</v>
-      </c>
-      <c r="F62" s="49" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="E63" s="48" t="s">
+      <c r="E64" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="F64" s="49" t="s">
         <v>777</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="E64" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="F64" s="49" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F67" s="49" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F68" s="49" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F69" s="49" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F70" s="49" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F72" s="49" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E73" s="48" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F73" s="49" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F74" s="51" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C99" s="25"/>
     </row>
@@ -7663,328 +7745,328 @@
     </row>
     <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="21" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="21" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="21" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="21" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="21" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="21" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="21" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="21" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="21" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="21" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="21" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="21" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="21" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="21" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="22" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="66" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C143" s="67"/>
     </row>
@@ -7998,575 +8080,575 @@
     </row>
     <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="10" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="10" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="10" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="10" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="10" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="10" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B143:C143"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I13:J13"/>
@@ -8575,6 +8657,7 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -3128,7 +3128,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3236,14 +3236,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3286,6 +3286,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -3767,16 +3770,16 @@
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -3812,31 +3815,31 @@
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
@@ -3890,13 +3893,13 @@
       <c r="C12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3905,13 +3908,13 @@
       <c r="C13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -3920,29 +3923,34 @@
       <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3952,11 +3960,6 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3972,8 +3975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK64"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4039,18 +4042,18 @@
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -4090,35 +4093,35 @@
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -5919,8 +5922,9 @@
       <c r="M50" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="N50" s="5" t="b">
-        <v>0</v>
+      <c r="N50" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -5932,6 +5936,9 @@
       <c r="T50" s="5" t="s">
         <v>756</v>
       </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N51" s="70"/>
     </row>
     <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
@@ -6337,7 +6344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
       <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="815">
   <si>
     <t>Display Name</t>
   </si>
@@ -2323,9 +2323,6 @@
     <t xml:space="preserve"> XLS_SPREADSHEET, XLS_PROPERTIES</t>
   </si>
   <si>
-    <t>Controls new Spreadsheet Auto Type Discovery feature. By default = false (old behaviour)</t>
-  </si>
-  <si>
     <t>Origin</t>
   </si>
   <si>
@@ -2489,6 +2486,18 @@
   </si>
   <si>
     <t>On/Off validation mode for the rule table</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controls new Spreadsheet Auto Type Discovery feature. </t>
+  </si>
+  <si>
+    <t>Controls Parallel execution feature. By default = false.</t>
+  </si>
+  <si>
+    <t>Cuncurrent Execution</t>
   </si>
 </sst>
 </file>
@@ -3233,17 +3242,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3286,9 +3298,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -3740,217 +3749,212 @@
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3960,6 +3964,11 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3973,10 +3982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK64"/>
+  <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3993,7 +4002,7 @@
     <col min="10" max="10" width="22.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="39.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" style="1"/>
     <col min="15" max="15" width="20.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="8.85546875" style="1"/>
@@ -4008,154 +4017,154 @@
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -4167,27 +4176,27 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
     </row>
     <row r="12" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -4865,10 +4874,10 @@
     </row>
     <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>58</v>
@@ -4877,7 +4886,7 @@
         <v>138</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>78</v>
@@ -4896,7 +4905,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -4905,15 +4914,15 @@
         <v>84</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>58</v>
@@ -4922,7 +4931,7 @@
         <v>138</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>78</v>
@@ -4941,7 +4950,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -4950,7 +4959,7 @@
         <v>84</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5180,10 +5189,10 @@
     </row>
     <row r="33" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>757</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>758</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>58</v>
@@ -5207,11 +5216,11 @@
         <v>58</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -5220,7 +5229,7 @@
         <v>84</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5521,7 +5530,7 @@
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
@@ -5530,7 +5539,7 @@
         <v>84</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5934,90 +5943,136 @@
         <v>84</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N51" s="70"/>
-    </row>
-    <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="N51" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N52" s="52"/>
+    </row>
+    <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H55" s="5" t="s">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5" t="s">
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5" t="s">
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T55" s="5" t="s">
+      <c r="T56" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" s="57"/>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="58"/>
+    </row>
+    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="58"/>
-    </row>
-    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C61" s="58"/>
+      <c r="C61" s="59"/>
     </row>
     <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="59"/>
+    </row>
+    <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="C62" s="59"/>
-    </row>
-    <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="59" t="s">
+      <c r="C63" s="60"/>
+    </row>
+    <row r="64" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="C63" s="59"/>
-    </row>
-    <row r="64" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="56" t="s">
-        <v>762</v>
-      </c>
-      <c r="C64" s="56"/>
+      <c r="C64" s="60"/>
+    </row>
+    <row r="65" spans="2:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="57" t="s">
+        <v>761</v>
+      </c>
+      <c r="C65" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C3:L3"/>
@@ -6028,11 +6083,11 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="B11:T11"/>
-    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -6055,16 +6110,16 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>216</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -6075,7 +6130,7 @@
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="17" t="s">
         <v>218</v>
       </c>
@@ -6084,7 +6139,7 @@
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="61"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="17" t="s">
         <v>219</v>
       </c>
@@ -6093,7 +6148,7 @@
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="61"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="17" t="s">
         <v>220</v>
       </c>
@@ -6102,13 +6157,13 @@
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="61"/>
-      <c r="C10" s="62" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6143,12 +6198,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
@@ -6300,30 +6355,30 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>767</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="43" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C15" s="44" t="s">
         <v>203</v>
       </c>
       <c r="D15" s="44" t="s">
+        <v>769</v>
+      </c>
+      <c r="E15" s="45" t="s">
         <v>770</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -6344,7 +6399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J216"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
       <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
@@ -6359,18 +6414,18 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="E2" s="24" t="s">
         <v>229</v>
       </c>
       <c r="F2" s="25"/>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="J2" s="69"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -6561,10 +6616,10 @@
       <c r="F13" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
@@ -6747,10 +6802,10 @@
       <c r="F23" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="I23" s="68" t="s">
+      <c r="I23" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="J23" s="69"/>
+      <c r="J23" s="70"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
@@ -6907,10 +6962,10 @@
       <c r="F32" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="I32" s="68" t="s">
-        <v>763</v>
-      </c>
-      <c r="J32" s="69"/>
+      <c r="I32" s="69" t="s">
+        <v>762</v>
+      </c>
+      <c r="J32" s="70"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
@@ -6966,10 +7021,10 @@
         <v>375</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6986,10 +7041,10 @@
         <v>379</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7033,10 +7088,10 @@
       <c r="F39" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="I39" s="68" t="s">
-        <v>796</v>
-      </c>
-      <c r="J39" s="69"/>
+      <c r="I39" s="69" t="s">
+        <v>795</v>
+      </c>
+      <c r="J39" s="70"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
@@ -7092,10 +7147,10 @@
         <v>401</v>
       </c>
       <c r="I42" s="48" t="s">
+        <v>787</v>
+      </c>
+      <c r="J42" s="49" t="s">
         <v>788</v>
-      </c>
-      <c r="J42" s="49" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7112,10 +7167,10 @@
         <v>405</v>
       </c>
       <c r="I43" s="50" t="s">
+        <v>796</v>
+      </c>
+      <c r="J43" s="51" t="s">
         <v>797</v>
-      </c>
-      <c r="J43" s="51" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7159,10 +7214,10 @@
       <c r="F46" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="I46" s="68" t="s">
-        <v>806</v>
-      </c>
-      <c r="J46" s="69"/>
+      <c r="I46" s="69" t="s">
+        <v>805</v>
+      </c>
+      <c r="J46" s="70"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
@@ -7218,10 +7273,10 @@
         <v>428</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7238,10 +7293,10 @@
         <v>432</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J50" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7351,10 +7406,10 @@
       <c r="C59" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="E59" s="68" t="s">
-        <v>772</v>
-      </c>
-      <c r="F59" s="69"/>
+      <c r="E59" s="69" t="s">
+        <v>771</v>
+      </c>
+      <c r="F59" s="70"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="21" t="s">
@@ -7392,10 +7447,10 @@
         <v>466</v>
       </c>
       <c r="E62" s="48" t="s">
+        <v>772</v>
+      </c>
+      <c r="F62" s="49" t="s">
         <v>773</v>
-      </c>
-      <c r="F62" s="49" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7406,10 +7461,10 @@
         <v>467</v>
       </c>
       <c r="E63" s="48" t="s">
+        <v>774</v>
+      </c>
+      <c r="F63" s="49" t="s">
         <v>775</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7423,7 +7478,7 @@
         <v>470</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7434,10 +7489,10 @@
         <v>471</v>
       </c>
       <c r="E65" s="48" t="s">
+        <v>777</v>
+      </c>
+      <c r="F65" s="49" t="s">
         <v>778</v>
-      </c>
-      <c r="F65" s="49" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7448,10 +7503,10 @@
         <v>473</v>
       </c>
       <c r="E66" s="48" t="s">
+        <v>779</v>
+      </c>
+      <c r="F66" s="49" t="s">
         <v>780</v>
-      </c>
-      <c r="F66" s="49" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7462,10 +7517,10 @@
         <v>475</v>
       </c>
       <c r="E67" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="F67" s="49" t="s">
         <v>782</v>
-      </c>
-      <c r="F67" s="49" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7476,10 +7531,10 @@
         <v>477</v>
       </c>
       <c r="E68" s="48" t="s">
+        <v>783</v>
+      </c>
+      <c r="F68" s="49" t="s">
         <v>784</v>
-      </c>
-      <c r="F68" s="49" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7490,10 +7545,10 @@
         <v>408</v>
       </c>
       <c r="E69" s="48" t="s">
+        <v>785</v>
+      </c>
+      <c r="F69" s="49" t="s">
         <v>786</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7504,10 +7559,10 @@
         <v>479</v>
       </c>
       <c r="E70" s="48" t="s">
+        <v>787</v>
+      </c>
+      <c r="F70" s="49" t="s">
         <v>788</v>
-      </c>
-      <c r="F70" s="49" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7521,7 +7576,7 @@
         <v>490</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7535,7 +7590,7 @@
         <v>457</v>
       </c>
       <c r="F72" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7546,10 +7601,10 @@
         <v>485</v>
       </c>
       <c r="E73" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="F73" s="49" t="s">
         <v>792</v>
-      </c>
-      <c r="F73" s="49" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7560,10 +7615,10 @@
         <v>487</v>
       </c>
       <c r="E74" s="50" t="s">
+        <v>793</v>
+      </c>
+      <c r="F74" s="51" t="s">
         <v>794</v>
-      </c>
-      <c r="F74" s="51" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8072,10 +8127,10 @@
     </row>
     <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="66" t="s">
+      <c r="B143" s="67" t="s">
         <v>606</v>
       </c>
-      <c r="C143" s="67"/>
+      <c r="C143" s="68"/>
     </row>
     <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="820">
   <si>
     <t>Display Name</t>
   </si>
@@ -2498,6 +2498,21 @@
   </si>
   <si>
     <t>Cuncurrent Execution</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>eq(nature)</t>
+  </si>
+  <si>
+    <t>list: Defined by method getNature()</t>
+  </si>
+  <si>
+    <t>Nature (type) for which this table works and should be used</t>
   </si>
 </sst>
 </file>
@@ -3137,7 +3152,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3242,9 +3257,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3749,207 +3761,207 @@
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
@@ -3985,7 +3997,7 @@
   <dimension ref="A1:AMK65"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4017,154 +4029,154 @@
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -4176,27 +4188,27 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
     </row>
     <row r="12" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -5992,8 +6004,50 @@
         <v>813</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N52" s="52"/>
+    <row r="52" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
@@ -6035,40 +6089,40 @@
       </c>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="58"/>
+      <c r="C60" s="57"/>
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="C61" s="59"/>
+      <c r="C61" s="58"/>
     </row>
     <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="59"/>
+      <c r="C62" s="58"/>
     </row>
     <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="C63" s="60"/>
+      <c r="C63" s="59"/>
     </row>
     <row r="64" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="C64" s="60"/>
+      <c r="C64" s="59"/>
     </row>
     <row r="65" spans="2:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="56" t="s">
         <v>761</v>
       </c>
-      <c r="C65" s="57"/>
+      <c r="C65" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6110,16 +6164,16 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>216</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -6130,7 +6184,7 @@
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="17" t="s">
         <v>218</v>
       </c>
@@ -6139,7 +6193,7 @@
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="62"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="17" t="s">
         <v>219</v>
       </c>
@@ -6148,7 +6202,7 @@
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="62"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="17" t="s">
         <v>220</v>
       </c>
@@ -6157,13 +6211,13 @@
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6183,10 +6237,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6198,12 +6252,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
@@ -6271,113 +6325,125 @@
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>224</v>
+        <v>816</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>160</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="40" t="s">
-        <v>225</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
-        <v>148</v>
+      <c r="B11" s="39" t="s">
+        <v>227</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>150</v>
+      <c r="D11" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
-        <v>163</v>
+      <c r="B13" s="41" t="s">
+        <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
-        <v>765</v>
+        <v>163</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
+        <v>765</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E15" s="40" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="43" t="s">
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="43" t="s">
         <v>768</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C16" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D16" s="44" t="s">
         <v>769</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E16" s="45" t="s">
         <v>770</v>
       </c>
     </row>
@@ -6399,7 +6465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
       <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
@@ -6414,18 +6480,18 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="69"/>
       <c r="E2" s="24" t="s">
         <v>229</v>
       </c>
       <c r="F2" s="25"/>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="J2" s="70"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -6616,10 +6682,10 @@
       <c r="F13" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="68" t="s">
         <v>275</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
@@ -6802,10 +6868,10 @@
       <c r="F23" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="J23" s="70"/>
+      <c r="J23" s="69"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
@@ -6962,10 +7028,10 @@
       <c r="F32" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="I32" s="69" t="s">
+      <c r="I32" s="68" t="s">
         <v>762</v>
       </c>
-      <c r="J32" s="70"/>
+      <c r="J32" s="69"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
@@ -7088,10 +7154,10 @@
       <c r="F39" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="I39" s="69" t="s">
+      <c r="I39" s="68" t="s">
         <v>795</v>
       </c>
-      <c r="J39" s="70"/>
+      <c r="J39" s="69"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
@@ -7214,10 +7280,10 @@
       <c r="F46" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="I46" s="69" t="s">
+      <c r="I46" s="68" t="s">
         <v>805</v>
       </c>
-      <c r="J46" s="70"/>
+      <c r="J46" s="69"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
@@ -7406,10 +7472,10 @@
       <c r="C59" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="E59" s="69" t="s">
+      <c r="E59" s="68" t="s">
         <v>771</v>
       </c>
-      <c r="F59" s="70"/>
+      <c r="F59" s="69"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="21" t="s">
@@ -8127,10 +8193,10 @@
     </row>
     <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="67" t="s">
+      <c r="B143" s="66" t="s">
         <v>606</v>
       </c>
-      <c r="C143" s="68"/>
+      <c r="C143" s="67"/>
     </row>
     <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="820">
   <si>
     <t>Display Name</t>
   </si>
@@ -553,1966 +553,1966 @@
     <t>data: regions</t>
   </si>
   <si>
+    <t>Economic Region(s) for which the table works and should be used</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>NN.NN[.NN]</t>
+  </si>
+  <si>
+    <t>Defines a version of this table. The “version” should be different for each table with the same signature and business dimensional properties values</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>unique in:TableGroup</t>
+  </si>
+  <si>
+    <t>Indicates if the current table version is active or not</t>
+  </si>
+  <si>
+    <t>Fail On Miss</t>
+  </si>
+  <si>
+    <t>failOnMiss</t>
+  </si>
+  <si>
+    <t>Defines whether to raise an error in case no rules are matched</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>XLS_PROPERTIES</t>
+  </si>
+  <si>
+    <t>Worksheet, Workbook, Module</t>
+  </si>
+  <si>
+    <t>CATEGORY, MODULE</t>
+  </si>
+  <si>
+    <t>The scope for a properties table</t>
+  </si>
+  <si>
+    <t>Datatype Package</t>
+  </si>
+  <si>
+    <t>datatypePackage</t>
+  </si>
+  <si>
+    <t>XLS_DATATYPE, XLS_PROPERTIES</t>
+  </si>
+  <si>
+    <t>org.openl.generated.beans</t>
+  </si>
+  <si>
+    <t>regexp:([a-zA-Z_]{1}[a-zA-Z0-9_]*(\\.[a-zA-Z_]{1}[a-zA-Z0-9_]*)*)</t>
+  </si>
+  <si>
+    <t>MODULE, TABLE</t>
+  </si>
+  <si>
+    <t>The name of the package for datatype generation</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>Custom1</t>
+  </si>
+  <si>
+    <t>custom1</t>
+  </si>
+  <si>
+    <t>Custom2</t>
+  </si>
+  <si>
+    <t>custom2</t>
+  </si>
+  <si>
+    <t>Cacheable</t>
+  </si>
+  <si>
+    <t>cacheable</t>
+  </si>
+  <si>
+    <t>Recalculate</t>
+  </si>
+  <si>
+    <t>recalculate</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>data: recalculate</t>
+  </si>
+  <si>
+    <t>The way of recalculation of the table for a variation - slightly varied input parameter(s)</t>
+  </si>
+  <si>
+    <t>Return On Miss</t>
+  </si>
+  <si>
+    <t>returnOnMiss</t>
+  </si>
+  <si>
+    <t>XLS_DT</t>
+  </si>
+  <si>
+    <t>Deprecated</t>
+  </si>
+  <si>
+    <t>Data String tablesPriorityRules</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>PriorityRule</t>
+  </si>
+  <si>
+    <t>max(startRequestDate)</t>
+  </si>
+  <si>
+    <t>min(endRequestDate)</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>org.openl.rules.table.properties.def</t>
+  </si>
+  <si>
+    <t>org.openl.rules.context.properties</t>
+  </si>
+  <si>
+    <t>org.openl.rules.enumeration.properties</t>
+  </si>
+  <si>
+    <t>org.openl.rules.table.constraints</t>
+  </si>
+  <si>
+    <t>org.openl.rules.enumeration</t>
+  </si>
+  <si>
+    <t>Data ContextPropertyDefinition contextDefinitions</t>
+  </si>
+  <si>
+    <t>requestDate</t>
+  </si>
+  <si>
+    <t>usState</t>
+  </si>
+  <si>
+    <t>US State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>usRegion</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition countries</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition usStates</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition regions</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display name</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>NCSA</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>EMEA</t>
+  </si>
+  <si>
+    <t>Europe; Middle East; Africa</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>APJ</t>
+  </si>
+  <si>
+    <t>Asia Pacific; Japan</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition usRegions</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Bosnia And Herzegowina</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition recalculate</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Massuchusets</t>
+  </si>
+  <si>
+    <t>ALWAYS</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>NEVER</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>ANALYZE</t>
+  </si>
+  <si>
+    <t>Analyze</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Mississipi</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>North California</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>South California</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Serbia And Montenegro</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition languages</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>Albanian</t>
+  </si>
+  <si>
+    <t>ARA</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Belarussian</t>
+  </si>
+  <si>
+    <t>BUL</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>Catalan</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>Croatian</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>DAN</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>DUT</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>FRE</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>HEB</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>HIN</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>GLE</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>LAV</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>LIT</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>Macedonian</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>Maltese</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>RUM</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>Serbian</t>
+  </si>
+  <si>
+    <t>SLO</t>
+  </si>
+  <si>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>VIE</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition currencies</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Albania, Leke</t>
+  </si>
+  <si>
+    <t>DZD</t>
+  </si>
+  <si>
+    <t>Algeria, Dinars</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>Argentina, Pesos</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>Australia, Dollars</t>
+  </si>
+  <si>
+    <t>BHD</t>
+  </si>
+  <si>
+    <t>Bahrain, Dinars</t>
+  </si>
+  <si>
+    <t>BYR</t>
+  </si>
+  <si>
+    <t>Belarus, Rubles</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>Bolivia, Bolivianos</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina, Convertible Marka</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>Brazil, Real</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>Canada, Dollars</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>Chile, Pesos</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>China, Yuan Renminbi</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>Colombia, Pesos</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Costa Rica, Colones</t>
+  </si>
+  <si>
+    <t>HRK</t>
+  </si>
+  <si>
+    <t>Croatia, Kuna</t>
+  </si>
+  <si>
+    <t>CZK</t>
+  </si>
+  <si>
+    <t>Czech Republic, Koruny</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>Denmark, Kroner</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>Dominican Republic, Pesos</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>Egypt, Pounds</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>GTQ</t>
+  </si>
+  <si>
+    <t>Guatemala, Quetzales</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t>Honduras, Lempiras</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>Hong Kong, Dollars</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>Hungary, Forint</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>Iceland, Kronur</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>India, Rupees</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>Indonesia, Rupiahs</t>
+  </si>
+  <si>
+    <t>IQD</t>
+  </si>
+  <si>
+    <t>Iraq, Dinars</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>Israel, New Shekels</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>Japan, Yen</t>
+  </si>
+  <si>
+    <t>JOD</t>
+  </si>
+  <si>
+    <t>Jordan, Dinars</t>
+  </si>
+  <si>
+    <t>KWD</t>
+  </si>
+  <si>
+    <t>Kuwait, Dinars</t>
+  </si>
+  <si>
+    <t>LVL</t>
+  </si>
+  <si>
+    <t>Latvia, Lati</t>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>Lebanon, Pounds</t>
+  </si>
+  <si>
+    <t>LTL</t>
+  </si>
+  <si>
+    <t>Lithuania, Litai</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>Macedonia, Denars</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>Malaysia, Ringgits</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>Mexico, Pesos</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>Morocco, Dirhams</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>New Zealand, Dollars</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>Nicaragua, Cordobas</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Norway, Kroner</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>Oman, Rials</t>
+  </si>
+  <si>
+    <t>PAB</t>
+  </si>
+  <si>
+    <t>Panama, Balboa</t>
+  </si>
+  <si>
+    <t>PYG</t>
+  </si>
+  <si>
+    <t>Paraguay, Guarani</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>Peru, Nuevos Soles</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Philippines, Pesos</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>Poland, Zlotych</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>Qatar, Rials</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>Romania, New Lei</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>Russia, Rubles</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>Saudi Arabia, Riyals</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>Serbia, Dinars</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Singapore, Dollars</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>South Africa, Rand</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>Sudan, Pounds</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>Sweden, Kronor</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>Switzerland, Francs</t>
+  </si>
+  <si>
+    <t>SYP</t>
+  </si>
+  <si>
+    <t>Syria, Pounds</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>Taiwan, New Dollars</t>
+  </si>
+  <si>
+    <t>TND</t>
+  </si>
+  <si>
+    <t>Tunisia, Dinars</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>Turkey, Lira</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>Ukraine, Hryvnia</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>United Arab Emirates, Dirhams</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>United Kingdom, Pounds</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>United States of America, Dollars</t>
+  </si>
+  <si>
+    <t>UYU</t>
+  </si>
+  <si>
+    <t>Uruguay, Pesos</t>
+  </si>
+  <si>
+    <t>VEF</t>
+  </si>
+  <si>
+    <t>Venezuela, Bolivares Fuertes</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>Viet Nam, Dong</t>
+  </si>
+  <si>
+    <t>YER</t>
+  </si>
+  <si>
+    <t>Yemen, Rials</t>
+  </si>
+  <si>
+    <t>Defines whether or not to use cache while recalculating the table for a variation, depending on the rule input</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Precision of comparing the returned results with the expected ones</t>
+  </si>
+  <si>
+    <t>regexp:(-?[0-9]+)</t>
+  </si>
+  <si>
+    <t>XLS_TEST_METHOD, XLS_PROPERTIES</t>
+  </si>
+  <si>
+    <t>Auto Type Discovery</t>
+  </si>
+  <si>
+    <t>autoType</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>XLS_DT, XLS_SPREADSHEET, XLS_TBASIC, XLS_COLUMN_MATCH, XLS_METHOD, XLS_PROPERTIES</t>
+  </si>
+  <si>
+    <t>data: origins</t>
+  </si>
+  <si>
+    <t>Indicates origin of the rules to allow hierarchy of more generic and more specific rules</t>
+  </si>
+  <si>
+    <t>max(origin)</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition origins</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>caProvince</t>
+  </si>
+  <si>
+    <t>data: caProvinces</t>
+  </si>
+  <si>
+    <t>Canada Province</t>
+  </si>
+  <si>
+    <t>caRegion</t>
+  </si>
+  <si>
+    <t>data: caRegions</t>
+  </si>
+  <si>
+    <t>Canada Region Operation</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition caProvinces</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Colombie-Britannique</t>
+  </si>
+  <si>
+    <t>Île-du-Prince-Édouard</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Nouveau-Brunswick</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Nouvelle-Écosse</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Nunavut</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Québec</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Terre-Neuve-et-Labrador</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Territoires du Nord-Ouest</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition caRegions</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Hors Québec</t>
+  </si>
+  <si>
+    <t>caRegions</t>
+  </si>
+  <si>
+    <t>contains(caRegion)</t>
+  </si>
+  <si>
+    <t>caProvinces</t>
+  </si>
+  <si>
+    <t>contains(caProvince)</t>
+  </si>
+  <si>
+    <t>Canada Region</t>
+  </si>
+  <si>
+    <t>Canada region(s) of operation for which the table should be used</t>
+  </si>
+  <si>
+    <t>Canada province for which the table should be used</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition validateDT</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>data: validateDT</t>
+  </si>
+  <si>
+    <t>On/Off validation mode for the rule table</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controls new Spreadsheet Auto Type Discovery feature. </t>
+  </si>
+  <si>
+    <t>Controls Parallel execution feature. By default = false.</t>
+  </si>
+  <si>
+    <t>Cuncurrent Execution</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>eq(nature)</t>
+  </si>
+  <si>
+    <t>list: Defined by method getNature()</t>
+  </si>
+  <si>
+    <t>Nature (type) for which this table works and should be used</t>
+  </si>
+  <si>
+    <t>XLS_SPREADSHEET, XLS_PROPERTIES</t>
+  </si>
+  <si>
     <t>MODULE, CATEGORY</t>
-  </si>
-  <si>
-    <t>Economic Region(s) for which the table works and should be used</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>NN.NN[.NN]</t>
-  </si>
-  <si>
-    <t>Defines a version of this table. The “version” should be different for each table with the same signature and business dimensional properties values</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>unique in:TableGroup</t>
-  </si>
-  <si>
-    <t>Indicates if the current table version is active or not</t>
-  </si>
-  <si>
-    <t>Fail On Miss</t>
-  </si>
-  <si>
-    <t>failOnMiss</t>
-  </si>
-  <si>
-    <t>Defines whether to raise an error in case no rules are matched</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>XLS_PROPERTIES</t>
-  </si>
-  <si>
-    <t>Worksheet, Workbook, Module</t>
-  </si>
-  <si>
-    <t>CATEGORY, MODULE</t>
-  </si>
-  <si>
-    <t>The scope for a properties table</t>
-  </si>
-  <si>
-    <t>Datatype Package</t>
-  </si>
-  <si>
-    <t>datatypePackage</t>
-  </si>
-  <si>
-    <t>XLS_DATATYPE, XLS_PROPERTIES</t>
-  </si>
-  <si>
-    <t>org.openl.generated.beans</t>
-  </si>
-  <si>
-    <t>regexp:([a-zA-Z_]{1}[a-zA-Z0-9_]*(\\.[a-zA-Z_]{1}[a-zA-Z0-9_]*)*)</t>
-  </si>
-  <si>
-    <t>MODULE, TABLE</t>
-  </si>
-  <si>
-    <t>The name of the package for datatype generation</t>
-  </si>
-  <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
-    <t>transaction</t>
-  </si>
-  <si>
-    <t>Custom1</t>
-  </si>
-  <si>
-    <t>custom1</t>
-  </si>
-  <si>
-    <t>Custom2</t>
-  </si>
-  <si>
-    <t>custom2</t>
-  </si>
-  <si>
-    <t>Cacheable</t>
-  </si>
-  <si>
-    <t>cacheable</t>
-  </si>
-  <si>
-    <t>Recalculate</t>
-  </si>
-  <si>
-    <t>recalculate</t>
-  </si>
-  <si>
-    <t>Enum</t>
-  </si>
-  <si>
-    <t>data: recalculate</t>
-  </si>
-  <si>
-    <t>The way of recalculation of the table for a variation - slightly varied input parameter(s)</t>
-  </si>
-  <si>
-    <t>Return On Miss</t>
-  </si>
-  <si>
-    <t>returnOnMiss</t>
-  </si>
-  <si>
-    <t>XLS_DT</t>
-  </si>
-  <si>
-    <t>Deprecated</t>
-  </si>
-  <si>
-    <t>Data String tablesPriorityRules</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>PriorityRule</t>
-  </si>
-  <si>
-    <t>max(startRequestDate)</t>
-  </si>
-  <si>
-    <t>min(endRequestDate)</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>org.openl.rules.table.properties.def</t>
-  </si>
-  <si>
-    <t>org.openl.rules.context.properties</t>
-  </si>
-  <si>
-    <t>org.openl.rules.enumeration.properties</t>
-  </si>
-  <si>
-    <t>org.openl.rules.table.constraints</t>
-  </si>
-  <si>
-    <t>org.openl.rules.enumeration</t>
-  </si>
-  <si>
-    <t>Data ContextPropertyDefinition contextDefinitions</t>
-  </si>
-  <si>
-    <t>requestDate</t>
-  </si>
-  <si>
-    <t>usState</t>
-  </si>
-  <si>
-    <t>US State</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>usRegion</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition countries</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition usStates</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition regions</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display name</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>NCSA</t>
-  </si>
-  <si>
-    <t>Americas</t>
-  </si>
-  <si>
-    <t>DZ</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>European Union</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>EMEA</t>
-  </si>
-  <si>
-    <t>Europe; Middle East; Africa</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>APJ</t>
-  </si>
-  <si>
-    <t>Asia Pacific; Japan</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>BY</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition usRegions</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>Bosnia And Herzegowina</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>Southeast</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>Southwest</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition recalculate</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Massuchusets</t>
-  </si>
-  <si>
-    <t>ALWAYS</t>
-  </si>
-  <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>NEVER</t>
-  </si>
-  <si>
-    <t>Never</t>
-  </si>
-  <si>
-    <t>EG</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>ANALYZE</t>
-  </si>
-  <si>
-    <t>Analyze</t>
-  </si>
-  <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Mississipi</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>GR</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>HN</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>North California</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>IQ</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>South California</t>
-  </si>
-  <si>
-    <t>JO</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>MK</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>NZ</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>PY</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Serbia And Montenegro</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>SY</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>TW</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>UA</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>UY</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>VE</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>VN</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>YE</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition languages</t>
-  </si>
-  <si>
-    <t>ALB</t>
-  </si>
-  <si>
-    <t>Albanian</t>
-  </si>
-  <si>
-    <t>ARA</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>Belarussian</t>
-  </si>
-  <si>
-    <t>BUL</t>
-  </si>
-  <si>
-    <t>Bulgarian</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>Catalan</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>SCR</t>
-  </si>
-  <si>
-    <t>Croatian</t>
-  </si>
-  <si>
-    <t>CZE</t>
-  </si>
-  <si>
-    <t>Czech</t>
-  </si>
-  <si>
-    <t>DAN</t>
-  </si>
-  <si>
-    <t>Danish</t>
-  </si>
-  <si>
-    <t>DUT</t>
-  </si>
-  <si>
-    <t>Dutch</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Finnish</t>
-  </si>
-  <si>
-    <t>FRE</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>GRE</t>
-  </si>
-  <si>
-    <t>Greek</t>
-  </si>
-  <si>
-    <t>HEB</t>
-  </si>
-  <si>
-    <t>Hebrew</t>
-  </si>
-  <si>
-    <t>HIN</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>HUN</t>
-  </si>
-  <si>
-    <t>Hungarian</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>Indonesian</t>
-  </si>
-  <si>
-    <t>GLE</t>
-  </si>
-  <si>
-    <t>Irish</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>LAV</t>
-  </si>
-  <si>
-    <t>Latvian</t>
-  </si>
-  <si>
-    <t>LIT</t>
-  </si>
-  <si>
-    <t>Lithuanian</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
-    <t>Macedonian</t>
-  </si>
-  <si>
-    <t>MAY</t>
-  </si>
-  <si>
-    <t>Malay</t>
-  </si>
-  <si>
-    <t>MLT</t>
-  </si>
-  <si>
-    <t>Maltese</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>Norwegian</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>Polish</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>Portuguese</t>
-  </si>
-  <si>
-    <t>RUM</t>
-  </si>
-  <si>
-    <t>Romanian</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
-    <t>SCC</t>
-  </si>
-  <si>
-    <t>Serbian</t>
-  </si>
-  <si>
-    <t>SLO</t>
-  </si>
-  <si>
-    <t>Slovak</t>
-  </si>
-  <si>
-    <t>SPA</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>THA</t>
-  </si>
-  <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>Turkish</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>Ukrainian</t>
-  </si>
-  <si>
-    <t>VIE</t>
-  </si>
-  <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition currencies</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Albania, Leke</t>
-  </si>
-  <si>
-    <t>DZD</t>
-  </si>
-  <si>
-    <t>Algeria, Dinars</t>
-  </si>
-  <si>
-    <t>ARS</t>
-  </si>
-  <si>
-    <t>Argentina, Pesos</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>Australia, Dollars</t>
-  </si>
-  <si>
-    <t>BHD</t>
-  </si>
-  <si>
-    <t>Bahrain, Dinars</t>
-  </si>
-  <si>
-    <t>BYR</t>
-  </si>
-  <si>
-    <t>Belarus, Rubles</t>
-  </si>
-  <si>
-    <t>BOB</t>
-  </si>
-  <si>
-    <t>Bolivia, Bolivianos</t>
-  </si>
-  <si>
-    <t>BAM</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina, Convertible Marka</t>
-  </si>
-  <si>
-    <t>BRL</t>
-  </si>
-  <si>
-    <t>Brazil, Real</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>Canada, Dollars</t>
-  </si>
-  <si>
-    <t>CLP</t>
-  </si>
-  <si>
-    <t>Chile, Pesos</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>China, Yuan Renminbi</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>Colombia, Pesos</t>
-  </si>
-  <si>
-    <t>CRC</t>
-  </si>
-  <si>
-    <t>Costa Rica, Colones</t>
-  </si>
-  <si>
-    <t>HRK</t>
-  </si>
-  <si>
-    <t>Croatia, Kuna</t>
-  </si>
-  <si>
-    <t>CZK</t>
-  </si>
-  <si>
-    <t>Czech Republic, Koruny</t>
-  </si>
-  <si>
-    <t>DKK</t>
-  </si>
-  <si>
-    <t>Denmark, Kroner</t>
-  </si>
-  <si>
-    <t>DOP</t>
-  </si>
-  <si>
-    <t>Dominican Republic, Pesos</t>
-  </si>
-  <si>
-    <t>EGP</t>
-  </si>
-  <si>
-    <t>Egypt, Pounds</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>Euro</t>
-  </si>
-  <si>
-    <t>GTQ</t>
-  </si>
-  <si>
-    <t>Guatemala, Quetzales</t>
-  </si>
-  <si>
-    <t>HNL</t>
-  </si>
-  <si>
-    <t>Honduras, Lempiras</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>Hong Kong, Dollars</t>
-  </si>
-  <si>
-    <t>HUF</t>
-  </si>
-  <si>
-    <t>Hungary, Forint</t>
-  </si>
-  <si>
-    <t>ISK</t>
-  </si>
-  <si>
-    <t>Iceland, Kronur</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>India, Rupees</t>
-  </si>
-  <si>
-    <t>IDR</t>
-  </si>
-  <si>
-    <t>Indonesia, Rupiahs</t>
-  </si>
-  <si>
-    <t>IQD</t>
-  </si>
-  <si>
-    <t>Iraq, Dinars</t>
-  </si>
-  <si>
-    <t>ILS</t>
-  </si>
-  <si>
-    <t>Israel, New Shekels</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>Japan, Yen</t>
-  </si>
-  <si>
-    <t>JOD</t>
-  </si>
-  <si>
-    <t>Jordan, Dinars</t>
-  </si>
-  <si>
-    <t>KWD</t>
-  </si>
-  <si>
-    <t>Kuwait, Dinars</t>
-  </si>
-  <si>
-    <t>LVL</t>
-  </si>
-  <si>
-    <t>Latvia, Lati</t>
-  </si>
-  <si>
-    <t>LBP</t>
-  </si>
-  <si>
-    <t>Lebanon, Pounds</t>
-  </si>
-  <si>
-    <t>LTL</t>
-  </si>
-  <si>
-    <t>Lithuania, Litai</t>
-  </si>
-  <si>
-    <t>MKD</t>
-  </si>
-  <si>
-    <t>Macedonia, Denars</t>
-  </si>
-  <si>
-    <t>MYR</t>
-  </si>
-  <si>
-    <t>Malaysia, Ringgits</t>
-  </si>
-  <si>
-    <t>MXN</t>
-  </si>
-  <si>
-    <t>Mexico, Pesos</t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>Morocco, Dirhams</t>
-  </si>
-  <si>
-    <t>NZD</t>
-  </si>
-  <si>
-    <t>New Zealand, Dollars</t>
-  </si>
-  <si>
-    <t>NIO</t>
-  </si>
-  <si>
-    <t>Nicaragua, Cordobas</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>Norway, Kroner</t>
-  </si>
-  <si>
-    <t>OMR</t>
-  </si>
-  <si>
-    <t>Oman, Rials</t>
-  </si>
-  <si>
-    <t>PAB</t>
-  </si>
-  <si>
-    <t>Panama, Balboa</t>
-  </si>
-  <si>
-    <t>PYG</t>
-  </si>
-  <si>
-    <t>Paraguay, Guarani</t>
-  </si>
-  <si>
-    <t>PEN</t>
-  </si>
-  <si>
-    <t>Peru, Nuevos Soles</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>Philippines, Pesos</t>
-  </si>
-  <si>
-    <t>PLN</t>
-  </si>
-  <si>
-    <t>Poland, Zlotych</t>
-  </si>
-  <si>
-    <t>QAR</t>
-  </si>
-  <si>
-    <t>Qatar, Rials</t>
-  </si>
-  <si>
-    <t>RON</t>
-  </si>
-  <si>
-    <t>Romania, New Lei</t>
-  </si>
-  <si>
-    <t>RUB</t>
-  </si>
-  <si>
-    <t>Russia, Rubles</t>
-  </si>
-  <si>
-    <t>SAR</t>
-  </si>
-  <si>
-    <t>Saudi Arabia, Riyals</t>
-  </si>
-  <si>
-    <t>RSD</t>
-  </si>
-  <si>
-    <t>Serbia, Dinars</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>Singapore, Dollars</t>
-  </si>
-  <si>
-    <t>ZAR</t>
-  </si>
-  <si>
-    <t>South Africa, Rand</t>
-  </si>
-  <si>
-    <t>SDG</t>
-  </si>
-  <si>
-    <t>Sudan, Pounds</t>
-  </si>
-  <si>
-    <t>SEK</t>
-  </si>
-  <si>
-    <t>Sweden, Kronor</t>
-  </si>
-  <si>
-    <t>CHF</t>
-  </si>
-  <si>
-    <t>Switzerland, Francs</t>
-  </si>
-  <si>
-    <t>SYP</t>
-  </si>
-  <si>
-    <t>Syria, Pounds</t>
-  </si>
-  <si>
-    <t>TWD</t>
-  </si>
-  <si>
-    <t>Taiwan, New Dollars</t>
-  </si>
-  <si>
-    <t>TND</t>
-  </si>
-  <si>
-    <t>Tunisia, Dinars</t>
-  </si>
-  <si>
-    <t>TRY</t>
-  </si>
-  <si>
-    <t>Turkey, Lira</t>
-  </si>
-  <si>
-    <t>UAH</t>
-  </si>
-  <si>
-    <t>Ukraine, Hryvnia</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>United Arab Emirates, Dirhams</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>United Kingdom, Pounds</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>United States of America, Dollars</t>
-  </si>
-  <si>
-    <t>UYU</t>
-  </si>
-  <si>
-    <t>Uruguay, Pesos</t>
-  </si>
-  <si>
-    <t>VEF</t>
-  </si>
-  <si>
-    <t>Venezuela, Bolivares Fuertes</t>
-  </si>
-  <si>
-    <t>VND</t>
-  </si>
-  <si>
-    <t>Viet Nam, Dong</t>
-  </si>
-  <si>
-    <t>YER</t>
-  </si>
-  <si>
-    <t>Yemen, Rials</t>
-  </si>
-  <si>
-    <t>Defines whether or not to use cache while recalculating the table for a variation, depending on the rule input</t>
-  </si>
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Precision of comparing the returned results with the expected ones</t>
-  </si>
-  <si>
-    <t>regexp:(-?[0-9]+)</t>
-  </si>
-  <si>
-    <t>XLS_TEST_METHOD, XLS_PROPERTIES</t>
-  </si>
-  <si>
-    <t>Auto Type Discovery</t>
-  </si>
-  <si>
-    <t>autoType</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> XLS_SPREADSHEET, XLS_PROPERTIES</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>XLS_DT, XLS_SPREADSHEET, XLS_TBASIC, XLS_COLUMN_MATCH, XLS_METHOD, XLS_PROPERTIES</t>
-  </si>
-  <si>
-    <t>data: origins</t>
-  </si>
-  <si>
-    <t>Indicates origin of the rules to allow hierarchy of more generic and more specific rules</t>
-  </si>
-  <si>
-    <t>max(origin)</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition origins</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Deviation</t>
-  </si>
-  <si>
-    <t>caProvince</t>
-  </si>
-  <si>
-    <t>data: caProvinces</t>
-  </si>
-  <si>
-    <t>Canada Province</t>
-  </si>
-  <si>
-    <t>caRegion</t>
-  </si>
-  <si>
-    <t>data: caRegions</t>
-  </si>
-  <si>
-    <t>Canada Region Operation</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition caProvinces</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>Alberta</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>Colombie-Britannique</t>
-  </si>
-  <si>
-    <t>Île-du-Prince-Édouard</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>Manitoba</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>Nouveau-Brunswick</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>Nouvelle-Écosse</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>Nunavut</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>Ontario</t>
-  </si>
-  <si>
-    <t>QC</t>
-  </si>
-  <si>
-    <t>Québec</t>
-  </si>
-  <si>
-    <t>Saskatchewan</t>
-  </si>
-  <si>
-    <t>Terre-Neuve-et-Labrador</t>
-  </si>
-  <si>
-    <t>YT</t>
-  </si>
-  <si>
-    <t>Yukon</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>Territoires du Nord-Ouest</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition caRegions</t>
-  </si>
-  <si>
-    <t>HQ</t>
-  </si>
-  <si>
-    <t>Hors Québec</t>
-  </si>
-  <si>
-    <t>caRegions</t>
-  </si>
-  <si>
-    <t>contains(caRegion)</t>
-  </si>
-  <si>
-    <t>caProvinces</t>
-  </si>
-  <si>
-    <t>contains(caProvince)</t>
-  </si>
-  <si>
-    <t>Canada Region</t>
-  </si>
-  <si>
-    <t>Canada region(s) of operation for which the table should be used</t>
-  </si>
-  <si>
-    <t>Canada province for which the table should be used</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition validateDT</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>data: validateDT</t>
-  </si>
-  <si>
-    <t>On/Off validation mode for the rule table</t>
-  </si>
-  <si>
-    <t>parallel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controls new Spreadsheet Auto Type Discovery feature. </t>
-  </si>
-  <si>
-    <t>Controls Parallel execution feature. By default = false.</t>
-  </si>
-  <si>
-    <t>Cuncurrent Execution</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>nature</t>
-  </si>
-  <si>
-    <t>eq(nature)</t>
-  </si>
-  <si>
-    <t>list: Defined by method getNature()</t>
-  </si>
-  <si>
-    <t>Nature (type) for which this table works and should be used</t>
   </si>
 </sst>
 </file>
@@ -3996,8 +3996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4726,7 +4726,9 @@
       <c r="L22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
         <v>82</v>
@@ -4773,7 +4775,9 @@
       <c r="L23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
         <v>89</v>
@@ -4820,7 +4824,9 @@
       <c r="L24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M24" s="5"/>
+      <c r="M24" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
         <v>94</v>
@@ -4867,7 +4873,9 @@
       <c r="L25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M25" s="5"/>
+      <c r="M25" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
         <v>99</v>
@@ -4886,10 +4894,10 @@
     </row>
     <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>58</v>
@@ -4898,7 +4906,7 @@
         <v>138</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>78</v>
@@ -4914,10 +4922,12 @@
       <c r="L26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="5"/>
+      <c r="M26" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -4926,15 +4936,15 @@
         <v>84</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>58</v>
@@ -4943,7 +4953,7 @@
         <v>138</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>78</v>
@@ -4959,10 +4969,12 @@
       <c r="L27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="5"/>
+      <c r="M27" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -4971,7 +4983,7 @@
         <v>84</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5004,7 +5016,9 @@
       <c r="L28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="5"/>
+      <c r="M28" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
         <v>145</v>
@@ -5049,7 +5063,9 @@
       <c r="L29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M29" s="5"/>
+      <c r="M29" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
         <v>165</v>
@@ -5058,10 +5074,10 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="T29" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="30" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5094,7 +5110,9 @@
       <c r="L30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M30" s="5"/>
+      <c r="M30" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
         <v>150</v>
@@ -5139,7 +5157,9 @@
       <c r="L31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M31" s="5"/>
+      <c r="M31" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
         <v>155</v>
@@ -5184,7 +5204,9 @@
       <c r="L32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="5"/>
+      <c r="M32" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5" t="s">
         <v>134</v>
@@ -5201,16 +5223,16 @@
     </row>
     <row r="33" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
@@ -5228,11 +5250,11 @@
         <v>58</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -5241,7 +5263,7 @@
         <v>84</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5274,7 +5296,9 @@
       <c r="L34" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M34" s="5"/>
+      <c r="M34" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
         <v>140</v>
@@ -5319,7 +5343,9 @@
       <c r="L35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M35" s="5"/>
+      <c r="M35" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
         <v>160</v>
@@ -5336,10 +5362,10 @@
     </row>
     <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
@@ -5350,7 +5376,7 @@
         <v>58</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5363,7 +5389,7 @@
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -5372,26 +5398,26 @@
         <v>64</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5407,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -5416,7 +5442,7 @@
         <v>64</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5520,7 +5546,7 @@
         <v>58</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
@@ -5542,7 +5568,7 @@
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
@@ -5551,19 +5577,19 @@
         <v>84</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
@@ -5593,15 +5619,15 @@
         <v>84</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
@@ -5621,28 +5647,28 @@
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="T42" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
@@ -5662,30 +5688,30 @@
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="N43" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="O43" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="T43" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
@@ -5719,10 +5745,10 @@
     </row>
     <row r="45" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
@@ -5756,10 +5782,10 @@
     </row>
     <row r="46" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
@@ -5791,18 +5817,18 @@
       </c>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="D47" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
@@ -5817,7 +5843,9 @@
         <v>58</v>
       </c>
       <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="M47" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -5827,21 +5855,21 @@
         <v>84</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
@@ -5856,10 +5884,12 @@
         <v>58</v>
       </c>
       <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
+      <c r="M48" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="N48" s="5"/>
       <c r="O48" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
@@ -5868,15 +5898,15 @@
         <v>84</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
@@ -5896,11 +5926,11 @@
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
@@ -5909,21 +5939,21 @@
         <v>84</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="50" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>754</v>
-      </c>
       <c r="D50" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
@@ -5941,7 +5971,7 @@
         <v>58</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>755</v>
+        <v>818</v>
       </c>
       <c r="N50" s="7" t="b">
         <f>TRUE()</f>
@@ -5955,21 +5985,21 @@
         <v>84</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="51" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
@@ -5987,7 +6017,7 @@
         <v>58</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N51" s="7" t="b">
         <f>FALSE()</f>
@@ -6001,15 +6031,15 @@
         <v>84</v>
       </c>
       <c r="T51" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="52" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>58</v>
@@ -6018,7 +6048,7 @@
         <v>59</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>78</v>
@@ -6034,10 +6064,12 @@
       <c r="L52" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M52" s="5"/>
+      <c r="M52" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
@@ -6046,19 +6078,19 @@
         <v>84</v>
       </c>
       <c r="T52" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
@@ -6074,7 +6106,7 @@
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
@@ -6085,42 +6117,42 @@
         <v>64</v>
       </c>
       <c r="T56" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C60" s="57"/>
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C61" s="58"/>
     </row>
     <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C62" s="58"/>
     </row>
     <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C63" s="59"/>
     </row>
     <row r="64" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C64" s="59"/>
     </row>
     <row r="65" spans="2:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="56" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C65" s="56"/>
     </row>
@@ -6165,7 +6197,7 @@
   <sheetData>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
@@ -6174,10 +6206,10 @@
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>217</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -6186,7 +6218,7 @@
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
       <c r="C7" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -6195,7 +6227,7 @@
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="61"/>
       <c r="C8" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -6204,7 +6236,7 @@
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
       <c r="C9" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -6213,7 +6245,7 @@
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
       <c r="C10" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -6239,7 +6271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -6253,7 +6285,7 @@
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -6301,7 +6333,7 @@
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>79</v>
@@ -6325,28 +6357,28 @@
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="40" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6354,21 +6386,21 @@
         <v>143</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>140</v>
@@ -6382,7 +6414,7 @@
         <v>148</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>150</v>
@@ -6396,7 +6428,7 @@
         <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>155</v>
@@ -6410,7 +6442,7 @@
         <v>163</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>165</v>
@@ -6421,30 +6453,30 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>765</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="43" t="s">
+        <v>766</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>767</v>
+      </c>
+      <c r="E16" s="45" t="s">
         <v>768</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>769</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -6481,15 +6513,15 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C2" s="69"/>
       <c r="E2" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F2" s="25"/>
       <c r="I2" s="68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J2" s="69"/>
     </row>
@@ -6515,190 +6547,190 @@
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>232</v>
-      </c>
       <c r="E4" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>232</v>
-      </c>
       <c r="I4" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="E5" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="I5" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="I6" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="J6" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="E7" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="I7" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="J7" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="E8" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="I8" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="J8" s="23" t="s">
         <v>253</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="E9" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="14" t="s">
         <v>257</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="E10" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="14" t="s">
         <v>261</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="E11" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="14" t="s">
         <v>265</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="E12" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="F12" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="E13" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="F13" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="I13" s="68" t="s">
         <v>274</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>275</v>
       </c>
       <c r="J13" s="69"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="14" t="s">
         <v>278</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>29</v>
@@ -6709,182 +6741,182 @@
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="E15" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>283</v>
-      </c>
       <c r="I15" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="E16" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="F16" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="I16" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="J16" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>117</v>
       </c>
       <c r="F17" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="J17" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="E18" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="F18" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="I18" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="J18" s="14" t="s">
         <v>298</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="E19" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="I19" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="J19" s="14" t="s">
         <v>304</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="I20" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="J20" s="23" t="s">
         <v>309</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="E21" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="E22" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="F22" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="E23" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="F23" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="I23" s="68" t="s">
         <v>322</v>
-      </c>
-      <c r="I23" s="68" t="s">
-        <v>323</v>
       </c>
       <c r="J23" s="69"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="E24" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="F24" s="14" t="s">
         <v>326</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>327</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>29</v>
@@ -6895,156 +6927,156 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="E25" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="F25" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>331</v>
-      </c>
       <c r="I25" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="E26" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="F26" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="I26" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="J26" s="14" t="s">
         <v>336</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="E27" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="F27" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="I27" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="J27" s="15" t="s">
         <v>342</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="E28" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="F28" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="I28" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="J28" s="29" t="s">
         <v>348</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="E29" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="F29" s="14" t="s">
         <v>352</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="E30" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="F30" s="14" t="s">
         <v>356</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="E31" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="F31" s="14" t="s">
         <v>360</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="E32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>364</v>
-      </c>
       <c r="I32" s="68" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J32" s="69"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="F33" s="14" t="s">
         <v>366</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>367</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>29</v>
@@ -7055,122 +7087,122 @@
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="E34" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="F34" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>371</v>
-      </c>
       <c r="I34" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J34" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="E35" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="F35" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>375</v>
-      </c>
       <c r="I35" s="21" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="E36" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="F36" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>379</v>
-      </c>
       <c r="I36" s="22" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="E37" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="F37" s="14" t="s">
         <v>382</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="E38" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="F38" s="14" t="s">
         <v>386</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="E39" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="F39" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>391</v>
-      </c>
       <c r="I39" s="68" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J39" s="69"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="F40" s="14" t="s">
         <v>393</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>394</v>
       </c>
       <c r="I40" s="46" t="s">
         <v>29</v>
@@ -7184,119 +7216,119 @@
         <v>117</v>
       </c>
       <c r="C41" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="F41" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>397</v>
-      </c>
       <c r="I41" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J41" s="47" t="s">
         <v>231</v>
-      </c>
-      <c r="J41" s="47" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="E42" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="F42" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>401</v>
-      </c>
       <c r="I42" s="48" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="J42" s="49" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="E43" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="F43" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>405</v>
-      </c>
       <c r="I43" s="50" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J43" s="51" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C44" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="F44" s="14" t="s">
         <v>407</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="E45" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="F45" s="14" t="s">
         <v>411</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="E46" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="F46" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>416</v>
-      </c>
       <c r="I46" s="68" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="J46" s="69"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="E47" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="F47" s="14" t="s">
         <v>419</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>420</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>29</v>
@@ -7307,182 +7339,182 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="E48" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="F48" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>424</v>
-      </c>
       <c r="I48" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J48" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="E49" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="F49" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>428</v>
-      </c>
       <c r="I49" s="21" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="E50" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="F50" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="F50" s="14" t="s">
-        <v>432</v>
-      </c>
       <c r="I50" s="28" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="J50" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="E51" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="F51" s="14" t="s">
         <v>435</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="E52" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="F52" s="14" t="s">
         <v>439</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="E53" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="F53" s="14" t="s">
         <v>443</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="E54" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="F54" s="14" t="s">
         <v>447</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C55" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="F55" s="14" t="s">
         <v>450</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="E56" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="F56" s="23" t="s">
         <v>454</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>457</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>460</v>
-      </c>
       <c r="E59" s="68" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F59" s="69"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>461</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>462</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>29</v>
@@ -7493,373 +7525,373 @@
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>464</v>
-      </c>
       <c r="E61" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F61" s="47" t="s">
         <v>231</v>
-      </c>
-      <c r="F61" s="47" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>466</v>
-      </c>
       <c r="E62" s="48" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="E64" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="E64" s="48" t="s">
-        <v>470</v>
-      </c>
       <c r="F64" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>471</v>
-      </c>
       <c r="E65" s="48" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>473</v>
-      </c>
       <c r="E66" s="48" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>475</v>
-      </c>
       <c r="E67" s="48" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F67" s="49" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>477</v>
-      </c>
       <c r="E68" s="48" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F68" s="49" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>408</v>
-      </c>
       <c r="E69" s="48" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F69" s="49" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>479</v>
-      </c>
       <c r="E70" s="48" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F70" s="49" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>481</v>
-      </c>
       <c r="E71" s="48" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>483</v>
-      </c>
       <c r="E72" s="48" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F72" s="49" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="C73" s="14" t="s">
-        <v>485</v>
-      </c>
       <c r="E73" s="48" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F73" s="49" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>487</v>
-      </c>
       <c r="E74" s="50" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F74" s="51" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="C75" s="14" t="s">
         <v>488</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>490</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>492</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>494</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>496</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>500</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>502</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>504</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="C85" s="14" t="s">
         <v>506</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="C87" s="14" t="s">
         <v>509</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>511</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>513</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C90" s="14" t="s">
         <v>515</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="C91" s="14" t="s">
         <v>517</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="C92" s="14" t="s">
         <v>519</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="C93" s="14" t="s">
         <v>521</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="C94" s="14" t="s">
         <v>523</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>525</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C99" s="25"/>
     </row>
@@ -7873,328 +7905,328 @@
     </row>
     <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>528</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C103" s="14" t="s">
         <v>530</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C104" s="14" t="s">
         <v>532</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C105" s="14" t="s">
         <v>534</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>536</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>538</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="C108" s="14" t="s">
         <v>540</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>542</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="C110" s="14" t="s">
         <v>544</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="C111" s="14" t="s">
         <v>546</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>548</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C113" s="14" t="s">
         <v>550</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="C114" s="14" t="s">
         <v>552</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>554</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="C116" s="14" t="s">
         <v>556</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="C117" s="14" t="s">
         <v>558</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="C118" s="14" t="s">
         <v>560</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>562</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="C120" s="14" t="s">
         <v>564</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>566</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="C122" s="14" t="s">
         <v>568</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="C123" s="14" t="s">
         <v>570</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="C124" s="14" t="s">
         <v>572</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="C125" s="14" t="s">
         <v>574</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="C126" s="14" t="s">
         <v>576</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="C127" s="14" t="s">
         <v>578</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="C128" s="14" t="s">
         <v>580</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="C129" s="14" t="s">
         <v>582</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="C130" s="14" t="s">
         <v>584</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="C131" s="14" t="s">
         <v>586</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="C132" s="14" t="s">
         <v>588</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="C133" s="14" t="s">
         <v>590</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="C134" s="14" t="s">
         <v>592</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="C135" s="14" t="s">
         <v>594</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="C136" s="14" t="s">
         <v>596</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="C137" s="14" t="s">
         <v>598</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="C138" s="14" t="s">
         <v>600</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="C139" s="14" t="s">
         <v>602</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="C140" s="23" t="s">
         <v>604</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="66" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C143" s="67"/>
     </row>
@@ -8208,570 +8240,570 @@
     </row>
     <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C145" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>607</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C147" s="11" t="s">
         <v>609</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>611</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C149" s="11" t="s">
         <v>613</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C150" s="11" t="s">
         <v>615</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>617</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>619</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>621</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>623</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="C155" s="11" t="s">
         <v>625</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="C156" s="11" t="s">
         <v>627</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="C157" s="11" t="s">
         <v>629</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C158" s="11" t="s">
         <v>631</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C159" s="11" t="s">
         <v>633</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C160" s="11" t="s">
         <v>635</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C161" s="11" t="s">
         <v>637</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C162" s="11" t="s">
         <v>639</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C163" s="11" t="s">
         <v>641</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C164" s="11" t="s">
         <v>643</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C165" s="11" t="s">
         <v>645</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C166" s="11" t="s">
         <v>647</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C167" s="11" t="s">
         <v>649</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C168" s="11" t="s">
         <v>651</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>653</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C170" s="11" t="s">
         <v>655</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C171" s="11" t="s">
         <v>657</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="C172" s="11" t="s">
         <v>659</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>661</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="C174" s="11" t="s">
         <v>663</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C175" s="11" t="s">
         <v>665</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="C176" s="11" t="s">
         <v>667</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C177" s="11" t="s">
         <v>669</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C178" s="11" t="s">
         <v>671</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C179" s="11" t="s">
         <v>673</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C180" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C181" s="11" t="s">
         <v>677</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C182" s="11" t="s">
         <v>679</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C183" s="11" t="s">
         <v>681</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="C184" s="11" t="s">
         <v>683</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C185" s="11" t="s">
         <v>685</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="C186" s="11" t="s">
         <v>687</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C187" s="11" t="s">
         <v>689</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C188" s="11" t="s">
         <v>691</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C189" s="11" t="s">
         <v>693</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C190" s="11" t="s">
         <v>695</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="C191" s="11" t="s">
         <v>697</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C192" s="11" t="s">
         <v>699</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="C193" s="11" t="s">
         <v>701</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="C194" s="11" t="s">
         <v>703</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C195" s="11" t="s">
         <v>705</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C196" s="11" t="s">
         <v>707</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="C197" s="11" t="s">
         <v>709</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="C198" s="11" t="s">
         <v>711</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="C199" s="11" t="s">
         <v>713</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C200" s="11" t="s">
         <v>715</v>
-      </c>
-      <c r="C200" s="11" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C201" s="11" t="s">
         <v>717</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="C202" s="11" t="s">
         <v>719</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C203" s="11" t="s">
         <v>721</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C204" s="11" t="s">
         <v>723</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="C205" s="11" t="s">
         <v>725</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C206" s="11" t="s">
         <v>727</v>
-      </c>
-      <c r="C206" s="11" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="C207" s="11" t="s">
         <v>729</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="C208" s="11" t="s">
         <v>731</v>
-      </c>
-      <c r="C208" s="11" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="C209" s="11" t="s">
         <v>733</v>
-      </c>
-      <c r="C209" s="11" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="C210" s="11" t="s">
         <v>735</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="C211" s="11" t="s">
         <v>737</v>
-      </c>
-      <c r="C211" s="11" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="C212" s="11" t="s">
         <v>739</v>
-      </c>
-      <c r="C212" s="11" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="C213" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="C214" s="11" t="s">
         <v>743</v>
-      </c>
-      <c r="C214" s="11" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="C215" s="11" t="s">
         <v>745</v>
-      </c>
-      <c r="C215" s="11" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{637E33FB-A78B-4D78-920F-4228202C56FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="819">
   <si>
     <t>Display Name</t>
   </si>
@@ -2511,14 +2512,11 @@
   <si>
     <t>XLS_SPREADSHEET, XLS_PROPERTIES</t>
   </si>
-  <si>
-    <t>MODULE, CATEGORY</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3260,14 +3258,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3748,7 +3746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
@@ -3791,16 +3789,16 @@
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -3836,31 +3834,31 @@
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
@@ -3914,13 +3912,13 @@
       <c r="C12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3929,13 +3927,13 @@
       <c r="C13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -3944,29 +3942,34 @@
       <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3976,11 +3979,6 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3993,10 +3991,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -4063,18 +4061,18 @@
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -4114,35 +4112,35 @@
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -5074,7 +5072,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5" t="s">
-        <v>819</v>
+        <v>84</v>
       </c>
       <c r="T29" s="5" t="s">
         <v>166</v>
@@ -6186,7 +6184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B5:F10"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
@@ -6268,7 +6266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
@@ -6494,7 +6492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J216"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{637E33FB-A78B-4D78-920F-4228202C56FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{887246B2-2290-4C23-B069-2F1FE049C957}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3258,14 +3258,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3789,16 +3789,16 @@
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -3834,31 +3834,31 @@
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
@@ -3912,13 +3912,13 @@
       <c r="C12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3927,13 +3927,13 @@
       <c r="C13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -3942,34 +3942,29 @@
       <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3979,6 +3974,11 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3995,7 +3995,7 @@
   <dimension ref="A1:AMK65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="M14" sqref="M14:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,18 +4061,18 @@
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -4112,35 +4112,35 @@
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -6063,7 +6063,7 @@
         <v>68</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>120</v>
+        <v>756</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5" t="s">
@@ -6270,7 +6270,7 @@
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B2" sqref="B2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6495,7 +6495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J216"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
       <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{887246B2-2290-4C23-B069-2F1FE049C957}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EE982BF2-93E2-4BFB-910D-10F0E77145EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="813">
   <si>
     <t>Display Name</t>
   </si>
@@ -630,24 +630,6 @@
   </si>
   <si>
     <t>The name of the package for datatype generation</t>
-  </si>
-  <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
-    <t>transaction</t>
-  </si>
-  <si>
-    <t>Custom1</t>
-  </si>
-  <si>
-    <t>custom1</t>
-  </si>
-  <si>
-    <t>Custom2</t>
-  </si>
-  <si>
-    <t>custom2</t>
   </si>
   <si>
     <t>Cacheable</t>
@@ -3258,14 +3240,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3789,16 +3771,16 @@
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -3834,31 +3816,31 @@
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
@@ -3912,13 +3894,13 @@
       <c r="C12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3927,13 +3909,13 @@
       <c r="C13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -3942,29 +3924,34 @@
       <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3974,11 +3961,6 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3992,10 +3974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK65"/>
+  <dimension ref="A1:AMK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,18 +4043,18 @@
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -4112,35 +4094,35 @@
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -4725,7 +4707,7 @@
         <v>58</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
@@ -4774,7 +4756,7 @@
         <v>58</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
@@ -4823,7 +4805,7 @@
         <v>58</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
@@ -4872,7 +4854,7 @@
         <v>58</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
@@ -4892,10 +4874,10 @@
     </row>
     <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>58</v>
@@ -4904,7 +4886,7 @@
         <v>138</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>78</v>
@@ -4921,11 +4903,11 @@
         <v>58</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -4934,15 +4916,15 @@
         <v>84</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>58</v>
@@ -4951,7 +4933,7 @@
         <v>138</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>78</v>
@@ -4968,11 +4950,11 @@
         <v>58</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -4981,7 +4963,7 @@
         <v>84</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5015,7 +4997,7 @@
         <v>68</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
@@ -5062,7 +5044,7 @@
         <v>68</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
@@ -5109,7 +5091,7 @@
         <v>68</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
@@ -5156,7 +5138,7 @@
         <v>68</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
@@ -5203,7 +5185,7 @@
         <v>68</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5" t="s">
@@ -5221,16 +5203,16 @@
     </row>
     <row r="33" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
@@ -5248,11 +5230,11 @@
         <v>58</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -5261,7 +5243,7 @@
         <v>84</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5295,7 +5277,7 @@
         <v>68</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
@@ -5342,7 +5324,7 @@
         <v>68</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
@@ -5544,7 +5526,7 @@
         <v>58</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
@@ -5566,7 +5548,7 @@
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
@@ -5575,7 +5557,7 @@
         <v>84</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5704,16 +5686,18 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E44" s="5" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
@@ -5728,18 +5712,20 @@
         <v>58</v>
       </c>
       <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="M44" s="5" t="s">
+        <v>750</v>
+      </c>
       <c r="N44" s="5"/>
-      <c r="O44" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T44" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="45" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
@@ -5748,9 +5734,11 @@
       <c r="C45" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E45" s="5" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
@@ -5765,29 +5753,33 @@
         <v>58</v>
       </c>
       <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="M45" s="5" t="s">
+        <v>750</v>
+      </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T45" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="46" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>196</v>
+        <v>742</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>197</v>
+        <v>741</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
@@ -5802,25 +5794,29 @@
         <v>58</v>
       </c>
       <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="M46" s="5" t="s">
+        <v>745</v>
+      </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5" t="s">
-        <v>58</v>
+        <v>744</v>
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T46" s="5"/>
-    </row>
-    <row r="47" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>198</v>
+        <v>746</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>199</v>
+        <v>747</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>58</v>
@@ -5840,11 +5836,16 @@
       <c r="K47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="M47" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="N47" s="5"/>
+        <v>812</v>
+      </c>
+      <c r="N47" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
@@ -5853,21 +5854,21 @@
         <v>84</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>746</v>
+        <v>804</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>200</v>
+        <v>806</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>201</v>
+        <v>803</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
@@ -5881,14 +5882,17 @@
       <c r="K48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="5"/>
+      <c r="L48" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="M48" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5" t="s">
-        <v>203</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="N48" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
@@ -5896,39 +5900,45 @@
         <v>84</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>748</v>
+        <v>807</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="D49" s="5"/>
+        <v>808</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>809</v>
+      </c>
       <c r="G49" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L49" s="5"/>
+      <c r="L49" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="M49" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5" t="s">
-        <v>750</v>
+        <v>810</v>
       </c>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
@@ -5937,226 +5947,87 @@
         <v>84</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="C50" s="5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="57"/>
+    </row>
+    <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="58"/>
+    </row>
+    <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" s="58"/>
+    </row>
+    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="59"/>
+    </row>
+    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="59"/>
+    </row>
+    <row r="62" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="56" t="s">
         <v>753</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="N50" s="7" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T50" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="N51" s="7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T51" s="5" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="52" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T52" s="5" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T56" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="57"/>
-    </row>
-    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="58"/>
-    </row>
-    <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="C62" s="58"/>
-    </row>
-    <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="59"/>
-    </row>
-    <row r="64" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="C64" s="59"/>
-    </row>
-    <row r="65" spans="2:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="56" t="s">
-        <v>759</v>
-      </c>
-      <c r="C65" s="56"/>
+      <c r="C62" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C3:L3"/>
@@ -6167,11 +6038,11 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="B11:T11"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -6195,7 +6066,7 @@
   <sheetData>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="60" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
@@ -6204,10 +6075,10 @@
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -6216,7 +6087,7 @@
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
       <c r="C7" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -6225,7 +6096,7 @@
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="61"/>
       <c r="C8" s="17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -6234,7 +6105,7 @@
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
       <c r="C9" s="17" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -6243,7 +6114,7 @@
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
       <c r="C10" s="62" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -6283,7 +6154,7 @@
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -6331,7 +6202,7 @@
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>79</v>
@@ -6355,28 +6226,28 @@
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="40" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6384,21 +6255,21 @@
         <v>143</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>140</v>
@@ -6412,7 +6283,7 @@
         <v>148</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>150</v>
@@ -6426,7 +6297,7 @@
         <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>155</v>
@@ -6440,7 +6311,7 @@
         <v>163</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>165</v>
@@ -6451,30 +6322,30 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="43" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -6511,15 +6382,15 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C2" s="69"/>
       <c r="E2" s="24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F2" s="25"/>
       <c r="I2" s="68" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J2" s="69"/>
     </row>
@@ -6545,190 +6416,190 @@
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="I13" s="68" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J13" s="69"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>29</v>
@@ -6739,182 +6610,182 @@
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>117</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I23" s="68" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J23" s="69"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>29</v>
@@ -6925,156 +6796,156 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="I32" s="68" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="J32" s="69"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>29</v>
@@ -7085,122 +6956,122 @@
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="21" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="21" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I39" s="68" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="J39" s="69"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I40" s="46" t="s">
         <v>29</v>
@@ -7214,119 +7085,119 @@
         <v>117</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="I41" s="46" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J41" s="47" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="I42" s="48" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="J42" s="49" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="21" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="I43" s="50" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="J43" s="51" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="21" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="21" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="I46" s="68" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="J46" s="69"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>29</v>
@@ -7337,182 +7208,182 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="21" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="21" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J50" s="29" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="21" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="21" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="21" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="21" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="21" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="21" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E59" s="68" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F59" s="69"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="21" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>29</v>
@@ -7523,373 +7394,373 @@
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="21" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E61" s="46" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="21" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="21" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="21" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F67" s="49" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F68" s="49" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F69" s="49" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F70" s="49" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F72" s="49" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E73" s="48" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F73" s="49" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="21" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F74" s="51" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="21" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="21" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="21" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="21" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="21" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="21" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="21" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="21" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="21" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="21" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="21" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="22" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="24" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C99" s="25"/>
     </row>
@@ -7903,328 +7774,328 @@
     </row>
     <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="21" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="21" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="21" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="21" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="21" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="21" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="21" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="21" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="21" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="21" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="21" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="21" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="21" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="21" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="21" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="21" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="21" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="21" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="21" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="21" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="21" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="21" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="21" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="21" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="21" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="21" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="21" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="21" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="21" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="21" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="21" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="21" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="21" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="22" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="66" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C143" s="67"/>
     </row>
@@ -8238,570 +8109,570 @@
     </row>
     <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="10" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="10" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="10" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="10" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="10" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="10" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="10" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="10" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="10" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="10" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EE982BF2-93E2-4BFB-910D-10F0E77145EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DEB15F23-1281-4A96-90EE-EB3A34AB52DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2471,12 +2471,6 @@
     <t xml:space="preserve">Controls new Spreadsheet Auto Type Discovery feature. </t>
   </si>
   <si>
-    <t>Controls Parallel execution feature. By default = false.</t>
-  </si>
-  <si>
-    <t>Cuncurrent Execution</t>
-  </si>
-  <si>
     <t>Nature</t>
   </si>
   <si>
@@ -2493,6 +2487,12 @@
   </si>
   <si>
     <t>XLS_SPREADSHEET, XLS_PROPERTIES</t>
+  </si>
+  <si>
+    <t>Controls parallel execution feature. By default = false.</t>
+  </si>
+  <si>
+    <t>Concurrent Execution</t>
   </si>
 </sst>
 </file>
@@ -3240,14 +3240,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3771,16 +3771,16 @@
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -3816,31 +3816,31 @@
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
@@ -3894,13 +3894,13 @@
       <c r="C12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3909,13 +3909,13 @@
       <c r="C13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -3924,34 +3924,29 @@
       <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3961,6 +3956,11 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3977,7 +3977,7 @@
   <dimension ref="A1:AMK62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4043,18 +4043,18 @@
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -4094,35 +4094,35 @@
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -5840,7 +5840,7 @@
         <v>58</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="N47" s="7" t="b">
         <f>TRUE()</f>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="48" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>803</v>
@@ -5900,15 +5900,15 @@
         <v>84</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>58</v>
@@ -5917,7 +5917,7 @@
         <v>59</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>78</v>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
@@ -5947,7 +5947,7 @@
         <v>84</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6226,14 +6226,14 @@
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="40" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openl-pub\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DEB15F23-1281-4A96-90EE-EB3A34AB52DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -455,9 +454,6 @@
     <t>lob</t>
   </si>
   <si>
-    <t>eq(lob)</t>
-  </si>
-  <si>
     <t>list: Defined by method getLob()</t>
   </si>
   <si>
@@ -2493,12 +2489,15 @@
   </si>
   <si>
     <t>Concurrent Execution</t>
+  </si>
+  <si>
+    <t>contains(lob)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3240,14 +3239,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3484,23 +3483,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3536,23 +3518,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3728,7 +3693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
@@ -3771,16 +3736,16 @@
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -3816,31 +3781,31 @@
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
@@ -3894,13 +3859,13 @@
       <c r="C12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3909,13 +3874,13 @@
       <c r="C13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -3924,29 +3889,34 @@
       <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3956,11 +3926,6 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3973,11 +3938,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4043,18 +4008,18 @@
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -4094,35 +4059,35 @@
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -4707,7 +4672,7 @@
         <v>58</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
@@ -4756,7 +4721,7 @@
         <v>58</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
@@ -4805,7 +4770,7 @@
         <v>58</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
@@ -4854,7 +4819,7 @@
         <v>58</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
@@ -4874,19 +4839,19 @@
     </row>
     <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>790</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>791</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>78</v>
@@ -4903,11 +4868,11 @@
         <v>58</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -4916,24 +4881,24 @@
         <v>84</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>793</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>78</v>
@@ -4950,11 +4915,11 @@
         <v>58</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -4963,24 +4928,24 @@
         <v>84</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>78</v>
@@ -4997,11 +4962,11 @@
         <v>68</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -5010,24 +4975,24 @@
         <v>84</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>78</v>
@@ -5044,11 +5009,11 @@
         <v>68</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
@@ -5057,24 +5022,24 @@
         <v>84</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>78</v>
@@ -5091,11 +5056,11 @@
         <v>68</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
@@ -5104,24 +5069,24 @@
         <v>84</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>78</v>
@@ -5138,11 +5103,11 @@
         <v>68</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -5151,7 +5116,7 @@
         <v>84</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5165,10 +5130,10 @@
         <v>58</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>133</v>
+        <v>812</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>78</v>
@@ -5185,11 +5150,11 @@
         <v>68</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
@@ -5198,21 +5163,21 @@
         <v>84</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>749</v>
-      </c>
       <c r="D33" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
@@ -5230,11 +5195,11 @@
         <v>58</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -5243,24 +5208,24 @@
         <v>84</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>78</v>
@@ -5277,11 +5242,11 @@
         <v>68</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -5290,24 +5255,24 @@
         <v>84</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>78</v>
@@ -5324,11 +5289,11 @@
         <v>68</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -5337,15 +5302,15 @@
         <v>84</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
@@ -5356,7 +5321,7 @@
         <v>58</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5369,7 +5334,7 @@
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -5378,26 +5343,26 @@
         <v>64</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5413,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -5422,7 +5387,7 @@
         <v>64</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5526,7 +5491,7 @@
         <v>58</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
@@ -5548,7 +5513,7 @@
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
@@ -5557,19 +5522,19 @@
         <v>84</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
@@ -5599,15 +5564,15 @@
         <v>84</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
@@ -5627,28 +5592,28 @@
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="T42" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
@@ -5668,36 +5633,36 @@
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="N43" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="O43" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="T43" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="D44" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
@@ -5713,7 +5678,7 @@
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -5724,21 +5689,21 @@
         <v>84</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
@@ -5754,11 +5719,11 @@
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -5767,15 +5732,15 @@
         <v>84</v>
       </c>
       <c r="T45" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
@@ -5795,11 +5760,11 @@
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
@@ -5808,21 +5773,21 @@
         <v>84</v>
       </c>
       <c r="T46" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>747</v>
-      </c>
       <c r="D47" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
@@ -5840,7 +5805,7 @@
         <v>58</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N47" s="7" t="b">
         <f>TRUE()</f>
@@ -5854,21 +5819,21 @@
         <v>84</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
@@ -5886,7 +5851,7 @@
         <v>58</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N48" s="7" t="b">
         <f>FALSE()</f>
@@ -5900,15 +5865,15 @@
         <v>84</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>805</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>806</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>58</v>
@@ -5917,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>78</v>
@@ -5934,11 +5899,11 @@
         <v>68</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
@@ -5947,19 +5912,19 @@
         <v>84</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
@@ -5975,7 +5940,7 @@
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -5986,42 +5951,42 @@
         <v>64</v>
       </c>
       <c r="T53" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C57" s="57"/>
     </row>
     <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C58" s="58"/>
     </row>
     <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C59" s="58"/>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C60" s="59"/>
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C61" s="59"/>
     </row>
     <row r="62" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="56" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C62" s="56"/>
     </row>
@@ -6055,7 +6020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:F10"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
@@ -6066,7 +6031,7 @@
   <sheetData>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
@@ -6075,10 +6040,10 @@
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>210</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -6087,7 +6052,7 @@
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
       <c r="C7" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -6096,7 +6061,7 @@
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="61"/>
       <c r="C8" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -6105,7 +6070,7 @@
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
       <c r="C9" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -6114,7 +6079,7 @@
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
       <c r="C10" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -6137,11 +6102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6154,7 +6119,7 @@
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -6202,7 +6167,7 @@
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>79</v>
@@ -6226,126 +6191,126 @@
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="40" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>217</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="40" t="s">
         <v>758</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="43" t="s">
+        <v>759</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="44" t="s">
         <v>760</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="44" t="s">
+      <c r="E16" s="45" t="s">
         <v>761</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -6363,11 +6328,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J216"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView topLeftCell="A55" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6382,15 +6347,15 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="69"/>
       <c r="E2" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2" s="25"/>
       <c r="I2" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J2" s="69"/>
     </row>
@@ -6416,190 +6381,190 @@
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>225</v>
-      </c>
       <c r="E4" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>225</v>
-      </c>
       <c r="I4" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="E5" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="I5" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="I6" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="J6" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="E7" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="I7" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="J7" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="E8" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="I8" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="J8" s="23" t="s">
         <v>246</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="E9" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="E10" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="14" t="s">
         <v>254</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="E11" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="E12" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="F12" s="14" t="s">
         <v>262</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="E13" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="F13" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="I13" s="68" t="s">
         <v>267</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>268</v>
       </c>
       <c r="J13" s="69"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="14" t="s">
         <v>271</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>272</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>29</v>
@@ -6610,182 +6575,182 @@
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="E15" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>276</v>
-      </c>
       <c r="I15" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="E16" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="F16" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="I16" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="J16" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>117</v>
       </c>
       <c r="F17" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="J17" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="E18" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="F18" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="I18" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="J18" s="14" t="s">
         <v>291</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="E19" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="I19" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="J19" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="I20" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="J20" s="23" t="s">
         <v>302</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="E21" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="14" t="s">
         <v>306</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="E22" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="F22" s="14" t="s">
         <v>310</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="E23" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="F23" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="I23" s="68" t="s">
         <v>315</v>
-      </c>
-      <c r="I23" s="68" t="s">
-        <v>316</v>
       </c>
       <c r="J23" s="69"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="E24" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="F24" s="14" t="s">
         <v>319</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>320</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>29</v>
@@ -6796,156 +6761,156 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="E25" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="F25" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>324</v>
-      </c>
       <c r="I25" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="E26" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="F26" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="I26" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="J26" s="14" t="s">
         <v>329</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="E27" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="F27" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="I27" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="J27" s="15" t="s">
         <v>335</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="E28" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="F28" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="I28" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="J28" s="29" t="s">
         <v>341</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="E29" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="F29" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="E30" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="F30" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="E31" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="F31" s="14" t="s">
         <v>353</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="E32" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>357</v>
-      </c>
       <c r="I32" s="68" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J32" s="69"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="F33" s="14" t="s">
         <v>359</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>360</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>29</v>
@@ -6956,122 +6921,122 @@
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="E34" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="F34" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>364</v>
-      </c>
       <c r="I34" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J34" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="E35" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="F35" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>368</v>
-      </c>
       <c r="I35" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="E36" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="F36" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>372</v>
-      </c>
       <c r="I36" s="22" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="E37" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="F37" s="14" t="s">
         <v>375</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="E38" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="F38" s="14" t="s">
         <v>379</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="E39" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="F39" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>384</v>
-      </c>
       <c r="I39" s="68" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J39" s="69"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="F40" s="14" t="s">
         <v>386</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>387</v>
       </c>
       <c r="I40" s="46" t="s">
         <v>29</v>
@@ -7085,119 +7050,119 @@
         <v>117</v>
       </c>
       <c r="C41" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="F41" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>390</v>
-      </c>
       <c r="I41" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J41" s="47" t="s">
         <v>224</v>
-      </c>
-      <c r="J41" s="47" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="E42" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="F42" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>394</v>
-      </c>
       <c r="I42" s="48" t="s">
+        <v>778</v>
+      </c>
+      <c r="J42" s="49" t="s">
         <v>779</v>
-      </c>
-      <c r="J42" s="49" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="E43" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="F43" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>398</v>
-      </c>
       <c r="I43" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="J43" s="51" t="s">
         <v>788</v>
-      </c>
-      <c r="J43" s="51" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C44" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="F44" s="14" t="s">
         <v>400</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="E45" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="F45" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="E46" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="F46" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>409</v>
-      </c>
       <c r="I46" s="68" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J46" s="69"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="E47" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="F47" s="14" t="s">
         <v>412</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>413</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>29</v>
@@ -7208,182 +7173,182 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="E48" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="F48" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>417</v>
-      </c>
       <c r="I48" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J48" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="E49" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="F49" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>421</v>
-      </c>
       <c r="I49" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="E50" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="F50" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="F50" s="14" t="s">
-        <v>425</v>
-      </c>
       <c r="I50" s="28" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J50" s="29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="E51" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="F51" s="14" t="s">
         <v>428</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="E52" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="F52" s="14" t="s">
         <v>432</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="E53" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="F53" s="14" t="s">
         <v>436</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="E54" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="F54" s="14" t="s">
         <v>440</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C55" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="F55" s="14" t="s">
         <v>443</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="E56" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="F56" s="23" t="s">
         <v>447</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>450</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>453</v>
-      </c>
       <c r="E59" s="68" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F59" s="69"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>454</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>455</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>29</v>
@@ -7394,373 +7359,373 @@
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>457</v>
-      </c>
       <c r="E61" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="F61" s="47" t="s">
         <v>224</v>
-      </c>
-      <c r="F61" s="47" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>459</v>
-      </c>
       <c r="E62" s="48" t="s">
+        <v>763</v>
+      </c>
+      <c r="F62" s="49" t="s">
         <v>764</v>
-      </c>
-      <c r="F62" s="49" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E63" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="F63" s="49" t="s">
         <v>766</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="E64" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="E64" s="48" t="s">
-        <v>463</v>
-      </c>
       <c r="F64" s="49" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>464</v>
-      </c>
       <c r="E65" s="48" t="s">
+        <v>768</v>
+      </c>
+      <c r="F65" s="49" t="s">
         <v>769</v>
-      </c>
-      <c r="F65" s="49" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>466</v>
-      </c>
       <c r="E66" s="48" t="s">
+        <v>770</v>
+      </c>
+      <c r="F66" s="49" t="s">
         <v>771</v>
-      </c>
-      <c r="F66" s="49" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>468</v>
-      </c>
       <c r="E67" s="48" t="s">
+        <v>772</v>
+      </c>
+      <c r="F67" s="49" t="s">
         <v>773</v>
-      </c>
-      <c r="F67" s="49" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>470</v>
-      </c>
       <c r="E68" s="48" t="s">
+        <v>774</v>
+      </c>
+      <c r="F68" s="49" t="s">
         <v>775</v>
-      </c>
-      <c r="F68" s="49" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>401</v>
-      </c>
       <c r="E69" s="48" t="s">
+        <v>776</v>
+      </c>
+      <c r="F69" s="49" t="s">
         <v>777</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>472</v>
-      </c>
       <c r="E70" s="48" t="s">
+        <v>778</v>
+      </c>
+      <c r="F70" s="49" t="s">
         <v>779</v>
-      </c>
-      <c r="F70" s="49" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>474</v>
-      </c>
       <c r="E71" s="48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>476</v>
-      </c>
       <c r="E72" s="48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F72" s="49" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="C73" s="14" t="s">
-        <v>478</v>
-      </c>
       <c r="E73" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="F73" s="49" t="s">
         <v>783</v>
-      </c>
-      <c r="F73" s="49" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="E74" s="50" t="s">
+        <v>784</v>
+      </c>
+      <c r="F74" s="51" t="s">
         <v>785</v>
-      </c>
-      <c r="F74" s="51" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C75" s="14" t="s">
         <v>481</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>483</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>485</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>487</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>489</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>493</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>495</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>497</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="C85" s="14" t="s">
         <v>499</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C87" s="14" t="s">
         <v>502</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>504</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>506</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="C90" s="14" t="s">
         <v>508</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="C91" s="14" t="s">
         <v>510</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="C92" s="14" t="s">
         <v>512</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="C93" s="14" t="s">
         <v>514</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="C94" s="14" t="s">
         <v>516</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>518</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C99" s="25"/>
     </row>
@@ -7774,328 +7739,328 @@
     </row>
     <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>521</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="C103" s="14" t="s">
         <v>523</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="C104" s="14" t="s">
         <v>525</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="C105" s="14" t="s">
         <v>527</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>529</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>531</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C108" s="14" t="s">
         <v>533</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>535</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="C110" s="14" t="s">
         <v>537</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="C111" s="14" t="s">
         <v>539</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>541</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="C113" s="14" t="s">
         <v>543</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="C114" s="14" t="s">
         <v>545</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>547</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="C116" s="14" t="s">
         <v>549</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="C117" s="14" t="s">
         <v>551</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="C118" s="14" t="s">
         <v>553</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>555</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C120" s="14" t="s">
         <v>557</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>559</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="C122" s="14" t="s">
         <v>561</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="C123" s="14" t="s">
         <v>563</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C124" s="14" t="s">
         <v>565</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="C125" s="14" t="s">
         <v>567</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="C126" s="14" t="s">
         <v>569</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="C127" s="14" t="s">
         <v>571</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="C128" s="14" t="s">
         <v>573</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="C129" s="14" t="s">
         <v>575</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="C130" s="14" t="s">
         <v>577</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="C131" s="14" t="s">
         <v>579</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="C132" s="14" t="s">
         <v>581</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="C133" s="14" t="s">
         <v>583</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="C134" s="14" t="s">
         <v>585</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="C135" s="14" t="s">
         <v>587</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="C136" s="14" t="s">
         <v>589</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="C137" s="14" t="s">
         <v>591</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="C138" s="14" t="s">
         <v>593</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="C139" s="14" t="s">
         <v>595</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="C140" s="23" t="s">
         <v>597</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="66" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C143" s="67"/>
     </row>
@@ -8109,570 +8074,570 @@
     </row>
     <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C145" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C147" s="11" t="s">
         <v>602</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>604</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C149" s="11" t="s">
         <v>606</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C150" s="11" t="s">
         <v>608</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>610</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>612</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>614</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>616</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="C155" s="11" t="s">
         <v>618</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C156" s="11" t="s">
         <v>620</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="C157" s="11" t="s">
         <v>622</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C158" s="11" t="s">
         <v>624</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C159" s="11" t="s">
         <v>626</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C160" s="11" t="s">
         <v>628</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="C161" s="11" t="s">
         <v>630</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="C162" s="11" t="s">
         <v>632</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C163" s="11" t="s">
         <v>634</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="C164" s="11" t="s">
         <v>636</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="C165" s="11" t="s">
         <v>638</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="C166" s="11" t="s">
         <v>640</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C167" s="11" t="s">
         <v>642</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="C168" s="11" t="s">
         <v>644</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>646</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="C170" s="11" t="s">
         <v>648</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C171" s="11" t="s">
         <v>650</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C172" s="11" t="s">
         <v>652</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>654</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C174" s="11" t="s">
         <v>656</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C175" s="11" t="s">
         <v>658</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="C176" s="11" t="s">
         <v>660</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="C177" s="11" t="s">
         <v>662</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="C178" s="11" t="s">
         <v>664</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="C179" s="11" t="s">
         <v>666</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C180" s="11" t="s">
         <v>668</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="C181" s="11" t="s">
         <v>670</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C182" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C183" s="11" t="s">
         <v>674</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="C184" s="11" t="s">
         <v>676</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="C185" s="11" t="s">
         <v>678</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="C186" s="11" t="s">
         <v>680</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C187" s="11" t="s">
         <v>682</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C188" s="11" t="s">
         <v>684</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="C189" s="11" t="s">
         <v>686</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="C190" s="11" t="s">
         <v>688</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C191" s="11" t="s">
         <v>690</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="C192" s="11" t="s">
         <v>692</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="C193" s="11" t="s">
         <v>694</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C194" s="11" t="s">
         <v>696</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="C195" s="11" t="s">
         <v>698</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C196" s="11" t="s">
         <v>700</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C197" s="11" t="s">
         <v>702</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C198" s="11" t="s">
         <v>704</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C199" s="11" t="s">
         <v>706</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="C200" s="11" t="s">
         <v>708</v>
-      </c>
-      <c r="C200" s="11" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C201" s="11" t="s">
         <v>710</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C202" s="11" t="s">
         <v>712</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C203" s="11" t="s">
         <v>714</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="C204" s="11" t="s">
         <v>716</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="C205" s="11" t="s">
         <v>718</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="C206" s="11" t="s">
         <v>720</v>
-      </c>
-      <c r="C206" s="11" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="C207" s="11" t="s">
         <v>722</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C208" s="11" t="s">
         <v>724</v>
-      </c>
-      <c r="C208" s="11" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C209" s="11" t="s">
         <v>726</v>
-      </c>
-      <c r="C209" s="11" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C210" s="11" t="s">
         <v>728</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="C211" s="11" t="s">
         <v>730</v>
-      </c>
-      <c r="C211" s="11" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C212" s="11" t="s">
         <v>732</v>
-      </c>
-      <c r="C212" s="11" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="C213" s="11" t="s">
         <v>734</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C214" s="11" t="s">
         <v>736</v>
-      </c>
-      <c r="C214" s="11" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="C215" s="11" t="s">
         <v>738</v>
-      </c>
-      <c r="C215" s="11" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openl-pub\DEV\org.openl.rules\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC74937-A46D-4BA3-9128-B9CD08AC28F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Runtime Scope" sheetId="4" r:id="rId4"/>
     <sheet name="Data Enums" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="181029" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="817">
   <si>
     <t>Display Name</t>
   </si>
@@ -2493,11 +2494,23 @@
   <si>
     <t>contains(lob)</t>
   </si>
+  <si>
+    <t>XLS_SPREADSHEET</t>
+  </si>
+  <si>
+    <t>calculateAllCells</t>
+  </si>
+  <si>
+    <t>Calculate All Cells</t>
+  </si>
+  <si>
+    <t>If true calculates all cells in the Spreadsheet, otherwise calculates only cells these are requred for a result. By default = true.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3483,6 +3496,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3518,6 +3548,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3693,7 +3740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
@@ -3938,11 +3985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5824,10 +5871,10 @@
     </row>
     <row r="48" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>58</v>
@@ -5851,11 +5898,11 @@
         <v>58</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="N48" s="7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -5865,30 +5912,28 @@
         <v>84</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>806</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -5896,15 +5941,16 @@
         <v>58</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5" t="s">
-        <v>807</v>
-      </c>
+      <c r="N49" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
@@ -5912,87 +5958,134 @@
         <v>84</v>
       </c>
       <c r="T49" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T50" s="5" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
+    <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53" s="5" t="s">
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5" t="s">
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5" t="s">
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T53" s="5" t="s">
+      <c r="T54" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="57" t="s">
+    <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="C57" s="57"/>
-    </row>
-    <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" s="58"/>
+      <c r="C58" s="57"/>
     </row>
     <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="58"/>
+    </row>
+    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="C59" s="58"/>
-    </row>
-    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="C60" s="59"/>
+      <c r="C60" s="58"/>
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="59"/>
+    </row>
+    <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="C61" s="59"/>
-    </row>
-    <row r="62" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="56" t="s">
+      <c r="C62" s="59"/>
+    </row>
+    <row r="63" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="56" t="s">
         <v>752</v>
       </c>
-      <c r="C62" s="56"/>
+      <c r="C63" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C3:L3"/>
@@ -6003,11 +6096,11 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="B11:T11"/>
-    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -6020,7 +6113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B5:F10"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
@@ -6102,7 +6195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
@@ -6328,7 +6421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J216"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC74937-A46D-4BA3-9128-B9CD08AC28F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2BFD19-6912-4E51-8D73-50FA3D77E7E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="816">
   <si>
     <t>Display Name</t>
   </si>
@@ -2493,9 +2493,6 @@
   </si>
   <si>
     <t>contains(lob)</t>
-  </si>
-  <si>
-    <t>XLS_SPREADSHEET</t>
   </si>
   <si>
     <t>calculateAllCells</t>
@@ -3144,7 +3141,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3152,19 +3149,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3178,7 +3172,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3189,8 +3183,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3207,25 +3201,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3234,32 +3216,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3270,16 +3251,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3750,220 +3731,215 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3973,6 +3949,11 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3988,8 +3969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,157 +3999,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -4180,27 +4161,27 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
     </row>
     <row r="12" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -5420,7 +5401,7 @@
       <c r="M37" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="7" t="b">
+      <c r="N37" s="5" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -5599,7 +5580,7 @@
       <c r="M41" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="N41" s="7" t="b">
+      <c r="N41" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -5854,7 +5835,7 @@
       <c r="M47" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="N47" s="7" t="b">
+      <c r="N47" s="5" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -5871,10 +5852,10 @@
     </row>
     <row r="48" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>58</v>
@@ -5898,9 +5879,9 @@
         <v>58</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="N48" s="7" t="b">
+        <v>809</v>
+      </c>
+      <c r="N48" s="5" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -5912,7 +5893,7 @@
         <v>84</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5946,7 +5927,7 @@
       <c r="M49" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="N49" s="7" t="b">
+      <c r="N49" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -6048,40 +6029,40 @@
       </c>
     </row>
     <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="57"/>
+      <c r="C58" s="51"/>
     </row>
     <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="58"/>
+      <c r="C59" s="52"/>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="C60" s="58"/>
+      <c r="C60" s="52"/>
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="59"/>
+      <c r="C61" s="53"/>
     </row>
     <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="C62" s="59"/>
+      <c r="C62" s="53"/>
     </row>
     <row r="63" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="50" t="s">
         <v>752</v>
       </c>
-      <c r="C63" s="56"/>
+      <c r="C63" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6123,60 +6104,60 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="61"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="61"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="61"/>
-      <c r="C10" s="62" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6211,91 +6192,91 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="36" t="s">
         <v>215</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="37" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="36" t="s">
         <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="37" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>805</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="37" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="36" t="s">
         <v>216</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -6304,12 +6285,12 @@
       <c r="D9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="37" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="36" t="s">
         <v>142</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -6318,12 +6299,12 @@
       <c r="D10" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="37" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>219</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -6332,40 +6313,40 @@
       <c r="D11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="37" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="36" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="37" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>152</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="37" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -6374,12 +6355,12 @@
       <c r="D14" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="37" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="36" t="s">
         <v>756</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -6388,21 +6369,21 @@
       <c r="D15" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="37" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="38" t="s">
         <v>759</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="39" t="s">
         <v>760</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="40" t="s">
         <v>761</v>
       </c>
     </row>
@@ -6439,2297 +6420,2297 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="63"/>
+      <c r="E2" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="I2" s="68" t="s">
+      <c r="F2" s="24"/>
+      <c r="I2" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="J2" s="69"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="13" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="22" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="I23" s="68" t="s">
+      <c r="I23" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="J23" s="69"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="14" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="28" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="I32" s="68" t="s">
+      <c r="I32" s="62" t="s">
         <v>753</v>
       </c>
-      <c r="J32" s="69"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="20" t="s">
         <v>754</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="13" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="21" t="s">
         <v>755</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="22" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="13" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="I39" s="68" t="s">
+      <c r="I39" s="62" t="s">
         <v>786</v>
       </c>
-      <c r="J39" s="69"/>
+      <c r="J39" s="63"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="I40" s="46" t="s">
+      <c r="I40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="J40" s="47" t="s">
+      <c r="J40" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="I41" s="46" t="s">
+      <c r="I41" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="J41" s="47" t="s">
+      <c r="J41" s="42" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="I42" s="48" t="s">
+      <c r="I42" s="43" t="s">
         <v>778</v>
       </c>
-      <c r="J42" s="49" t="s">
+      <c r="J42" s="44" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="I43" s="50" t="s">
+      <c r="I43" s="27" t="s">
         <v>787</v>
       </c>
-      <c r="J43" s="51" t="s">
+      <c r="J43" s="45" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="I46" s="68" t="s">
+      <c r="I46" s="62" t="s">
         <v>796</v>
       </c>
-      <c r="J46" s="69"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="I48" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="20" t="s">
         <v>776</v>
       </c>
-      <c r="J49" s="14" t="s">
+      <c r="J49" s="13" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="I50" s="28" t="s">
+      <c r="I50" s="27" t="s">
         <v>799</v>
       </c>
-      <c r="J50" s="29" t="s">
+      <c r="J50" s="28" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="13" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="13" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="13" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="13" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="13" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="22" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="13" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="13" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="E59" s="68" t="s">
+      <c r="E59" s="62" t="s">
         <v>762</v>
       </c>
-      <c r="F59" s="69"/>
+      <c r="F59" s="63"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="E60" s="46" t="s">
+      <c r="E60" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="47" t="s">
+      <c r="F60" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="E61" s="46" t="s">
+      <c r="E61" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="F61" s="47" t="s">
+      <c r="F61" s="42" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="E62" s="48" t="s">
+      <c r="E62" s="43" t="s">
         <v>763</v>
       </c>
-      <c r="F62" s="49" t="s">
+      <c r="F62" s="44" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="E63" s="48" t="s">
+      <c r="E63" s="43" t="s">
         <v>765</v>
       </c>
-      <c r="F63" s="49" t="s">
+      <c r="F63" s="44" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="E64" s="48" t="s">
+      <c r="E64" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="F64" s="49" t="s">
+      <c r="F64" s="44" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="E65" s="48" t="s">
+      <c r="E65" s="43" t="s">
         <v>768</v>
       </c>
-      <c r="F65" s="49" t="s">
+      <c r="F65" s="44" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="43" t="s">
         <v>770</v>
       </c>
-      <c r="F66" s="49" t="s">
+      <c r="F66" s="44" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="43" t="s">
         <v>772</v>
       </c>
-      <c r="F67" s="49" t="s">
+      <c r="F67" s="44" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="43" t="s">
         <v>774</v>
       </c>
-      <c r="F68" s="49" t="s">
+      <c r="F68" s="44" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="43" t="s">
         <v>776</v>
       </c>
-      <c r="F69" s="49" t="s">
+      <c r="F69" s="44" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="43" t="s">
         <v>778</v>
       </c>
-      <c r="F70" s="49" t="s">
+      <c r="F70" s="44" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="E71" s="48" t="s">
+      <c r="E71" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="F71" s="49" t="s">
+      <c r="F71" s="44" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="E72" s="48" t="s">
+      <c r="E72" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="F72" s="49" t="s">
+      <c r="F72" s="44" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="43" t="s">
         <v>782</v>
       </c>
-      <c r="F73" s="49" t="s">
+      <c r="F73" s="44" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="E74" s="50" t="s">
+      <c r="E74" s="27" t="s">
         <v>784</v>
       </c>
-      <c r="F74" s="51" t="s">
+      <c r="F74" s="45" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="13" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="13" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="13" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="13" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="13" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="13" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="13" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="13" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="13" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="13" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="13" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="13" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="13" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="13" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="13" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="13" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="13" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="13" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="13" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="13" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C95" s="22" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="24" t="s">
+      <c r="B99" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="C99" s="25"/>
+      <c r="C99" s="24"/>
     </row>
     <row r="100" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="13" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="13" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="20" t="s">
         <v>524</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="13" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="13" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="13" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="21" t="s">
+      <c r="B107" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="13" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="13" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="13" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="13" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="13" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="13" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="21" t="s">
+      <c r="B113" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="13" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="13" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="21" t="s">
+      <c r="B115" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="13" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="13" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="21" t="s">
+      <c r="B117" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="13" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C118" s="13" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C119" s="13" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="20" t="s">
         <v>556</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" s="13" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="13" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="13" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="13" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" s="13" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="21" t="s">
+      <c r="B125" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="13" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="13" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="13" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="C128" s="13" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="13" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C130" s="13" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="21" t="s">
+      <c r="B131" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="13" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="13" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="13" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="21" t="s">
+      <c r="B135" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" s="13" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="C136" s="14" t="s">
+      <c r="C136" s="13" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="21" t="s">
+      <c r="B137" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="C137" s="13" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="21" t="s">
+      <c r="B138" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="C138" s="13" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="21" t="s">
+      <c r="B139" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="C139" s="13" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="22" t="s">
+      <c r="B140" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C140" s="22" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="66" t="s">
+      <c r="B143" s="60" t="s">
         <v>598</v>
       </c>
-      <c r="C143" s="67"/>
+      <c r="C143" s="61"/>
     </row>
     <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="10" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="10" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C148" s="10" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" s="10" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C150" s="10" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" s="10" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" s="10" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" s="10" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C154" s="10" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C155" s="10" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C156" s="10" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C157" s="10" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="10" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="10" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="10" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="10" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="10" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="10" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="10" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="10" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="10" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="10" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="10" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="10" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="10" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="10" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="10" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="10" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="10" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" s="10" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" s="10" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" s="10" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" s="10" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" s="10" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C180" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" s="10" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" s="10" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" s="10" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C184" s="10" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" s="10" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" s="10" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" s="10" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="10" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" s="10" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="10" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" s="10" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="10" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" s="10" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" s="10" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C195" s="10" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" s="10" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" s="10" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" s="10" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C199" s="10" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C200" s="10" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C201" s="10" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C202" s="10" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C203" s="10" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="C204" s="10" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="C205" s="11" t="s">
+      <c r="C205" s="10" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C206" s="10" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="C207" s="11" t="s">
+      <c r="C207" s="10" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="C208" s="10" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C209" s="10" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C210" s="10" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C211" s="10" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C212" s="10" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C213" s="10" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="C214" s="10" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="C215" s="11" t="s">
+      <c r="C215" s="10" t="s">
         <v>738</v>
       </c>
     </row>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2BFD19-6912-4E51-8D73-50FA3D77E7E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B992E2-2A25-44B7-A81A-300DACD4BC93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="450" windowWidth="28845" windowHeight="20115" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,13 @@
     <sheet name="Runtime Scope" sheetId="4" r:id="rId4"/>
     <sheet name="Data Enums" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="819">
   <si>
     <t>Display Name</t>
   </si>
@@ -2502,6 +2507,15 @@
   </si>
   <si>
     <t>If true calculates all cells in the Spreadsheet, otherwise calculates only cells these are requred for a result. By default = true.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controls generation additional fields in an output model for the Spreadsheet. </t>
+  </si>
+  <si>
+    <t>verboseOutputModel</t>
+  </si>
+  <si>
+    <t>Verbose Output Model</t>
   </si>
 </sst>
 </file>
@@ -3141,7 +3155,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3230,6 +3244,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3734,207 +3751,207 @@
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
@@ -3967,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK63"/>
+  <dimension ref="A1:AMK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4002,154 +4019,154 @@
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
     </row>
     <row r="6" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -4161,27 +4178,27 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
     </row>
     <row r="12" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -5194,7 +5211,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>747</v>
       </c>
@@ -5239,7 +5256,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="34" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>135</v>
       </c>
@@ -5286,7 +5303,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>156</v>
       </c>
@@ -5333,7 +5350,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>166</v>
       </c>
@@ -5374,7 +5391,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>170</v>
       </c>
@@ -5418,7 +5435,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>117</v>
       </c>
@@ -5465,7 +5482,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>124</v>
       </c>
@@ -5508,7 +5525,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>128</v>
       </c>
@@ -5553,7 +5570,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="41" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>175</v>
       </c>
@@ -5595,7 +5612,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>178</v>
       </c>
@@ -5636,7 +5653,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>184</v>
       </c>
@@ -5679,7 +5696,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>191</v>
       </c>
@@ -5720,7 +5737,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="45" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>193</v>
       </c>
@@ -5763,7 +5780,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>741</v>
       </c>
@@ -5804,12 +5821,13 @@
         <v>742</v>
       </c>
     </row>
-    <row r="47" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
       <c r="B47" s="5" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>746</v>
+        <v>817</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>58</v>
@@ -5836,8 +5854,8 @@
         <v>809</v>
       </c>
       <c r="N47" s="5" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -5847,15 +5865,1020 @@
         <v>84</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="46"/>
+      <c r="AA47" s="46"/>
+      <c r="AB47" s="46"/>
+      <c r="AC47" s="46"/>
+      <c r="AD47" s="46"/>
+      <c r="AE47" s="46"/>
+      <c r="AF47" s="46"/>
+      <c r="AG47" s="46"/>
+      <c r="AH47" s="46"/>
+      <c r="AI47" s="46"/>
+      <c r="AJ47" s="46"/>
+      <c r="AK47" s="46"/>
+      <c r="AL47" s="46"/>
+      <c r="AM47" s="46"/>
+      <c r="AN47" s="46"/>
+      <c r="AO47" s="46"/>
+      <c r="AP47" s="46"/>
+      <c r="AQ47" s="46"/>
+      <c r="AR47" s="46"/>
+      <c r="AS47" s="46"/>
+      <c r="AT47" s="46"/>
+      <c r="AU47" s="46"/>
+      <c r="AV47" s="46"/>
+      <c r="AW47" s="46"/>
+      <c r="AX47" s="46"/>
+      <c r="AY47" s="46"/>
+      <c r="AZ47" s="46"/>
+      <c r="BA47" s="46"/>
+      <c r="BB47" s="46"/>
+      <c r="BC47" s="46"/>
+      <c r="BD47" s="46"/>
+      <c r="BE47" s="46"/>
+      <c r="BF47" s="46"/>
+      <c r="BG47" s="46"/>
+      <c r="BH47" s="46"/>
+      <c r="BI47" s="46"/>
+      <c r="BJ47" s="46"/>
+      <c r="BK47" s="46"/>
+      <c r="BL47" s="46"/>
+      <c r="BM47" s="46"/>
+      <c r="BN47" s="46"/>
+      <c r="BO47" s="46"/>
+      <c r="BP47" s="46"/>
+      <c r="BQ47" s="46"/>
+      <c r="BR47" s="46"/>
+      <c r="BS47" s="46"/>
+      <c r="BT47" s="46"/>
+      <c r="BU47" s="46"/>
+      <c r="BV47" s="46"/>
+      <c r="BW47" s="46"/>
+      <c r="BX47" s="46"/>
+      <c r="BY47" s="46"/>
+      <c r="BZ47" s="46"/>
+      <c r="CA47" s="46"/>
+      <c r="CB47" s="46"/>
+      <c r="CC47" s="46"/>
+      <c r="CD47" s="46"/>
+      <c r="CE47" s="46"/>
+      <c r="CF47" s="46"/>
+      <c r="CG47" s="46"/>
+      <c r="CH47" s="46"/>
+      <c r="CI47" s="46"/>
+      <c r="CJ47" s="46"/>
+      <c r="CK47" s="46"/>
+      <c r="CL47" s="46"/>
+      <c r="CM47" s="46"/>
+      <c r="CN47" s="46"/>
+      <c r="CO47" s="46"/>
+      <c r="CP47" s="46"/>
+      <c r="CQ47" s="46"/>
+      <c r="CR47" s="46"/>
+      <c r="CS47" s="46"/>
+      <c r="CT47" s="46"/>
+      <c r="CU47" s="46"/>
+      <c r="CV47" s="46"/>
+      <c r="CW47" s="46"/>
+      <c r="CX47" s="46"/>
+      <c r="CY47" s="46"/>
+      <c r="CZ47" s="46"/>
+      <c r="DA47" s="46"/>
+      <c r="DB47" s="46"/>
+      <c r="DC47" s="46"/>
+      <c r="DD47" s="46"/>
+      <c r="DE47" s="46"/>
+      <c r="DF47" s="46"/>
+      <c r="DG47" s="46"/>
+      <c r="DH47" s="46"/>
+      <c r="DI47" s="46"/>
+      <c r="DJ47" s="46"/>
+      <c r="DK47" s="46"/>
+      <c r="DL47" s="46"/>
+      <c r="DM47" s="46"/>
+      <c r="DN47" s="46"/>
+      <c r="DO47" s="46"/>
+      <c r="DP47" s="46"/>
+      <c r="DQ47" s="46"/>
+      <c r="DR47" s="46"/>
+      <c r="DS47" s="46"/>
+      <c r="DT47" s="46"/>
+      <c r="DU47" s="46"/>
+      <c r="DV47" s="46"/>
+      <c r="DW47" s="46"/>
+      <c r="DX47" s="46"/>
+      <c r="DY47" s="46"/>
+      <c r="DZ47" s="46"/>
+      <c r="EA47" s="46"/>
+      <c r="EB47" s="46"/>
+      <c r="EC47" s="46"/>
+      <c r="ED47" s="46"/>
+      <c r="EE47" s="46"/>
+      <c r="EF47" s="46"/>
+      <c r="EG47" s="46"/>
+      <c r="EH47" s="46"/>
+      <c r="EI47" s="46"/>
+      <c r="EJ47" s="46"/>
+      <c r="EK47" s="46"/>
+      <c r="EL47" s="46"/>
+      <c r="EM47" s="46"/>
+      <c r="EN47" s="46"/>
+      <c r="EO47" s="46"/>
+      <c r="EP47" s="46"/>
+      <c r="EQ47" s="46"/>
+      <c r="ER47" s="46"/>
+      <c r="ES47" s="46"/>
+      <c r="ET47" s="46"/>
+      <c r="EU47" s="46"/>
+      <c r="EV47" s="46"/>
+      <c r="EW47" s="46"/>
+      <c r="EX47" s="46"/>
+      <c r="EY47" s="46"/>
+      <c r="EZ47" s="46"/>
+      <c r="FA47" s="46"/>
+      <c r="FB47" s="46"/>
+      <c r="FC47" s="46"/>
+      <c r="FD47" s="46"/>
+      <c r="FE47" s="46"/>
+      <c r="FF47" s="46"/>
+      <c r="FG47" s="46"/>
+      <c r="FH47" s="46"/>
+      <c r="FI47" s="46"/>
+      <c r="FJ47" s="46"/>
+      <c r="FK47" s="46"/>
+      <c r="FL47" s="46"/>
+      <c r="FM47" s="46"/>
+      <c r="FN47" s="46"/>
+      <c r="FO47" s="46"/>
+      <c r="FP47" s="46"/>
+      <c r="FQ47" s="46"/>
+      <c r="FR47" s="46"/>
+      <c r="FS47" s="46"/>
+      <c r="FT47" s="46"/>
+      <c r="FU47" s="46"/>
+      <c r="FV47" s="46"/>
+      <c r="FW47" s="46"/>
+      <c r="FX47" s="46"/>
+      <c r="FY47" s="46"/>
+      <c r="FZ47" s="46"/>
+      <c r="GA47" s="46"/>
+      <c r="GB47" s="46"/>
+      <c r="GC47" s="46"/>
+      <c r="GD47" s="46"/>
+      <c r="GE47" s="46"/>
+      <c r="GF47" s="46"/>
+      <c r="GG47" s="46"/>
+      <c r="GH47" s="46"/>
+      <c r="GI47" s="46"/>
+      <c r="GJ47" s="46"/>
+      <c r="GK47" s="46"/>
+      <c r="GL47" s="46"/>
+      <c r="GM47" s="46"/>
+      <c r="GN47" s="46"/>
+      <c r="GO47" s="46"/>
+      <c r="GP47" s="46"/>
+      <c r="GQ47" s="46"/>
+      <c r="GR47" s="46"/>
+      <c r="GS47" s="46"/>
+      <c r="GT47" s="46"/>
+      <c r="GU47" s="46"/>
+      <c r="GV47" s="46"/>
+      <c r="GW47" s="46"/>
+      <c r="GX47" s="46"/>
+      <c r="GY47" s="46"/>
+      <c r="GZ47" s="46"/>
+      <c r="HA47" s="46"/>
+      <c r="HB47" s="46"/>
+      <c r="HC47" s="46"/>
+      <c r="HD47" s="46"/>
+      <c r="HE47" s="46"/>
+      <c r="HF47" s="46"/>
+      <c r="HG47" s="46"/>
+      <c r="HH47" s="46"/>
+      <c r="HI47" s="46"/>
+      <c r="HJ47" s="46"/>
+      <c r="HK47" s="46"/>
+      <c r="HL47" s="46"/>
+      <c r="HM47" s="46"/>
+      <c r="HN47" s="46"/>
+      <c r="HO47" s="46"/>
+      <c r="HP47" s="46"/>
+      <c r="HQ47" s="46"/>
+      <c r="HR47" s="46"/>
+      <c r="HS47" s="46"/>
+      <c r="HT47" s="46"/>
+      <c r="HU47" s="46"/>
+      <c r="HV47" s="46"/>
+      <c r="HW47" s="46"/>
+      <c r="HX47" s="46"/>
+      <c r="HY47" s="46"/>
+      <c r="HZ47" s="46"/>
+      <c r="IA47" s="46"/>
+      <c r="IB47" s="46"/>
+      <c r="IC47" s="46"/>
+      <c r="ID47" s="46"/>
+      <c r="IE47" s="46"/>
+      <c r="IF47" s="46"/>
+      <c r="IG47" s="46"/>
+      <c r="IH47" s="46"/>
+      <c r="II47" s="46"/>
+      <c r="IJ47" s="46"/>
+      <c r="IK47" s="46"/>
+      <c r="IL47" s="46"/>
+      <c r="IM47" s="46"/>
+      <c r="IN47" s="46"/>
+      <c r="IO47" s="46"/>
+      <c r="IP47" s="46"/>
+      <c r="IQ47" s="46"/>
+      <c r="IR47" s="46"/>
+      <c r="IS47" s="46"/>
+      <c r="IT47" s="46"/>
+      <c r="IU47" s="46"/>
+      <c r="IV47" s="46"/>
+      <c r="IW47" s="46"/>
+      <c r="IX47" s="46"/>
+      <c r="IY47" s="46"/>
+      <c r="IZ47" s="46"/>
+      <c r="JA47" s="46"/>
+      <c r="JB47" s="46"/>
+      <c r="JC47" s="46"/>
+      <c r="JD47" s="46"/>
+      <c r="JE47" s="46"/>
+      <c r="JF47" s="46"/>
+      <c r="JG47" s="46"/>
+      <c r="JH47" s="46"/>
+      <c r="JI47" s="46"/>
+      <c r="JJ47" s="46"/>
+      <c r="JK47" s="46"/>
+      <c r="JL47" s="46"/>
+      <c r="JM47" s="46"/>
+      <c r="JN47" s="46"/>
+      <c r="JO47" s="46"/>
+      <c r="JP47" s="46"/>
+      <c r="JQ47" s="46"/>
+      <c r="JR47" s="46"/>
+      <c r="JS47" s="46"/>
+      <c r="JT47" s="46"/>
+      <c r="JU47" s="46"/>
+      <c r="JV47" s="46"/>
+      <c r="JW47" s="46"/>
+      <c r="JX47" s="46"/>
+      <c r="JY47" s="46"/>
+      <c r="JZ47" s="46"/>
+      <c r="KA47" s="46"/>
+      <c r="KB47" s="46"/>
+      <c r="KC47" s="46"/>
+      <c r="KD47" s="46"/>
+      <c r="KE47" s="46"/>
+      <c r="KF47" s="46"/>
+      <c r="KG47" s="46"/>
+      <c r="KH47" s="46"/>
+      <c r="KI47" s="46"/>
+      <c r="KJ47" s="46"/>
+      <c r="KK47" s="46"/>
+      <c r="KL47" s="46"/>
+      <c r="KM47" s="46"/>
+      <c r="KN47" s="46"/>
+      <c r="KO47" s="46"/>
+      <c r="KP47" s="46"/>
+      <c r="KQ47" s="46"/>
+      <c r="KR47" s="46"/>
+      <c r="KS47" s="46"/>
+      <c r="KT47" s="46"/>
+      <c r="KU47" s="46"/>
+      <c r="KV47" s="46"/>
+      <c r="KW47" s="46"/>
+      <c r="KX47" s="46"/>
+      <c r="KY47" s="46"/>
+      <c r="KZ47" s="46"/>
+      <c r="LA47" s="46"/>
+      <c r="LB47" s="46"/>
+      <c r="LC47" s="46"/>
+      <c r="LD47" s="46"/>
+      <c r="LE47" s="46"/>
+      <c r="LF47" s="46"/>
+      <c r="LG47" s="46"/>
+      <c r="LH47" s="46"/>
+      <c r="LI47" s="46"/>
+      <c r="LJ47" s="46"/>
+      <c r="LK47" s="46"/>
+      <c r="LL47" s="46"/>
+      <c r="LM47" s="46"/>
+      <c r="LN47" s="46"/>
+      <c r="LO47" s="46"/>
+      <c r="LP47" s="46"/>
+      <c r="LQ47" s="46"/>
+      <c r="LR47" s="46"/>
+      <c r="LS47" s="46"/>
+      <c r="LT47" s="46"/>
+      <c r="LU47" s="46"/>
+      <c r="LV47" s="46"/>
+      <c r="LW47" s="46"/>
+      <c r="LX47" s="46"/>
+      <c r="LY47" s="46"/>
+      <c r="LZ47" s="46"/>
+      <c r="MA47" s="46"/>
+      <c r="MB47" s="46"/>
+      <c r="MC47" s="46"/>
+      <c r="MD47" s="46"/>
+      <c r="ME47" s="46"/>
+      <c r="MF47" s="46"/>
+      <c r="MG47" s="46"/>
+      <c r="MH47" s="46"/>
+      <c r="MI47" s="46"/>
+      <c r="MJ47" s="46"/>
+      <c r="MK47" s="46"/>
+      <c r="ML47" s="46"/>
+      <c r="MM47" s="46"/>
+      <c r="MN47" s="46"/>
+      <c r="MO47" s="46"/>
+      <c r="MP47" s="46"/>
+      <c r="MQ47" s="46"/>
+      <c r="MR47" s="46"/>
+      <c r="MS47" s="46"/>
+      <c r="MT47" s="46"/>
+      <c r="MU47" s="46"/>
+      <c r="MV47" s="46"/>
+      <c r="MW47" s="46"/>
+      <c r="MX47" s="46"/>
+      <c r="MY47" s="46"/>
+      <c r="MZ47" s="46"/>
+      <c r="NA47" s="46"/>
+      <c r="NB47" s="46"/>
+      <c r="NC47" s="46"/>
+      <c r="ND47" s="46"/>
+      <c r="NE47" s="46"/>
+      <c r="NF47" s="46"/>
+      <c r="NG47" s="46"/>
+      <c r="NH47" s="46"/>
+      <c r="NI47" s="46"/>
+      <c r="NJ47" s="46"/>
+      <c r="NK47" s="46"/>
+      <c r="NL47" s="46"/>
+      <c r="NM47" s="46"/>
+      <c r="NN47" s="46"/>
+      <c r="NO47" s="46"/>
+      <c r="NP47" s="46"/>
+      <c r="NQ47" s="46"/>
+      <c r="NR47" s="46"/>
+      <c r="NS47" s="46"/>
+      <c r="NT47" s="46"/>
+      <c r="NU47" s="46"/>
+      <c r="NV47" s="46"/>
+      <c r="NW47" s="46"/>
+      <c r="NX47" s="46"/>
+      <c r="NY47" s="46"/>
+      <c r="NZ47" s="46"/>
+      <c r="OA47" s="46"/>
+      <c r="OB47" s="46"/>
+      <c r="OC47" s="46"/>
+      <c r="OD47" s="46"/>
+      <c r="OE47" s="46"/>
+      <c r="OF47" s="46"/>
+      <c r="OG47" s="46"/>
+      <c r="OH47" s="46"/>
+      <c r="OI47" s="46"/>
+      <c r="OJ47" s="46"/>
+      <c r="OK47" s="46"/>
+      <c r="OL47" s="46"/>
+      <c r="OM47" s="46"/>
+      <c r="ON47" s="46"/>
+      <c r="OO47" s="46"/>
+      <c r="OP47" s="46"/>
+      <c r="OQ47" s="46"/>
+      <c r="OR47" s="46"/>
+      <c r="OS47" s="46"/>
+      <c r="OT47" s="46"/>
+      <c r="OU47" s="46"/>
+      <c r="OV47" s="46"/>
+      <c r="OW47" s="46"/>
+      <c r="OX47" s="46"/>
+      <c r="OY47" s="46"/>
+      <c r="OZ47" s="46"/>
+      <c r="PA47" s="46"/>
+      <c r="PB47" s="46"/>
+      <c r="PC47" s="46"/>
+      <c r="PD47" s="46"/>
+      <c r="PE47" s="46"/>
+      <c r="PF47" s="46"/>
+      <c r="PG47" s="46"/>
+      <c r="PH47" s="46"/>
+      <c r="PI47" s="46"/>
+      <c r="PJ47" s="46"/>
+      <c r="PK47" s="46"/>
+      <c r="PL47" s="46"/>
+      <c r="PM47" s="46"/>
+      <c r="PN47" s="46"/>
+      <c r="PO47" s="46"/>
+      <c r="PP47" s="46"/>
+      <c r="PQ47" s="46"/>
+      <c r="PR47" s="46"/>
+      <c r="PS47" s="46"/>
+      <c r="PT47" s="46"/>
+      <c r="PU47" s="46"/>
+      <c r="PV47" s="46"/>
+      <c r="PW47" s="46"/>
+      <c r="PX47" s="46"/>
+      <c r="PY47" s="46"/>
+      <c r="PZ47" s="46"/>
+      <c r="QA47" s="46"/>
+      <c r="QB47" s="46"/>
+      <c r="QC47" s="46"/>
+      <c r="QD47" s="46"/>
+      <c r="QE47" s="46"/>
+      <c r="QF47" s="46"/>
+      <c r="QG47" s="46"/>
+      <c r="QH47" s="46"/>
+      <c r="QI47" s="46"/>
+      <c r="QJ47" s="46"/>
+      <c r="QK47" s="46"/>
+      <c r="QL47" s="46"/>
+      <c r="QM47" s="46"/>
+      <c r="QN47" s="46"/>
+      <c r="QO47" s="46"/>
+      <c r="QP47" s="46"/>
+      <c r="QQ47" s="46"/>
+      <c r="QR47" s="46"/>
+      <c r="QS47" s="46"/>
+      <c r="QT47" s="46"/>
+      <c r="QU47" s="46"/>
+      <c r="QV47" s="46"/>
+      <c r="QW47" s="46"/>
+      <c r="QX47" s="46"/>
+      <c r="QY47" s="46"/>
+      <c r="QZ47" s="46"/>
+      <c r="RA47" s="46"/>
+      <c r="RB47" s="46"/>
+      <c r="RC47" s="46"/>
+      <c r="RD47" s="46"/>
+      <c r="RE47" s="46"/>
+      <c r="RF47" s="46"/>
+      <c r="RG47" s="46"/>
+      <c r="RH47" s="46"/>
+      <c r="RI47" s="46"/>
+      <c r="RJ47" s="46"/>
+      <c r="RK47" s="46"/>
+      <c r="RL47" s="46"/>
+      <c r="RM47" s="46"/>
+      <c r="RN47" s="46"/>
+      <c r="RO47" s="46"/>
+      <c r="RP47" s="46"/>
+      <c r="RQ47" s="46"/>
+      <c r="RR47" s="46"/>
+      <c r="RS47" s="46"/>
+      <c r="RT47" s="46"/>
+      <c r="RU47" s="46"/>
+      <c r="RV47" s="46"/>
+      <c r="RW47" s="46"/>
+      <c r="RX47" s="46"/>
+      <c r="RY47" s="46"/>
+      <c r="RZ47" s="46"/>
+      <c r="SA47" s="46"/>
+      <c r="SB47" s="46"/>
+      <c r="SC47" s="46"/>
+      <c r="SD47" s="46"/>
+      <c r="SE47" s="46"/>
+      <c r="SF47" s="46"/>
+      <c r="SG47" s="46"/>
+      <c r="SH47" s="46"/>
+      <c r="SI47" s="46"/>
+      <c r="SJ47" s="46"/>
+      <c r="SK47" s="46"/>
+      <c r="SL47" s="46"/>
+      <c r="SM47" s="46"/>
+      <c r="SN47" s="46"/>
+      <c r="SO47" s="46"/>
+      <c r="SP47" s="46"/>
+      <c r="SQ47" s="46"/>
+      <c r="SR47" s="46"/>
+      <c r="SS47" s="46"/>
+      <c r="ST47" s="46"/>
+      <c r="SU47" s="46"/>
+      <c r="SV47" s="46"/>
+      <c r="SW47" s="46"/>
+      <c r="SX47" s="46"/>
+      <c r="SY47" s="46"/>
+      <c r="SZ47" s="46"/>
+      <c r="TA47" s="46"/>
+      <c r="TB47" s="46"/>
+      <c r="TC47" s="46"/>
+      <c r="TD47" s="46"/>
+      <c r="TE47" s="46"/>
+      <c r="TF47" s="46"/>
+      <c r="TG47" s="46"/>
+      <c r="TH47" s="46"/>
+      <c r="TI47" s="46"/>
+      <c r="TJ47" s="46"/>
+      <c r="TK47" s="46"/>
+      <c r="TL47" s="46"/>
+      <c r="TM47" s="46"/>
+      <c r="TN47" s="46"/>
+      <c r="TO47" s="46"/>
+      <c r="TP47" s="46"/>
+      <c r="TQ47" s="46"/>
+      <c r="TR47" s="46"/>
+      <c r="TS47" s="46"/>
+      <c r="TT47" s="46"/>
+      <c r="TU47" s="46"/>
+      <c r="TV47" s="46"/>
+      <c r="TW47" s="46"/>
+      <c r="TX47" s="46"/>
+      <c r="TY47" s="46"/>
+      <c r="TZ47" s="46"/>
+      <c r="UA47" s="46"/>
+      <c r="UB47" s="46"/>
+      <c r="UC47" s="46"/>
+      <c r="UD47" s="46"/>
+      <c r="UE47" s="46"/>
+      <c r="UF47" s="46"/>
+      <c r="UG47" s="46"/>
+      <c r="UH47" s="46"/>
+      <c r="UI47" s="46"/>
+      <c r="UJ47" s="46"/>
+      <c r="UK47" s="46"/>
+      <c r="UL47" s="46"/>
+      <c r="UM47" s="46"/>
+      <c r="UN47" s="46"/>
+      <c r="UO47" s="46"/>
+      <c r="UP47" s="46"/>
+      <c r="UQ47" s="46"/>
+      <c r="UR47" s="46"/>
+      <c r="US47" s="46"/>
+      <c r="UT47" s="46"/>
+      <c r="UU47" s="46"/>
+      <c r="UV47" s="46"/>
+      <c r="UW47" s="46"/>
+      <c r="UX47" s="46"/>
+      <c r="UY47" s="46"/>
+      <c r="UZ47" s="46"/>
+      <c r="VA47" s="46"/>
+      <c r="VB47" s="46"/>
+      <c r="VC47" s="46"/>
+      <c r="VD47" s="46"/>
+      <c r="VE47" s="46"/>
+      <c r="VF47" s="46"/>
+      <c r="VG47" s="46"/>
+      <c r="VH47" s="46"/>
+      <c r="VI47" s="46"/>
+      <c r="VJ47" s="46"/>
+      <c r="VK47" s="46"/>
+      <c r="VL47" s="46"/>
+      <c r="VM47" s="46"/>
+      <c r="VN47" s="46"/>
+      <c r="VO47" s="46"/>
+      <c r="VP47" s="46"/>
+      <c r="VQ47" s="46"/>
+      <c r="VR47" s="46"/>
+      <c r="VS47" s="46"/>
+      <c r="VT47" s="46"/>
+      <c r="VU47" s="46"/>
+      <c r="VV47" s="46"/>
+      <c r="VW47" s="46"/>
+      <c r="VX47" s="46"/>
+      <c r="VY47" s="46"/>
+      <c r="VZ47" s="46"/>
+      <c r="WA47" s="46"/>
+      <c r="WB47" s="46"/>
+      <c r="WC47" s="46"/>
+      <c r="WD47" s="46"/>
+      <c r="WE47" s="46"/>
+      <c r="WF47" s="46"/>
+      <c r="WG47" s="46"/>
+      <c r="WH47" s="46"/>
+      <c r="WI47" s="46"/>
+      <c r="WJ47" s="46"/>
+      <c r="WK47" s="46"/>
+      <c r="WL47" s="46"/>
+      <c r="WM47" s="46"/>
+      <c r="WN47" s="46"/>
+      <c r="WO47" s="46"/>
+      <c r="WP47" s="46"/>
+      <c r="WQ47" s="46"/>
+      <c r="WR47" s="46"/>
+      <c r="WS47" s="46"/>
+      <c r="WT47" s="46"/>
+      <c r="WU47" s="46"/>
+      <c r="WV47" s="46"/>
+      <c r="WW47" s="46"/>
+      <c r="WX47" s="46"/>
+      <c r="WY47" s="46"/>
+      <c r="WZ47" s="46"/>
+      <c r="XA47" s="46"/>
+      <c r="XB47" s="46"/>
+      <c r="XC47" s="46"/>
+      <c r="XD47" s="46"/>
+      <c r="XE47" s="46"/>
+      <c r="XF47" s="46"/>
+      <c r="XG47" s="46"/>
+      <c r="XH47" s="46"/>
+      <c r="XI47" s="46"/>
+      <c r="XJ47" s="46"/>
+      <c r="XK47" s="46"/>
+      <c r="XL47" s="46"/>
+      <c r="XM47" s="46"/>
+      <c r="XN47" s="46"/>
+      <c r="XO47" s="46"/>
+      <c r="XP47" s="46"/>
+      <c r="XQ47" s="46"/>
+      <c r="XR47" s="46"/>
+      <c r="XS47" s="46"/>
+      <c r="XT47" s="46"/>
+      <c r="XU47" s="46"/>
+      <c r="XV47" s="46"/>
+      <c r="XW47" s="46"/>
+      <c r="XX47" s="46"/>
+      <c r="XY47" s="46"/>
+      <c r="XZ47" s="46"/>
+      <c r="YA47" s="46"/>
+      <c r="YB47" s="46"/>
+      <c r="YC47" s="46"/>
+      <c r="YD47" s="46"/>
+      <c r="YE47" s="46"/>
+      <c r="YF47" s="46"/>
+      <c r="YG47" s="46"/>
+      <c r="YH47" s="46"/>
+      <c r="YI47" s="46"/>
+      <c r="YJ47" s="46"/>
+      <c r="YK47" s="46"/>
+      <c r="YL47" s="46"/>
+      <c r="YM47" s="46"/>
+      <c r="YN47" s="46"/>
+      <c r="YO47" s="46"/>
+      <c r="YP47" s="46"/>
+      <c r="YQ47" s="46"/>
+      <c r="YR47" s="46"/>
+      <c r="YS47" s="46"/>
+      <c r="YT47" s="46"/>
+      <c r="YU47" s="46"/>
+      <c r="YV47" s="46"/>
+      <c r="YW47" s="46"/>
+      <c r="YX47" s="46"/>
+      <c r="YY47" s="46"/>
+      <c r="YZ47" s="46"/>
+      <c r="ZA47" s="46"/>
+      <c r="ZB47" s="46"/>
+      <c r="ZC47" s="46"/>
+      <c r="ZD47" s="46"/>
+      <c r="ZE47" s="46"/>
+      <c r="ZF47" s="46"/>
+      <c r="ZG47" s="46"/>
+      <c r="ZH47" s="46"/>
+      <c r="ZI47" s="46"/>
+      <c r="ZJ47" s="46"/>
+      <c r="ZK47" s="46"/>
+      <c r="ZL47" s="46"/>
+      <c r="ZM47" s="46"/>
+      <c r="ZN47" s="46"/>
+      <c r="ZO47" s="46"/>
+      <c r="ZP47" s="46"/>
+      <c r="ZQ47" s="46"/>
+      <c r="ZR47" s="46"/>
+      <c r="ZS47" s="46"/>
+      <c r="ZT47" s="46"/>
+      <c r="ZU47" s="46"/>
+      <c r="ZV47" s="46"/>
+      <c r="ZW47" s="46"/>
+      <c r="ZX47" s="46"/>
+      <c r="ZY47" s="46"/>
+      <c r="ZZ47" s="46"/>
+      <c r="AAA47" s="46"/>
+      <c r="AAB47" s="46"/>
+      <c r="AAC47" s="46"/>
+      <c r="AAD47" s="46"/>
+      <c r="AAE47" s="46"/>
+      <c r="AAF47" s="46"/>
+      <c r="AAG47" s="46"/>
+      <c r="AAH47" s="46"/>
+      <c r="AAI47" s="46"/>
+      <c r="AAJ47" s="46"/>
+      <c r="AAK47" s="46"/>
+      <c r="AAL47" s="46"/>
+      <c r="AAM47" s="46"/>
+      <c r="AAN47" s="46"/>
+      <c r="AAO47" s="46"/>
+      <c r="AAP47" s="46"/>
+      <c r="AAQ47" s="46"/>
+      <c r="AAR47" s="46"/>
+      <c r="AAS47" s="46"/>
+      <c r="AAT47" s="46"/>
+      <c r="AAU47" s="46"/>
+      <c r="AAV47" s="46"/>
+      <c r="AAW47" s="46"/>
+      <c r="AAX47" s="46"/>
+      <c r="AAY47" s="46"/>
+      <c r="AAZ47" s="46"/>
+      <c r="ABA47" s="46"/>
+      <c r="ABB47" s="46"/>
+      <c r="ABC47" s="46"/>
+      <c r="ABD47" s="46"/>
+      <c r="ABE47" s="46"/>
+      <c r="ABF47" s="46"/>
+      <c r="ABG47" s="46"/>
+      <c r="ABH47" s="46"/>
+      <c r="ABI47" s="46"/>
+      <c r="ABJ47" s="46"/>
+      <c r="ABK47" s="46"/>
+      <c r="ABL47" s="46"/>
+      <c r="ABM47" s="46"/>
+      <c r="ABN47" s="46"/>
+      <c r="ABO47" s="46"/>
+      <c r="ABP47" s="46"/>
+      <c r="ABQ47" s="46"/>
+      <c r="ABR47" s="46"/>
+      <c r="ABS47" s="46"/>
+      <c r="ABT47" s="46"/>
+      <c r="ABU47" s="46"/>
+      <c r="ABV47" s="46"/>
+      <c r="ABW47" s="46"/>
+      <c r="ABX47" s="46"/>
+      <c r="ABY47" s="46"/>
+      <c r="ABZ47" s="46"/>
+      <c r="ACA47" s="46"/>
+      <c r="ACB47" s="46"/>
+      <c r="ACC47" s="46"/>
+      <c r="ACD47" s="46"/>
+      <c r="ACE47" s="46"/>
+      <c r="ACF47" s="46"/>
+      <c r="ACG47" s="46"/>
+      <c r="ACH47" s="46"/>
+      <c r="ACI47" s="46"/>
+      <c r="ACJ47" s="46"/>
+      <c r="ACK47" s="46"/>
+      <c r="ACL47" s="46"/>
+      <c r="ACM47" s="46"/>
+      <c r="ACN47" s="46"/>
+      <c r="ACO47" s="46"/>
+      <c r="ACP47" s="46"/>
+      <c r="ACQ47" s="46"/>
+      <c r="ACR47" s="46"/>
+      <c r="ACS47" s="46"/>
+      <c r="ACT47" s="46"/>
+      <c r="ACU47" s="46"/>
+      <c r="ACV47" s="46"/>
+      <c r="ACW47" s="46"/>
+      <c r="ACX47" s="46"/>
+      <c r="ACY47" s="46"/>
+      <c r="ACZ47" s="46"/>
+      <c r="ADA47" s="46"/>
+      <c r="ADB47" s="46"/>
+      <c r="ADC47" s="46"/>
+      <c r="ADD47" s="46"/>
+      <c r="ADE47" s="46"/>
+      <c r="ADF47" s="46"/>
+      <c r="ADG47" s="46"/>
+      <c r="ADH47" s="46"/>
+      <c r="ADI47" s="46"/>
+      <c r="ADJ47" s="46"/>
+      <c r="ADK47" s="46"/>
+      <c r="ADL47" s="46"/>
+      <c r="ADM47" s="46"/>
+      <c r="ADN47" s="46"/>
+      <c r="ADO47" s="46"/>
+      <c r="ADP47" s="46"/>
+      <c r="ADQ47" s="46"/>
+      <c r="ADR47" s="46"/>
+      <c r="ADS47" s="46"/>
+      <c r="ADT47" s="46"/>
+      <c r="ADU47" s="46"/>
+      <c r="ADV47" s="46"/>
+      <c r="ADW47" s="46"/>
+      <c r="ADX47" s="46"/>
+      <c r="ADY47" s="46"/>
+      <c r="ADZ47" s="46"/>
+      <c r="AEA47" s="46"/>
+      <c r="AEB47" s="46"/>
+      <c r="AEC47" s="46"/>
+      <c r="AED47" s="46"/>
+      <c r="AEE47" s="46"/>
+      <c r="AEF47" s="46"/>
+      <c r="AEG47" s="46"/>
+      <c r="AEH47" s="46"/>
+      <c r="AEI47" s="46"/>
+      <c r="AEJ47" s="46"/>
+      <c r="AEK47" s="46"/>
+      <c r="AEL47" s="46"/>
+      <c r="AEM47" s="46"/>
+      <c r="AEN47" s="46"/>
+      <c r="AEO47" s="46"/>
+      <c r="AEP47" s="46"/>
+      <c r="AEQ47" s="46"/>
+      <c r="AER47" s="46"/>
+      <c r="AES47" s="46"/>
+      <c r="AET47" s="46"/>
+      <c r="AEU47" s="46"/>
+      <c r="AEV47" s="46"/>
+      <c r="AEW47" s="46"/>
+      <c r="AEX47" s="46"/>
+      <c r="AEY47" s="46"/>
+      <c r="AEZ47" s="46"/>
+      <c r="AFA47" s="46"/>
+      <c r="AFB47" s="46"/>
+      <c r="AFC47" s="46"/>
+      <c r="AFD47" s="46"/>
+      <c r="AFE47" s="46"/>
+      <c r="AFF47" s="46"/>
+      <c r="AFG47" s="46"/>
+      <c r="AFH47" s="46"/>
+      <c r="AFI47" s="46"/>
+      <c r="AFJ47" s="46"/>
+      <c r="AFK47" s="46"/>
+      <c r="AFL47" s="46"/>
+      <c r="AFM47" s="46"/>
+      <c r="AFN47" s="46"/>
+      <c r="AFO47" s="46"/>
+      <c r="AFP47" s="46"/>
+      <c r="AFQ47" s="46"/>
+      <c r="AFR47" s="46"/>
+      <c r="AFS47" s="46"/>
+      <c r="AFT47" s="46"/>
+      <c r="AFU47" s="46"/>
+      <c r="AFV47" s="46"/>
+      <c r="AFW47" s="46"/>
+      <c r="AFX47" s="46"/>
+      <c r="AFY47" s="46"/>
+      <c r="AFZ47" s="46"/>
+      <c r="AGA47" s="46"/>
+      <c r="AGB47" s="46"/>
+      <c r="AGC47" s="46"/>
+      <c r="AGD47" s="46"/>
+      <c r="AGE47" s="46"/>
+      <c r="AGF47" s="46"/>
+      <c r="AGG47" s="46"/>
+      <c r="AGH47" s="46"/>
+      <c r="AGI47" s="46"/>
+      <c r="AGJ47" s="46"/>
+      <c r="AGK47" s="46"/>
+      <c r="AGL47" s="46"/>
+      <c r="AGM47" s="46"/>
+      <c r="AGN47" s="46"/>
+      <c r="AGO47" s="46"/>
+      <c r="AGP47" s="46"/>
+      <c r="AGQ47" s="46"/>
+      <c r="AGR47" s="46"/>
+      <c r="AGS47" s="46"/>
+      <c r="AGT47" s="46"/>
+      <c r="AGU47" s="46"/>
+      <c r="AGV47" s="46"/>
+      <c r="AGW47" s="46"/>
+      <c r="AGX47" s="46"/>
+      <c r="AGY47" s="46"/>
+      <c r="AGZ47" s="46"/>
+      <c r="AHA47" s="46"/>
+      <c r="AHB47" s="46"/>
+      <c r="AHC47" s="46"/>
+      <c r="AHD47" s="46"/>
+      <c r="AHE47" s="46"/>
+      <c r="AHF47" s="46"/>
+      <c r="AHG47" s="46"/>
+      <c r="AHH47" s="46"/>
+      <c r="AHI47" s="46"/>
+      <c r="AHJ47" s="46"/>
+      <c r="AHK47" s="46"/>
+      <c r="AHL47" s="46"/>
+      <c r="AHM47" s="46"/>
+      <c r="AHN47" s="46"/>
+      <c r="AHO47" s="46"/>
+      <c r="AHP47" s="46"/>
+      <c r="AHQ47" s="46"/>
+      <c r="AHR47" s="46"/>
+      <c r="AHS47" s="46"/>
+      <c r="AHT47" s="46"/>
+      <c r="AHU47" s="46"/>
+      <c r="AHV47" s="46"/>
+      <c r="AHW47" s="46"/>
+      <c r="AHX47" s="46"/>
+      <c r="AHY47" s="46"/>
+      <c r="AHZ47" s="46"/>
+      <c r="AIA47" s="46"/>
+      <c r="AIB47" s="46"/>
+      <c r="AIC47" s="46"/>
+      <c r="AID47" s="46"/>
+      <c r="AIE47" s="46"/>
+      <c r="AIF47" s="46"/>
+      <c r="AIG47" s="46"/>
+      <c r="AIH47" s="46"/>
+      <c r="AII47" s="46"/>
+      <c r="AIJ47" s="46"/>
+      <c r="AIK47" s="46"/>
+      <c r="AIL47" s="46"/>
+      <c r="AIM47" s="46"/>
+      <c r="AIN47" s="46"/>
+      <c r="AIO47" s="46"/>
+      <c r="AIP47" s="46"/>
+      <c r="AIQ47" s="46"/>
+      <c r="AIR47" s="46"/>
+      <c r="AIS47" s="46"/>
+      <c r="AIT47" s="46"/>
+      <c r="AIU47" s="46"/>
+      <c r="AIV47" s="46"/>
+      <c r="AIW47" s="46"/>
+      <c r="AIX47" s="46"/>
+      <c r="AIY47" s="46"/>
+      <c r="AIZ47" s="46"/>
+      <c r="AJA47" s="46"/>
+      <c r="AJB47" s="46"/>
+      <c r="AJC47" s="46"/>
+      <c r="AJD47" s="46"/>
+      <c r="AJE47" s="46"/>
+      <c r="AJF47" s="46"/>
+      <c r="AJG47" s="46"/>
+      <c r="AJH47" s="46"/>
+      <c r="AJI47" s="46"/>
+      <c r="AJJ47" s="46"/>
+      <c r="AJK47" s="46"/>
+      <c r="AJL47" s="46"/>
+      <c r="AJM47" s="46"/>
+      <c r="AJN47" s="46"/>
+      <c r="AJO47" s="46"/>
+      <c r="AJP47" s="46"/>
+      <c r="AJQ47" s="46"/>
+      <c r="AJR47" s="46"/>
+      <c r="AJS47" s="46"/>
+      <c r="AJT47" s="46"/>
+      <c r="AJU47" s="46"/>
+      <c r="AJV47" s="46"/>
+      <c r="AJW47" s="46"/>
+      <c r="AJX47" s="46"/>
+      <c r="AJY47" s="46"/>
+      <c r="AJZ47" s="46"/>
+      <c r="AKA47" s="46"/>
+      <c r="AKB47" s="46"/>
+      <c r="AKC47" s="46"/>
+      <c r="AKD47" s="46"/>
+      <c r="AKE47" s="46"/>
+      <c r="AKF47" s="46"/>
+      <c r="AKG47" s="46"/>
+      <c r="AKH47" s="46"/>
+      <c r="AKI47" s="46"/>
+      <c r="AKJ47" s="46"/>
+      <c r="AKK47" s="46"/>
+      <c r="AKL47" s="46"/>
+      <c r="AKM47" s="46"/>
+      <c r="AKN47" s="46"/>
+      <c r="AKO47" s="46"/>
+      <c r="AKP47" s="46"/>
+      <c r="AKQ47" s="46"/>
+      <c r="AKR47" s="46"/>
+      <c r="AKS47" s="46"/>
+      <c r="AKT47" s="46"/>
+      <c r="AKU47" s="46"/>
+      <c r="AKV47" s="46"/>
+      <c r="AKW47" s="46"/>
+      <c r="AKX47" s="46"/>
+      <c r="AKY47" s="46"/>
+      <c r="AKZ47" s="46"/>
+      <c r="ALA47" s="46"/>
+      <c r="ALB47" s="46"/>
+      <c r="ALC47" s="46"/>
+      <c r="ALD47" s="46"/>
+      <c r="ALE47" s="46"/>
+      <c r="ALF47" s="46"/>
+      <c r="ALG47" s="46"/>
+      <c r="ALH47" s="46"/>
+      <c r="ALI47" s="46"/>
+      <c r="ALJ47" s="46"/>
+      <c r="ALK47" s="46"/>
+      <c r="ALL47" s="46"/>
+      <c r="ALM47" s="46"/>
+      <c r="ALN47" s="46"/>
+      <c r="ALO47" s="46"/>
+      <c r="ALP47" s="46"/>
+      <c r="ALQ47" s="46"/>
+      <c r="ALR47" s="46"/>
+      <c r="ALS47" s="46"/>
+      <c r="ALT47" s="46"/>
+      <c r="ALU47" s="46"/>
+      <c r="ALV47" s="46"/>
+      <c r="ALW47" s="46"/>
+      <c r="ALX47" s="46"/>
+      <c r="ALY47" s="46"/>
+      <c r="ALZ47" s="46"/>
+      <c r="AMA47" s="46"/>
+      <c r="AMB47" s="46"/>
+      <c r="AMC47" s="46"/>
+      <c r="AMD47" s="46"/>
+      <c r="AME47" s="46"/>
+      <c r="AMF47" s="46"/>
+      <c r="AMG47" s="46"/>
+      <c r="AMH47" s="46"/>
+      <c r="AMI47" s="46"/>
+      <c r="AMJ47" s="46"/>
+      <c r="AMK47" s="46"/>
+    </row>
+    <row r="48" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>814</v>
+        <v>745</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>813</v>
+        <v>746</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>58</v>
@@ -5893,15 +6916,15 @@
         <v>84</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>58</v>
@@ -5925,11 +6948,11 @@
         <v>58</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="N49" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -5939,30 +6962,28 @@
         <v>84</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>806</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -5970,15 +6991,16 @@
         <v>58</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5" t="s">
-        <v>807</v>
-      </c>
+      <c r="N50" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
@@ -5986,87 +7008,134 @@
         <v>84</v>
       </c>
       <c r="T50" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T51" s="5" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
+    <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5" t="s">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H54" s="5" t="s">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5" t="s">
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5" t="s">
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T54" s="5" t="s">
+      <c r="T55" s="5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="51"/>
     </row>
     <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" s="52"/>
+    </row>
+    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="52"/>
-    </row>
-    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" s="52"/>
+      <c r="C60" s="53"/>
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="53"/>
+    </row>
+    <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="53"/>
-    </row>
-    <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="53" t="s">
+      <c r="C62" s="54"/>
+    </row>
+    <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="C62" s="53"/>
-    </row>
-    <row r="63" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="50" t="s">
+      <c r="C63" s="54"/>
+    </row>
+    <row r="64" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="51" t="s">
         <v>752</v>
       </c>
-      <c r="C63" s="50"/>
+      <c r="C64" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C3:L3"/>
@@ -6077,11 +7146,11 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="B11:T11"/>
-    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -6104,16 +7173,16 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="56" t="s">
         <v>208</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -6124,7 +7193,7 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="55"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="16" t="s">
         <v>210</v>
       </c>
@@ -6133,7 +7202,7 @@
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="16" t="s">
         <v>211</v>
       </c>
@@ -6142,7 +7211,7 @@
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="55"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="16" t="s">
         <v>212</v>
       </c>
@@ -6151,13 +7220,13 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="55"/>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6192,12 +7261,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
@@ -6420,18 +7489,18 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="64"/>
       <c r="E2" s="23" t="s">
         <v>221</v>
       </c>
       <c r="F2" s="24"/>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
@@ -6622,10 +7691,10 @@
       <c r="F13" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="J13" s="63"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
@@ -6808,10 +7877,10 @@
       <c r="F23" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="I23" s="62" t="s">
+      <c r="I23" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="J23" s="63"/>
+      <c r="J23" s="64"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
@@ -6968,10 +8037,10 @@
       <c r="F32" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="I32" s="62" t="s">
+      <c r="I32" s="63" t="s">
         <v>753</v>
       </c>
-      <c r="J32" s="63"/>
+      <c r="J32" s="64"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="20" t="s">
@@ -7094,10 +8163,10 @@
       <c r="F39" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="I39" s="62" t="s">
+      <c r="I39" s="63" t="s">
         <v>786</v>
       </c>
-      <c r="J39" s="63"/>
+      <c r="J39" s="64"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
@@ -7220,10 +8289,10 @@
       <c r="F46" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="I46" s="62" t="s">
+      <c r="I46" s="63" t="s">
         <v>796</v>
       </c>
-      <c r="J46" s="63"/>
+      <c r="J46" s="64"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
@@ -7412,10 +8481,10 @@
       <c r="C59" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="E59" s="62" t="s">
+      <c r="E59" s="63" t="s">
         <v>762</v>
       </c>
-      <c r="F59" s="63"/>
+      <c r="F59" s="64"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
@@ -8133,10 +9202,10 @@
     </row>
     <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="60" t="s">
+      <c r="B143" s="61" t="s">
         <v>598</v>
       </c>
-      <c r="C143" s="61"/>
+      <c r="C143" s="62"/>
     </row>
     <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B992E2-2A25-44B7-A81A-300DACD4BC93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F7495-25B4-44BD-ADCF-239C08E1694E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="450" windowWidth="28845" windowHeight="20115" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="1470" windowWidth="28875" windowHeight="17610" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -2509,13 +2509,13 @@
     <t>If true calculates all cells in the Spreadsheet, otherwise calculates only cells these are requred for a result. By default = true.</t>
   </si>
   <si>
-    <t xml:space="preserve">Controls generation additional fields in an output model for the Spreadsheet. </t>
-  </si>
-  <si>
-    <t>verboseOutputModel</t>
-  </si>
-  <si>
-    <t>Verbose Output Model</t>
+    <t xml:space="preserve">Controls generation additional fields in an plain model for the Spreadsheet. </t>
+  </si>
+  <si>
+    <t>Detaled Plain Model</t>
+  </si>
+  <si>
+    <t>detailedPlainModel</t>
   </si>
 </sst>
 </file>
@@ -3987,7 +3987,7 @@
   <dimension ref="A1:AMK64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5824,10 +5824,10 @@
     <row r="47" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="46"/>
       <c r="B47" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>817</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>58</v>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\openl\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F7495-25B4-44BD-ADCF-239C08E1694E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AFD273-97BE-4C9A-9CAE-872561C7C575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1470" windowWidth="28875" windowHeight="17610" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -310,9 +313,6 @@
     <t>&lt; expirationDate</t>
   </si>
   <si>
-    <t>MM/dd/yyyy</t>
-  </si>
-  <si>
     <t>MODULE, CATEGORY, TABLE</t>
   </si>
   <si>
@@ -2516,6 +2516,9 @@
   </si>
   <si>
     <t>detailedPlainModel</t>
+  </si>
+  <si>
+    <t>MM/dd/yyyy hh:mm a</t>
   </si>
 </sst>
 </file>
@@ -3250,14 +3253,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3745,9 +3748,9 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3762,7 +3765,7 @@
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
     </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
@@ -3777,22 +3780,22 @@
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
@@ -3807,7 +3810,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
@@ -3822,37 +3825,37 @@
       <c r="I6" s="47"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
@@ -3867,7 +3870,7 @@
       <c r="I9" s="47"/>
       <c r="J9" s="47"/>
     </row>
-    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
@@ -3882,7 +3885,7 @@
       <c r="I10" s="47"/>
       <c r="J10" s="47"/>
     </row>
-    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
@@ -3897,66 +3900,71 @@
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-    </row>
-    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+    </row>
+    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-    </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+    </row>
+    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3966,11 +3974,6 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3986,36 +3989,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="39.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="19.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="39.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="20.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="1"/>
     <col min="17" max="17" width="14" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="45.85546875" style="1" customWidth="1"/>
-    <col min="21" max="1025" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="13.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="26.88671875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="45.88671875" style="1" customWidth="1"/>
+    <col min="21" max="1025" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4032,7 +4035,7 @@
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
     </row>
-    <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
@@ -4049,24 +4052,24 @@
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
     </row>
-    <row r="3" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-    </row>
-    <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
@@ -4083,7 +4086,7 @@
       <c r="K4" s="47"/>
       <c r="L4" s="47"/>
     </row>
-    <row r="5" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
@@ -4100,41 +4103,41 @@
       <c r="K5" s="47"/>
       <c r="L5" s="47"/>
     </row>
-    <row r="6" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-    </row>
-    <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+    </row>
+    <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-    </row>
-    <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+    </row>
+    <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
@@ -4151,7 +4154,7 @@
       <c r="K8" s="47"/>
       <c r="L8" s="47"/>
     </row>
-    <row r="9" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
@@ -4168,7 +4171,7 @@
       <c r="K9" s="47"/>
       <c r="L9" s="47"/>
     </row>
-    <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4177,7 +4180,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="52" t="s">
         <v>27</v>
       </c>
@@ -4200,7 +4203,7 @@
       <c r="S11" s="52"/>
       <c r="T11" s="52"/>
     </row>
-    <row r="12" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>66</v>
       </c>
@@ -4408,12 +4411,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>58</v>
@@ -4429,10 +4432,10 @@
         <v>60</v>
       </c>
       <c r="I16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>78</v>
@@ -4452,15 +4455,15 @@
         <v>64</v>
       </c>
       <c r="T16" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>58</v>
@@ -4476,10 +4479,10 @@
         <v>60</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>78</v>
@@ -4494,22 +4497,22 @@
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5" t="s">
-        <v>83</v>
+        <v>818</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T17" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>58</v>
@@ -4525,10 +4528,10 @@
         <v>60</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>78</v>
@@ -4548,15 +4551,15 @@
         <v>64</v>
       </c>
       <c r="T18" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>58</v>
@@ -4572,10 +4575,10 @@
         <v>60</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>78</v>
@@ -4590,17 +4593,17 @@
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5" t="s">
-        <v>83</v>
+        <v>818</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
@@ -4643,7 +4646,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>72</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>76</v>
       </c>
@@ -4717,7 +4720,7 @@
         <v>58</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
@@ -4725,22 +4728,22 @@
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5" t="s">
-        <v>83</v>
+        <v>818</v>
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T22" s="5" t="s">
+    </row>
+    <row r="23" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>58</v>
@@ -4749,7 +4752,7 @@
         <v>79</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>78</v>
@@ -4766,30 +4769,30 @@
         <v>58</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5" t="s">
-        <v>83</v>
+        <v>818</v>
       </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T23" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>78</v>
@@ -4798,7 +4801,7 @@
         <v>79</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>78</v>
@@ -4815,30 +4818,30 @@
         <v>58</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5" t="s">
-        <v>83</v>
+        <v>818</v>
       </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T24" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>58</v>
@@ -4847,7 +4850,7 @@
         <v>79</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>78</v>
@@ -4864,39 +4867,39 @@
         <v>58</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5" t="s">
-        <v>83</v>
+        <v>818</v>
       </c>
       <c r="R25" s="5"/>
       <c r="S25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>789</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>790</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>78</v>
@@ -4913,37 +4916,37 @@
         <v>58</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>791</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>792</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>78</v>
@@ -4960,37 +4963,37 @@
         <v>58</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>78</v>
@@ -5007,37 +5010,37 @@
         <v>68</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>78</v>
@@ -5054,37 +5057,37 @@
         <v>68</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>78</v>
@@ -5101,37 +5104,37 @@
         <v>68</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T30" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>78</v>
@@ -5148,28 +5151,28 @@
         <v>68</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>58</v>
@@ -5178,7 +5181,7 @@
         <v>74</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>78</v>
@@ -5195,34 +5198,34 @@
         <v>68</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>748</v>
-      </c>
       <c r="D33" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
@@ -5240,37 +5243,37 @@
         <v>58</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>78</v>
@@ -5287,37 +5290,37 @@
         <v>68</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>78</v>
@@ -5334,28 +5337,28 @@
         <v>68</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
@@ -5366,7 +5369,7 @@
         <v>58</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5375,11 +5378,11 @@
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -5388,26 +5391,26 @@
         <v>64</v>
       </c>
       <c r="T36" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="37" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5416,14 +5419,14 @@
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N37" s="5" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -5432,15 +5435,15 @@
         <v>64</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>58</v>
@@ -5453,7 +5456,7 @@
         <v>58</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -5464,14 +5467,14 @@
         <v>58</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="P38" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
@@ -5479,15 +5482,15 @@
         <v>64</v>
       </c>
       <c r="T38" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>58</v>
@@ -5500,7 +5503,7 @@
         <v>58</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -5513,37 +5516,37 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T39" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="D40" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5554,39 +5557,39 @@
         <v>58</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -5595,7 +5598,7 @@
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N41" s="5" t="b">
         <f>FALSE()</f>
@@ -5606,18 +5609,18 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T41" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="42" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
@@ -5628,7 +5631,7 @@
         <v>58</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -5637,28 +5640,28 @@
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="T42" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="T42" s="5" t="s">
+    </row>
+    <row r="43" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="43" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
@@ -5669,7 +5672,7 @@
         <v>58</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -5678,43 +5681,43 @@
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N43" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="O43" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="T43" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="T43" s="5" t="s">
+    </row>
+    <row r="44" spans="1:1025" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="44" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="D44" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -5723,7 +5726,7 @@
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -5731,31 +5734,31 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -5764,28 +5767,28 @@
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T45" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
@@ -5796,7 +5799,7 @@
         <v>58</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -5805,42 +5808,42 @@
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T46" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="46"/>
       <c r="B47" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>818</v>
-      </c>
       <c r="D47" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -5851,7 +5854,7 @@
         <v>58</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N47" s="5" t="b">
         <f>FALSE()</f>
@@ -5862,10 +5865,10 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U47" s="46"/>
       <c r="V47" s="46"/>
@@ -6873,25 +6876,25 @@
       <c r="AMJ47" s="46"/>
       <c r="AMK47" s="46"/>
     </row>
-    <row r="48" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>746</v>
-      </c>
       <c r="D48" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -6902,7 +6905,7 @@
         <v>58</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N48" s="5" t="b">
         <f>TRUE()</f>
@@ -6913,31 +6916,31 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -6948,7 +6951,7 @@
         <v>58</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N49" s="5" t="b">
         <f>TRUE()</f>
@@ -6959,31 +6962,31 @@
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -6994,7 +6997,7 @@
         <v>58</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N50" s="5" t="b">
         <f>FALSE()</f>
@@ -7005,18 +7008,18 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>804</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>805</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>58</v>
@@ -7025,7 +7028,7 @@
         <v>59</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>78</v>
@@ -7042,39 +7045,39 @@
         <v>68</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T51" s="5" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -7083,7 +7086,7 @@
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -7094,42 +7097,42 @@
         <v>64</v>
       </c>
       <c r="T55" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="52" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="52" t="s">
+      <c r="C59" s="52"/>
+    </row>
+    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="C59" s="52"/>
-    </row>
-    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="53" t="s">
+      <c r="C60" s="53"/>
+    </row>
+    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="C60" s="53"/>
-    </row>
-    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="53" t="s">
+      <c r="C61" s="53"/>
+    </row>
+    <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="C61" s="53"/>
-    </row>
-    <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="54" t="s">
+      <c r="C62" s="54"/>
+    </row>
+    <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="C62" s="54"/>
-    </row>
-    <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="54" t="s">
-        <v>206</v>
-      </c>
       <c r="C63" s="54"/>
     </row>
-    <row r="64" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="51" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C64" s="51"/>
     </row>
@@ -7170,59 +7173,59 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="F5" s="55"/>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>209</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="56"/>
       <c r="C7" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="56"/>
       <c r="C8" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="56"/>
       <c r="C9" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="56"/>
       <c r="C10" s="57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
@@ -7252,23 +7255,23 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
       <c r="E2" s="60"/>
     </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
         <v>29</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
@@ -7296,9 +7299,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>79</v>
@@ -7308,9 +7311,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>79</v>
@@ -7320,140 +7323,140 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="37" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="37" t="s">
+    </row>
+    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="37" t="s">
+    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="36" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
-        <v>219</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="37" t="s">
         <v>757</v>
       </c>
-      <c r="E15" s="37" t="s">
+    </row>
+    <row r="16" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="38" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
+      <c r="C16" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>759</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="39" t="s">
+      <c r="E16" s="40" t="s">
         <v>760</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -7478,31 +7481,31 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
-    <col min="10" max="10" width="33.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="64"/>
       <c r="E2" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="24"/>
       <c r="I2" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>29</v>
       </c>
@@ -7522,192 +7525,192 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="C5" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="I5" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="13" t="s">
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="E6" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="I6" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J6" s="13" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="E7" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="I7" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="J7" s="13" t="s">
+    </row>
+    <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="E8" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="I8" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="J8" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="J8" s="22" t="s">
+    </row>
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="E9" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="13" t="s">
+    </row>
+    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="E10" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="F10" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="F10" s="13" t="s">
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="E11" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="13" t="s">
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="20" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="E12" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="13" t="s">
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="E13" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="I13" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="J13" s="64"/>
+    </row>
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="C14" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="E14" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>29</v>
@@ -7716,184 +7719,184 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="E15" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="I15" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="E16" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="I16" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="J16" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="13" t="s">
+    </row>
+    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="E17" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="I17" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="J17" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="J17" s="13" t="s">
+    </row>
+    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="E18" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="I18" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="J18" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="J18" s="13" t="s">
+    </row>
+    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="C19" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="E19" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="F19" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="I19" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="J19" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="J19" s="13" t="s">
+    </row>
+    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="E20" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="F20" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="I20" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="J20" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="J20" s="22" t="s">
+    </row>
+    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="C21" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="E21" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="F21" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F21" s="13" t="s">
+    </row>
+    <row r="22" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="20" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
+      <c r="C22" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="E22" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="F22" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="F22" s="13" t="s">
+    </row>
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+      <c r="C23" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="E23" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="F23" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="I23" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="J23" s="64"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="J23" s="64"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="C24" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="E24" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="F24" s="13" t="s">
         <v>318</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>319</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>29</v>
@@ -7902,158 +7905,158 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="E25" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="F25" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="I25" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="I25" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="C26" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="E26" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="F26" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="I26" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="J26" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="J26" s="13" t="s">
+    </row>
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="20" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="C27" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="E27" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="F27" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="I27" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="J27" s="14" t="s">
+    </row>
+    <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="20" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="20" t="s">
+      <c r="C28" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="E28" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="F28" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="I28" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="J28" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J28" s="28" t="s">
+    </row>
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
+      <c r="C29" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="E29" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="F29" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="F29" s="13" t="s">
+    </row>
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="20" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
+      <c r="C30" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="E30" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="F30" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="F30" s="13" t="s">
+    </row>
+    <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="20" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="20" t="s">
+      <c r="C31" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="E31" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="F31" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="F31" s="13" t="s">
+    </row>
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="20" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
+      <c r="C32" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="E32" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="I32" s="63" t="s">
+        <v>752</v>
+      </c>
+      <c r="J32" s="64"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="I32" s="63" t="s">
-        <v>753</v>
-      </c>
-      <c r="J32" s="64"/>
-    </row>
-    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="E33" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="F33" s="13" t="s">
         <v>358</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>359</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>29</v>
@@ -8062,124 +8065,124 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="E34" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="F34" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="I34" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="I34" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
+      <c r="C35" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="E35" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="F35" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="I35" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="C36" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="I36" s="21" t="s">
         <v>754</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J36" s="22" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="F36" s="13" t="s">
+    <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>755</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="20" t="s">
+      <c r="C37" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="E37" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="F37" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="F37" s="13" t="s">
+    </row>
+    <row r="38" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="20" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="20" t="s">
+      <c r="C38" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="E38" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="F38" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="F38" s="13" t="s">
+    </row>
+    <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="20" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="20" t="s">
+      <c r="C39" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="E39" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="F39" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="I39" s="63" t="s">
+        <v>785</v>
+      </c>
+      <c r="J39" s="64"/>
+    </row>
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="I39" s="63" t="s">
-        <v>786</v>
-      </c>
-      <c r="J39" s="64"/>
-    </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40" s="13" t="s">
+      <c r="E40" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="F40" s="13" t="s">
         <v>385</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>386</v>
       </c>
       <c r="I40" s="41" t="s">
         <v>29</v>
@@ -8188,124 +8191,124 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="F41" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="I41" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="J41" s="42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="I41" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="J41" s="42" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="C42" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="E42" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="F42" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="I42" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="J42" s="44" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="I42" s="43" t="s">
-        <v>778</v>
-      </c>
-      <c r="J42" s="44" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="20" t="s">
+      <c r="C43" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="E43" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="F43" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="I43" s="27" t="s">
+        <v>786</v>
+      </c>
+      <c r="J43" s="45" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="I43" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="J43" s="45" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="E44" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="F44" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="F44" s="13" t="s">
+    </row>
+    <row r="45" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="20" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="20" t="s">
+      <c r="C45" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="E45" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="F45" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="F45" s="13" t="s">
+    </row>
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="20" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="20" t="s">
+      <c r="C46" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="E46" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="F46" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="I46" s="63" t="s">
+        <v>795</v>
+      </c>
+      <c r="J46" s="64"/>
+    </row>
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="I46" s="63" t="s">
-        <v>796</v>
-      </c>
-      <c r="J46" s="64"/>
-    </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="20" t="s">
+      <c r="C47" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="E47" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="F47" s="13" t="s">
         <v>411</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>412</v>
       </c>
       <c r="I47" s="19" t="s">
         <v>29</v>
@@ -8314,184 +8317,184 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="E48" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="F48" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="I48" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="I48" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="20" t="s">
+      <c r="C49" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="E49" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="F49" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="I49" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="I49" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="J49" s="13" t="s">
+      <c r="C50" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="J50" s="28" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="F50" s="13" t="s">
+    <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="I50" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="J50" s="28" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="20" t="s">
+      <c r="C51" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="E51" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="F51" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="F51" s="13" t="s">
+    </row>
+    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="20" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="20" t="s">
+      <c r="C52" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="E52" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="F52" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="F52" s="13" t="s">
+    </row>
+    <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="20" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="20" t="s">
+      <c r="C53" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="E53" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="F53" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="F53" s="13" t="s">
+    </row>
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="20" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+      <c r="C54" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="E54" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="F54" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="F54" s="13" t="s">
+    </row>
+    <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C55" s="13" t="s">
+      <c r="E55" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="F55" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="F55" s="13" t="s">
+    </row>
+    <row r="56" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="20" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="20" t="s">
+      <c r="C56" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="E56" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="F56" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="F56" s="22" t="s">
+    </row>
+    <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C57" s="13" t="s">
+    <row r="58" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="20" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="20" t="s">
+      <c r="C58" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="C58" s="13" t="s">
+    </row>
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="20" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="20" t="s">
+      <c r="C59" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="E59" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="F59" s="64"/>
+    </row>
+    <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="E59" s="63" t="s">
-        <v>762</v>
-      </c>
-      <c r="F59" s="64"/>
-    </row>
-    <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="20" t="s">
+      <c r="C60" s="13" t="s">
         <v>453</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>454</v>
       </c>
       <c r="E60" s="41" t="s">
         <v>29</v>
@@ -8500,379 +8503,379 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="E61" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="E61" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="F61" s="42" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="20" t="s">
+      <c r="C62" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="E62" s="43" t="s">
+        <v>762</v>
+      </c>
+      <c r="F62" s="44" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="E62" s="43" t="s">
-        <v>763</v>
-      </c>
-      <c r="F62" s="44" t="s">
+      <c r="E63" s="43" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="C63" s="13" t="s">
+      <c r="F63" s="44" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="E63" s="43" t="s">
-        <v>765</v>
-      </c>
-      <c r="F63" s="44" t="s">
+      <c r="C64" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="F64" s="44" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="C64" s="13" t="s">
+    <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="C65" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="E65" s="43" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C65" s="13" t="s">
+      <c r="F65" s="44" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="E65" s="43" t="s">
-        <v>768</v>
-      </c>
-      <c r="F65" s="44" t="s">
+      <c r="C66" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="E66" s="43" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="C66" s="13" t="s">
+      <c r="F66" s="44" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="E66" s="43" t="s">
-        <v>770</v>
-      </c>
-      <c r="F66" s="44" t="s">
+      <c r="C67" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="E67" s="43" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="C67" s="13" t="s">
+      <c r="F67" s="44" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="E67" s="43" t="s">
-        <v>772</v>
-      </c>
-      <c r="F67" s="44" t="s">
+      <c r="C68" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E68" s="43" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="C68" s="13" t="s">
+      <c r="F68" s="44" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>775</v>
+      </c>
+      <c r="F69" s="44" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="E68" s="43" t="s">
-        <v>774</v>
-      </c>
-      <c r="F68" s="44" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>776</v>
-      </c>
-      <c r="F69" s="44" t="s">
+      <c r="C70" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="E70" s="43" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="C70" s="13" t="s">
+      <c r="F70" s="44" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="E70" s="43" t="s">
-        <v>778</v>
-      </c>
-      <c r="F70" s="44" t="s">
+      <c r="C71" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="F71" s="44" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="C71" s="13" t="s">
+    <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="C72" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="F72" s="44" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="E73" s="43" t="s">
+        <v>781</v>
+      </c>
+      <c r="F73" s="44" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>783</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="F71" s="44" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="E72" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="F72" s="44" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>782</v>
-      </c>
-      <c r="F73" s="44" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>784</v>
-      </c>
-      <c r="F74" s="45" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="C76" s="13" t="s">
+    </row>
+    <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="20" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="20" t="s">
+      <c r="C77" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C77" s="13" t="s">
+    </row>
+    <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="20" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="20" t="s">
+      <c r="C78" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="C78" s="13" t="s">
+    </row>
+    <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="20" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="20" t="s">
+      <c r="C79" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C79" s="13" t="s">
+    </row>
+    <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="C80" s="13" t="s">
+    <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C81" s="13" t="s">
+    <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="20" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="20" t="s">
+      <c r="C82" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="C82" s="13" t="s">
+    </row>
+    <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="20" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="20" t="s">
+      <c r="C83" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="C83" s="13" t="s">
+    </row>
+    <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="20" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="20" t="s">
+      <c r="C84" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="C84" s="13" t="s">
+    </row>
+    <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="20" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="20" t="s">
+      <c r="C85" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="C85" s="13" t="s">
+    </row>
+    <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="C86" s="13" t="s">
+    <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="20" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="20" t="s">
+      <c r="C87" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="C87" s="13" t="s">
+    </row>
+    <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="20" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="20" t="s">
+      <c r="C88" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="C88" s="13" t="s">
+    </row>
+    <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="20" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="20" t="s">
+      <c r="C89" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="C89" s="13" t="s">
+    </row>
+    <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="20" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="20" t="s">
+      <c r="C90" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="C90" s="13" t="s">
+    </row>
+    <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="20" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="20" t="s">
+      <c r="C91" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="C91" s="13" t="s">
+    </row>
+    <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="20" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="20" t="s">
+      <c r="C92" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="C92" s="13" t="s">
+    </row>
+    <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="20" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="20" t="s">
+      <c r="C93" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="C93" s="13" t="s">
+    </row>
+    <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="20" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="20" t="s">
+      <c r="C94" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="C94" s="13" t="s">
+    </row>
+    <row r="95" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="21" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="21" t="s">
+      <c r="C95" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="C95" s="22" t="s">
+    </row>
+    <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="23" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="23" t="s">
-        <v>519</v>
-      </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="100" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="19" t="s">
         <v>29</v>
       </c>
@@ -8880,334 +8883,334 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="C102" s="13" t="s">
+    </row>
+    <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="20" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="20" t="s">
+      <c r="C103" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="C103" s="13" t="s">
+    </row>
+    <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="20" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="20" t="s">
+      <c r="C104" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="C104" s="13" t="s">
+    </row>
+    <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="20" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="20" t="s">
+      <c r="C105" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="C105" s="13" t="s">
+    </row>
+    <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="20" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="20" t="s">
+      <c r="C106" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="C106" s="13" t="s">
+    </row>
+    <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="20" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="20" t="s">
+      <c r="C107" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="C107" s="13" t="s">
+    </row>
+    <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="20" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="20" t="s">
+      <c r="C108" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="13" t="s">
+    </row>
+    <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="20" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="20" t="s">
+      <c r="C109" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="C109" s="13" t="s">
+    </row>
+    <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="20" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="20" t="s">
+      <c r="C110" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="C110" s="13" t="s">
+    </row>
+    <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="20" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="20" t="s">
+      <c r="C111" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="C111" s="13" t="s">
+    </row>
+    <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="20" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="20" t="s">
+      <c r="C112" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="C112" s="13" t="s">
+    </row>
+    <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="20" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="20" t="s">
+      <c r="C113" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="C113" s="13" t="s">
+    </row>
+    <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="20" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="20" t="s">
+      <c r="C114" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="C114" s="13" t="s">
+    </row>
+    <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="20" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="20" t="s">
+      <c r="C115" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="C115" s="13" t="s">
+    </row>
+    <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="20" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="20" t="s">
+      <c r="C116" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="C116" s="13" t="s">
+    </row>
+    <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="20" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="20" t="s">
+      <c r="C117" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="C117" s="13" t="s">
+    </row>
+    <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="20" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="20" t="s">
+      <c r="C118" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="C118" s="13" t="s">
+    </row>
+    <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="20" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="20" t="s">
+      <c r="C119" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="C119" s="13" t="s">
+    </row>
+    <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="20" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="20" t="s">
+      <c r="C120" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="C120" s="13" t="s">
+    </row>
+    <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="20" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="20" t="s">
+      <c r="C121" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="C121" s="13" t="s">
+    </row>
+    <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="20" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="20" t="s">
+      <c r="C122" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="C122" s="13" t="s">
+    </row>
+    <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="20" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="20" t="s">
+      <c r="C123" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="C123" s="13" t="s">
+    </row>
+    <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="20" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="20" t="s">
+      <c r="C124" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="C124" s="13" t="s">
+    </row>
+    <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="20" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="20" t="s">
+      <c r="C125" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="C125" s="13" t="s">
+    </row>
+    <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="20" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="20" t="s">
+      <c r="C126" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="C126" s="13" t="s">
+    </row>
+    <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="20" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="20" t="s">
+      <c r="C127" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C127" s="13" t="s">
+    </row>
+    <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="20" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="20" t="s">
+      <c r="C128" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="C128" s="13" t="s">
+    </row>
+    <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="20" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="20" t="s">
+      <c r="C129" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="C129" s="13" t="s">
+    </row>
+    <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="20" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="20" t="s">
+      <c r="C130" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="C130" s="13" t="s">
+    </row>
+    <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="20" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="20" t="s">
+      <c r="C131" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="C131" s="13" t="s">
+    </row>
+    <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="20" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="20" t="s">
+      <c r="C132" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="C132" s="13" t="s">
+    </row>
+    <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="20" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="20" t="s">
+      <c r="C133" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="C133" s="13" t="s">
+    </row>
+    <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="20" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="20" t="s">
+      <c r="C134" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="C134" s="13" t="s">
+    </row>
+    <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="20" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="20" t="s">
+      <c r="C135" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="C135" s="13" t="s">
+    </row>
+    <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="20" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="20" t="s">
+      <c r="C136" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="C136" s="13" t="s">
+    </row>
+    <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="20" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="20" t="s">
+      <c r="C137" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="C137" s="13" t="s">
+    </row>
+    <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="20" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="20" t="s">
+      <c r="C138" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="C138" s="13" t="s">
+    </row>
+    <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="20" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="20" t="s">
+      <c r="C139" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="C139" s="13" t="s">
+    </row>
+    <row r="140" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="21" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="140" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="21" t="s">
+      <c r="C140" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="C140" s="22" t="s">
+    </row>
+    <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="61" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="61" t="s">
-        <v>598</v>
-      </c>
       <c r="C143" s="62"/>
     </row>
-    <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
         <v>29</v>
       </c>
@@ -9215,575 +9218,575 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C145" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C146" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="C146" s="10" t="s">
+    </row>
+    <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="9" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="9" t="s">
+      <c r="C147" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="C147" s="10" t="s">
+    </row>
+    <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="9" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="9" t="s">
+      <c r="C148" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="C148" s="10" t="s">
+    </row>
+    <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="9" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="9" t="s">
+      <c r="C149" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="C149" s="10" t="s">
+    </row>
+    <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="9" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="9" t="s">
+      <c r="C150" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="C150" s="10" t="s">
+    </row>
+    <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="9" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="9" t="s">
+      <c r="C151" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="C151" s="10" t="s">
+    </row>
+    <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="9" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="9" t="s">
+      <c r="C152" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="C152" s="10" t="s">
+    </row>
+    <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="9" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="9" t="s">
+      <c r="C153" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="C153" s="10" t="s">
+    </row>
+    <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="9" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="9" t="s">
+      <c r="C154" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="C154" s="10" t="s">
+    </row>
+    <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="9" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="9" t="s">
+      <c r="C155" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="C155" s="10" t="s">
+    </row>
+    <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="9" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="9" t="s">
+      <c r="C156" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C156" s="10" t="s">
+    </row>
+    <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="9" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="9" t="s">
+      <c r="C157" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="C157" s="10" t="s">
+    </row>
+    <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="9" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="9" t="s">
+      <c r="C158" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="C158" s="10" t="s">
+    </row>
+    <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="9" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="9" t="s">
+      <c r="C159" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="C159" s="10" t="s">
+    </row>
+    <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="9" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="9" t="s">
+      <c r="C160" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="C160" s="10" t="s">
+    </row>
+    <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="9" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="9" t="s">
+      <c r="C161" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="C161" s="10" t="s">
+    </row>
+    <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="9" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="9" t="s">
+      <c r="C162" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="C162" s="10" t="s">
+    </row>
+    <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="9" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="9" t="s">
+      <c r="C163" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="C163" s="10" t="s">
+    </row>
+    <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="9" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="9" t="s">
+      <c r="C164" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C164" s="10" t="s">
+    </row>
+    <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="9" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="9" t="s">
+      <c r="C165" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="C165" s="10" t="s">
+    </row>
+    <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="9" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="9" t="s">
+      <c r="C166" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="C166" s="10" t="s">
+    </row>
+    <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="9" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="9" t="s">
+      <c r="C167" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="C167" s="10" t="s">
+    </row>
+    <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="9" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="9" t="s">
+      <c r="C168" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="C168" s="10" t="s">
+    </row>
+    <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="9" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="9" t="s">
+      <c r="C169" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C169" s="10" t="s">
+    </row>
+    <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="9" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="9" t="s">
+      <c r="C170" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="C170" s="10" t="s">
+    </row>
+    <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="9" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="9" t="s">
+      <c r="C171" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="C171" s="10" t="s">
+    </row>
+    <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="9" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="9" t="s">
+      <c r="C172" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="C172" s="10" t="s">
+    </row>
+    <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="9" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="9" t="s">
+      <c r="C173" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="C173" s="10" t="s">
+    </row>
+    <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="9" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="9" t="s">
+      <c r="C174" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="C174" s="10" t="s">
+    </row>
+    <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="9" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="9" t="s">
+      <c r="C175" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="C175" s="10" t="s">
+    </row>
+    <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="9" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="9" t="s">
+      <c r="C176" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="C176" s="10" t="s">
+    </row>
+    <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="9" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="9" t="s">
+      <c r="C177" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="C177" s="10" t="s">
+    </row>
+    <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="9" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="9" t="s">
+      <c r="C178" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="C178" s="10" t="s">
+    </row>
+    <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="9" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="9" t="s">
+      <c r="C179" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="C179" s="10" t="s">
+    </row>
+    <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="9" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="9" t="s">
+      <c r="C180" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="C180" s="10" t="s">
+    </row>
+    <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="9" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="9" t="s">
+      <c r="C181" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="C181" s="10" t="s">
+    </row>
+    <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="9" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="9" t="s">
+      <c r="C182" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="C182" s="10" t="s">
+    </row>
+    <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="9" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="9" t="s">
+      <c r="C183" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="C183" s="10" t="s">
+    </row>
+    <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="9" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="9" t="s">
+      <c r="C184" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="C184" s="10" t="s">
+    </row>
+    <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="9" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="9" t="s">
+      <c r="C185" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="C185" s="10" t="s">
+    </row>
+    <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="9" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="9" t="s">
+      <c r="C186" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="C186" s="10" t="s">
+    </row>
+    <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="9" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="9" t="s">
+      <c r="C187" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="C187" s="10" t="s">
+    </row>
+    <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="9" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="9" t="s">
+      <c r="C188" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C188" s="10" t="s">
+    </row>
+    <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="9" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="9" t="s">
+      <c r="C189" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="C189" s="10" t="s">
+    </row>
+    <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="9" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="9" t="s">
+      <c r="C190" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="C190" s="10" t="s">
+    </row>
+    <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="9" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="9" t="s">
+      <c r="C191" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="C191" s="10" t="s">
+    </row>
+    <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="9" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="9" t="s">
+      <c r="C192" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="C192" s="10" t="s">
+    </row>
+    <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="9" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="9" t="s">
+      <c r="C193" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="C193" s="10" t="s">
+    </row>
+    <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="9" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="9" t="s">
+      <c r="C194" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="C194" s="10" t="s">
+    </row>
+    <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="9" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="9" t="s">
+      <c r="C195" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="C195" s="10" t="s">
+    </row>
+    <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="9" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="9" t="s">
+      <c r="C196" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="C196" s="10" t="s">
+    </row>
+    <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="9" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="9" t="s">
+      <c r="C197" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="C197" s="10" t="s">
+    </row>
+    <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="9" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="9" t="s">
+      <c r="C198" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="C198" s="10" t="s">
+    </row>
+    <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="9" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="9" t="s">
+      <c r="C199" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="C199" s="10" t="s">
+    </row>
+    <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="9" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="9" t="s">
+      <c r="C200" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="C200" s="10" t="s">
+    </row>
+    <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="9" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="9" t="s">
+      <c r="C201" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C201" s="10" t="s">
+    </row>
+    <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="9" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="9" t="s">
+      <c r="C202" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="C202" s="10" t="s">
+    </row>
+    <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="9" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="9" t="s">
+      <c r="C203" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="C203" s="10" t="s">
+    </row>
+    <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="9" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="9" t="s">
+      <c r="C204" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="C204" s="10" t="s">
+    </row>
+    <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="9" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="9" t="s">
+      <c r="C205" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="C205" s="10" t="s">
+    </row>
+    <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="9" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="9" t="s">
+      <c r="C206" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="C206" s="10" t="s">
+    </row>
+    <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="9" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="9" t="s">
+      <c r="C207" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="C207" s="10" t="s">
+    </row>
+    <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="9" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="9" t="s">
+      <c r="C208" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="C208" s="10" t="s">
+    </row>
+    <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="9" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="9" t="s">
+      <c r="C209" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="C209" s="10" t="s">
+    </row>
+    <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="9" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="9" t="s">
+      <c r="C210" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="C210" s="10" t="s">
+    </row>
+    <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="9" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="9" t="s">
+      <c r="C211" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="C211" s="10" t="s">
+    </row>
+    <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="9" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="9" t="s">
+      <c r="C212" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="C212" s="10" t="s">
+    </row>
+    <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="9" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="9" t="s">
+      <c r="C213" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="C213" s="10" t="s">
+    </row>
+    <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="9" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="9" t="s">
+      <c r="C214" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C214" s="10" t="s">
+    </row>
+    <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="9" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="9" t="s">
+      <c r="C215" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="C215" s="10" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B143:C143"/>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\openl\DEV\org.openl.rules\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AFD273-97BE-4C9A-9CAE-872561C7C575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437664F7-2FC3-4F3D-9670-08DE60001F27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,12 @@
     <sheet name="Runtime Scope" sheetId="4" r:id="rId4"/>
     <sheet name="Data Enums" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="181029" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="823">
   <si>
     <t>Display Name</t>
   </si>
@@ -2519,6 +2517,18 @@
   </si>
   <si>
     <t>MM/dd/yyyy hh:mm a</t>
+  </si>
+  <si>
+    <t>Spreadsheet Result Package</t>
+  </si>
+  <si>
+    <t>org.openl.generated.spreadsheetresults</t>
+  </si>
+  <si>
+    <t>The name of the package for spreadsheet result beans generation</t>
+  </si>
+  <si>
+    <t>spreadsheetResultPackage</t>
   </si>
 </sst>
 </file>
@@ -3158,7 +3168,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3247,6 +3257,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3748,213 +3761,213 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-    </row>
-    <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+    </row>
+    <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-    </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-    </row>
-    <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-    </row>
-    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+    </row>
+    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+    </row>
+    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-    </row>
-    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+    </row>
+    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-    </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="49" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+    </row>
+    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
@@ -3987,191 +4000,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK64"/>
+  <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="2" max="2" width="17.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="19.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.53125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" style="1"/>
+    <col min="6" max="6" width="19.1328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="39.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="22.86328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="39.46484375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.86328125" style="1"/>
     <col min="15" max="15" width="20.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="8.86328125" style="1"/>
     <col min="17" max="17" width="14" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="26.88671875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="45.88671875" style="1" customWidth="1"/>
-    <col min="21" max="1025" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="26.86328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="45.86328125" style="1" customWidth="1"/>
+    <col min="21" max="1025" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-    </row>
-    <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+    </row>
+    <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-    </row>
-    <row r="3" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+    </row>
+    <row r="3" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-    </row>
-    <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-    </row>
-    <row r="5" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-    </row>
-    <row r="6" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+    </row>
+    <row r="6" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-    </row>
-    <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-    </row>
-    <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+    </row>
+    <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-    </row>
-    <row r="9" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+    </row>
+    <row r="9" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-    </row>
-    <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4180,30 +4193,30 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="52" t="s">
+    <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-    </row>
-    <row r="12" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+    </row>
+    <row r="12" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
@@ -4262,7 +4275,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -4321,7 +4334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
@@ -4368,7 +4381,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
         <v>66</v>
       </c>
@@ -4411,7 +4424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
         <v>100</v>
       </c>
@@ -4458,7 +4471,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
         <v>105</v>
       </c>
@@ -4507,7 +4520,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
         <v>109</v>
       </c>
@@ -4554,7 +4567,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="5" t="s">
         <v>113</v>
       </c>
@@ -4603,7 +4616,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
@@ -4646,7 +4659,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="5" t="s">
         <v>72</v>
       </c>
@@ -4689,7 +4702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="5" t="s">
         <v>76</v>
       </c>
@@ -4738,7 +4751,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="5" t="s">
         <v>85</v>
       </c>
@@ -4787,7 +4800,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="5" t="s">
         <v>90</v>
       </c>
@@ -4836,7 +4849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="5" t="s">
         <v>95</v>
       </c>
@@ -4885,7 +4898,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="5" t="s">
         <v>792</v>
       </c>
@@ -4932,7 +4945,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="5" t="s">
         <v>757</v>
       </c>
@@ -4979,7 +4992,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="5" t="s">
         <v>140</v>
       </c>
@@ -5026,7 +5039,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="5" t="s">
         <v>160</v>
       </c>
@@ -5073,7 +5086,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="5" t="s">
         <v>145</v>
       </c>
@@ -5120,7 +5133,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="5" t="s">
         <v>150</v>
       </c>
@@ -5167,7 +5180,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="5" t="s">
         <v>130</v>
       </c>
@@ -5214,7 +5227,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="5" t="s">
         <v>746</v>
       </c>
@@ -5259,7 +5272,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="5" t="s">
         <v>134</v>
       </c>
@@ -5306,7 +5319,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="5" t="s">
         <v>155</v>
       </c>
@@ -5353,7 +5366,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="5" t="s">
         <v>165</v>
       </c>
@@ -5394,7 +5407,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="5" t="s">
         <v>169</v>
       </c>
@@ -5438,7 +5451,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="5" t="s">
         <v>116</v>
       </c>
@@ -5485,7 +5498,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="5" t="s">
         <v>123</v>
       </c>
@@ -5528,7 +5541,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="5" t="s">
         <v>127</v>
       </c>
@@ -5573,7 +5586,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="5" t="s">
         <v>174</v>
       </c>
@@ -5615,7 +5628,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="5" t="s">
         <v>177</v>
       </c>
@@ -5656,7 +5669,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="5" t="s">
         <v>183</v>
       </c>
@@ -5699,18 +5712,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1025" ht="57" x14ac:dyDescent="0.45">
+      <c r="A44" s="47"/>
       <c r="B44" s="5" t="s">
-        <v>190</v>
+        <v>819</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
@@ -5726,32 +5738,37 @@
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+        <v>808</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+      <c r="U44" s="47"/>
+    </row>
+    <row r="45" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
@@ -5770,9 +5787,7 @@
         <v>748</v>
       </c>
       <c r="N45" s="5"/>
-      <c r="O45" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
@@ -5780,19 +5795,21 @@
         <v>83</v>
       </c>
       <c r="T45" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="5" t="s">
-        <v>740</v>
+        <v>192</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="D46" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E46" s="5" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
@@ -5808,11 +5825,11 @@
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5" t="s">
-        <v>742</v>
+        <v>195</v>
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
@@ -5821,22 +5838,19 @@
         <v>83</v>
       </c>
       <c r="T46" s="5" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="46"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="5" t="s">
-        <v>816</v>
+        <v>740</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
@@ -5850,17 +5864,14 @@
       <c r="K47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L47" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="L47" s="5"/>
       <c r="M47" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="N47" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="5"/>
+        <v>743</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5" t="s">
+        <v>742</v>
+      </c>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
@@ -5868,9 +5879,8 @@
         <v>83</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="U47" s="46"/>
+        <v>741</v>
+      </c>
       <c r="V47" s="46"/>
       <c r="W47" s="46"/>
       <c r="X47" s="46"/>
@@ -6876,12 +6886,13 @@
       <c r="AMJ47" s="46"/>
       <c r="AMK47" s="46"/>
     </row>
-    <row r="48" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="46"/>
       <c r="B48" s="5" t="s">
-        <v>744</v>
+        <v>816</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>745</v>
+        <v>817</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>58</v>
@@ -6908,8 +6919,8 @@
         <v>808</v>
       </c>
       <c r="N48" s="5" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -6919,15 +6930,16 @@
         <v>83</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+      <c r="U48" s="46"/>
+    </row>
+    <row r="49" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="5" t="s">
-        <v>813</v>
+        <v>744</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>812</v>
+        <v>745</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>58</v>
@@ -6965,15 +6977,15 @@
         <v>83</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="5" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>58</v>
@@ -6997,11 +7009,11 @@
         <v>58</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>748</v>
+        <v>808</v>
       </c>
       <c r="N50" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -7011,30 +7023,28 @@
         <v>83</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="5" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>805</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -7042,15 +7052,16 @@
         <v>58</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5" t="s">
-        <v>806</v>
-      </c>
+      <c r="N51" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
@@ -7058,87 +7069,136 @@
         <v>83</v>
       </c>
       <c r="T51" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" ht="57" x14ac:dyDescent="0.45">
+      <c r="B52" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T52" s="5" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="5" t="s">
+    <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B56" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H55" s="5" t="s">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5" t="s">
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5" t="s">
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T55" s="5" t="s">
+      <c r="T56" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="52" t="s">
+    <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="C59" s="52"/>
-    </row>
-    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="53" t="s">
+      <c r="C60" s="53"/>
+    </row>
+    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="C60" s="53"/>
-    </row>
-    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="53" t="s">
+      <c r="C61" s="54"/>
+    </row>
+    <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="C61" s="53"/>
-    </row>
-    <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="54" t="s">
+      <c r="C62" s="54"/>
+    </row>
+    <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="C62" s="54"/>
-    </row>
-    <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="54" t="s">
+      <c r="C63" s="55"/>
+    </row>
+    <row r="64" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="54"/>
-    </row>
-    <row r="64" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="51" t="s">
+      <c r="C64" s="55"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B65" s="52" t="s">
         <v>751</v>
       </c>
-      <c r="C64" s="51"/>
+      <c r="C65" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C3:L3"/>
@@ -7149,11 +7209,11 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="B11:T11"/>
-    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -7173,19 +7233,19 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="56" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="57" t="s">
         <v>207</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -7195,8 +7255,8 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
+    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="57"/>
       <c r="C7" s="16" t="s">
         <v>209</v>
       </c>
@@ -7204,8 +7264,8 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="57"/>
       <c r="C8" s="16" t="s">
         <v>210</v>
       </c>
@@ -7213,8 +7273,8 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
+    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="57"/>
       <c r="C9" s="16" t="s">
         <v>211</v>
       </c>
@@ -7222,14 +7282,14 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57" t="s">
+    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7255,23 +7315,23 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.53125" customWidth="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
+    <row r="1" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-    </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+    </row>
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
         <v>29</v>
       </c>
@@ -7285,7 +7345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
@@ -7299,7 +7359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="33" t="s">
         <v>107</v>
       </c>
@@ -7311,7 +7371,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="36" t="s">
         <v>214</v>
       </c>
@@ -7323,7 +7383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="36" t="s">
         <v>131</v>
       </c>
@@ -7335,7 +7395,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="36" t="s">
         <v>804</v>
       </c>
@@ -7347,7 +7407,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="36" t="s">
         <v>215</v>
       </c>
@@ -7361,7 +7421,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="36" t="s">
         <v>141</v>
       </c>
@@ -7375,7 +7435,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="36" t="s">
         <v>218</v>
       </c>
@@ -7389,7 +7449,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="36" t="s">
         <v>146</v>
       </c>
@@ -7403,7 +7463,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="36" t="s">
         <v>151</v>
       </c>
@@ -7417,7 +7477,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="36" t="s">
         <v>161</v>
       </c>
@@ -7431,7 +7491,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="36" t="s">
         <v>755</v>
       </c>
@@ -7445,7 +7505,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B16" s="38" t="s">
         <v>758</v>
       </c>
@@ -7481,31 +7541,31 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.46484375" customWidth="1"/>
     <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" customWidth="1"/>
+    <col min="9" max="9" width="24.86328125" customWidth="1"/>
     <col min="10" max="10" width="33.6640625" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" customWidth="1"/>
+    <col min="11" max="11" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+    <row r="1" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="65"/>
       <c r="E2" s="23" t="s">
         <v>220</v>
       </c>
       <c r="F2" s="24"/>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="64"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="65"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19" t="s">
         <v>29</v>
       </c>
@@ -7525,7 +7585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="19" t="s">
         <v>222</v>
       </c>
@@ -7545,7 +7605,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="20" t="s">
         <v>224</v>
       </c>
@@ -7565,7 +7625,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>229</v>
       </c>
@@ -7585,7 +7645,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="20" t="s">
         <v>235</v>
       </c>
@@ -7605,7 +7665,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="20" t="s">
         <v>241</v>
       </c>
@@ -7625,7 +7685,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="20" t="s">
         <v>246</v>
       </c>
@@ -7639,7 +7699,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="20" t="s">
         <v>250</v>
       </c>
@@ -7653,7 +7713,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="20" t="s">
         <v>254</v>
       </c>
@@ -7667,7 +7727,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="20" t="s">
         <v>258</v>
       </c>
@@ -7681,7 +7741,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="20" t="s">
         <v>262</v>
       </c>
@@ -7694,12 +7754,12 @@
       <c r="F13" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="20" t="s">
         <v>267</v>
       </c>
@@ -7719,7 +7779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="20" t="s">
         <v>271</v>
       </c>
@@ -7739,7 +7799,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="20" t="s">
         <v>275</v>
       </c>
@@ -7759,7 +7819,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="20" t="s">
         <v>248</v>
       </c>
@@ -7779,7 +7839,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="20" t="s">
         <v>285</v>
       </c>
@@ -7799,7 +7859,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="20" t="s">
         <v>291</v>
       </c>
@@ -7819,7 +7879,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="20" t="s">
         <v>252</v>
       </c>
@@ -7839,7 +7899,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="20" t="s">
         <v>302</v>
       </c>
@@ -7853,7 +7913,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="20" t="s">
         <v>306</v>
       </c>
@@ -7867,7 +7927,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="20" t="s">
         <v>310</v>
       </c>
@@ -7880,12 +7940,12 @@
       <c r="F23" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="J23" s="64"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="65"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="20" t="s">
         <v>315</v>
       </c>
@@ -7905,7 +7965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="20" t="s">
         <v>319</v>
       </c>
@@ -7925,7 +7985,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="20" t="s">
         <v>323</v>
       </c>
@@ -7945,7 +8005,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="20" t="s">
         <v>329</v>
       </c>
@@ -7965,7 +8025,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="20" t="s">
         <v>335</v>
       </c>
@@ -7985,7 +8045,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="20" t="s">
         <v>341</v>
       </c>
@@ -7999,7 +8059,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="20" t="s">
         <v>345</v>
       </c>
@@ -8013,7 +8073,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="20" t="s">
         <v>349</v>
       </c>
@@ -8027,7 +8087,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="20" t="s">
         <v>353</v>
       </c>
@@ -8040,12 +8100,12 @@
       <c r="F32" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="I32" s="63" t="s">
+      <c r="I32" s="64" t="s">
         <v>752</v>
       </c>
-      <c r="J32" s="64"/>
-    </row>
-    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="65"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="20" t="s">
         <v>264</v>
       </c>
@@ -8065,7 +8125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="20" t="s">
         <v>359</v>
       </c>
@@ -8085,7 +8145,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="20" t="s">
         <v>363</v>
       </c>
@@ -8105,7 +8165,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="20" t="s">
         <v>367</v>
       </c>
@@ -8125,7 +8185,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="20" t="s">
         <v>371</v>
       </c>
@@ -8139,7 +8199,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="20" t="s">
         <v>375</v>
       </c>
@@ -8153,7 +8213,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="20" t="s">
         <v>379</v>
       </c>
@@ -8166,12 +8226,12 @@
       <c r="F39" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="I39" s="63" t="s">
+      <c r="I39" s="64" t="s">
         <v>785</v>
       </c>
-      <c r="J39" s="64"/>
-    </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="65"/>
+    </row>
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="20" t="s">
         <v>293</v>
       </c>
@@ -8191,7 +8251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="20" t="s">
         <v>116</v>
       </c>
@@ -8211,7 +8271,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="20" t="s">
         <v>389</v>
       </c>
@@ -8231,7 +8291,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="20" t="s">
         <v>393</v>
       </c>
@@ -8251,7 +8311,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="20" t="s">
         <v>287</v>
       </c>
@@ -8265,7 +8325,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="20" t="s">
         <v>400</v>
       </c>
@@ -8279,7 +8339,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="20" t="s">
         <v>404</v>
       </c>
@@ -8292,12 +8352,12 @@
       <c r="F46" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="I46" s="63" t="s">
+      <c r="I46" s="64" t="s">
         <v>795</v>
       </c>
-      <c r="J46" s="64"/>
-    </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="65"/>
+    </row>
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="20" t="s">
         <v>408</v>
       </c>
@@ -8317,7 +8377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="20" t="s">
         <v>412</v>
       </c>
@@ -8337,7 +8397,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="20" t="s">
         <v>416</v>
       </c>
@@ -8357,7 +8417,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="20" t="s">
         <v>420</v>
       </c>
@@ -8377,7 +8437,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="20" t="s">
         <v>424</v>
       </c>
@@ -8391,7 +8451,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="20" t="s">
         <v>428</v>
       </c>
@@ -8405,7 +8465,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="20" t="s">
         <v>432</v>
       </c>
@@ -8419,7 +8479,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="20" t="s">
         <v>436</v>
       </c>
@@ -8433,7 +8493,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="20" t="s">
         <v>351</v>
       </c>
@@ -8447,7 +8507,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="20" t="s">
         <v>443</v>
       </c>
@@ -8461,7 +8521,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="20" t="s">
         <v>325</v>
       </c>
@@ -8469,7 +8529,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="20" t="s">
         <v>448</v>
       </c>
@@ -8477,19 +8537,19 @@
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="20" t="s">
         <v>450</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="E59" s="63" t="s">
+      <c r="E59" s="64" t="s">
         <v>761</v>
       </c>
-      <c r="F59" s="64"/>
-    </row>
-    <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="65"/>
+    </row>
+    <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="20" t="s">
         <v>452</v>
       </c>
@@ -8503,7 +8563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="20" t="s">
         <v>454</v>
       </c>
@@ -8517,7 +8577,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="20" t="s">
         <v>456</v>
       </c>
@@ -8531,7 +8591,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="20" t="s">
         <v>395</v>
       </c>
@@ -8545,7 +8605,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="20" t="s">
         <v>459</v>
       </c>
@@ -8559,7 +8619,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="20" t="s">
         <v>461</v>
       </c>
@@ -8573,7 +8633,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="20" t="s">
         <v>463</v>
       </c>
@@ -8587,7 +8647,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="20" t="s">
         <v>465</v>
       </c>
@@ -8601,7 +8661,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="20" t="s">
         <v>467</v>
       </c>
@@ -8615,7 +8675,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="20" t="s">
         <v>398</v>
       </c>
@@ -8629,7 +8689,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="20" t="s">
         <v>469</v>
       </c>
@@ -8643,7 +8703,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="20" t="s">
         <v>471</v>
       </c>
@@ -8657,7 +8717,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="20" t="s">
         <v>473</v>
       </c>
@@ -8671,7 +8731,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="20" t="s">
         <v>475</v>
       </c>
@@ -8685,7 +8745,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B74" s="20" t="s">
         <v>477</v>
       </c>
@@ -8699,7 +8759,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="20" t="s">
         <v>479</v>
       </c>
@@ -8707,7 +8767,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="20" t="s">
         <v>481</v>
       </c>
@@ -8715,7 +8775,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="20" t="s">
         <v>483</v>
       </c>
@@ -8723,7 +8783,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="20" t="s">
         <v>485</v>
       </c>
@@ -8731,7 +8791,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="20" t="s">
         <v>487</v>
       </c>
@@ -8739,7 +8799,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="20" t="s">
         <v>410</v>
       </c>
@@ -8747,7 +8807,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="20" t="s">
         <v>289</v>
       </c>
@@ -8755,7 +8815,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="20" t="s">
         <v>491</v>
       </c>
@@ -8763,7 +8823,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="20" t="s">
         <v>493</v>
       </c>
@@ -8771,7 +8831,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="20" t="s">
         <v>495</v>
       </c>
@@ -8779,7 +8839,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="20" t="s">
         <v>497</v>
       </c>
@@ -8787,7 +8847,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="20" t="s">
         <v>414</v>
       </c>
@@ -8795,7 +8855,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="20" t="s">
         <v>500</v>
       </c>
@@ -8803,7 +8863,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="20" t="s">
         <v>502</v>
       </c>
@@ -8811,7 +8871,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="20" t="s">
         <v>504</v>
       </c>
@@ -8819,7 +8879,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="20" t="s">
         <v>506</v>
       </c>
@@ -8827,7 +8887,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="20" t="s">
         <v>508</v>
       </c>
@@ -8835,7 +8895,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="20" t="s">
         <v>510</v>
       </c>
@@ -8843,7 +8903,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="20" t="s">
         <v>512</v>
       </c>
@@ -8851,7 +8911,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="20" t="s">
         <v>514</v>
       </c>
@@ -8859,7 +8919,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B95" s="21" t="s">
         <v>516</v>
       </c>
@@ -8867,15 +8927,15 @@
         <v>517</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B99" s="23" t="s">
         <v>518</v>
       </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="100" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="19" t="s">
         <v>29</v>
       </c>
@@ -8883,7 +8943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="19" t="s">
         <v>222</v>
       </c>
@@ -8891,7 +8951,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="20" t="s">
         <v>519</v>
       </c>
@@ -8899,7 +8959,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="20" t="s">
         <v>521</v>
       </c>
@@ -8907,7 +8967,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="20" t="s">
         <v>523</v>
       </c>
@@ -8915,7 +8975,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="20" t="s">
         <v>525</v>
       </c>
@@ -8923,7 +8983,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="20" t="s">
         <v>527</v>
       </c>
@@ -8931,7 +8991,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="20" t="s">
         <v>529</v>
       </c>
@@ -8939,7 +8999,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="20" t="s">
         <v>531</v>
       </c>
@@ -8947,7 +9007,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="20" t="s">
         <v>533</v>
       </c>
@@ -8955,7 +9015,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="20" t="s">
         <v>535</v>
       </c>
@@ -8963,7 +9023,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="20" t="s">
         <v>537</v>
       </c>
@@ -8971,7 +9031,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="20" t="s">
         <v>539</v>
       </c>
@@ -8979,7 +9039,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="20" t="s">
         <v>541</v>
       </c>
@@ -8987,7 +9047,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="20" t="s">
         <v>543</v>
       </c>
@@ -8995,7 +9055,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="20" t="s">
         <v>545</v>
       </c>
@@ -9003,7 +9063,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="20" t="s">
         <v>547</v>
       </c>
@@ -9011,7 +9071,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="20" t="s">
         <v>549</v>
       </c>
@@ -9019,7 +9079,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="20" t="s">
         <v>551</v>
       </c>
@@ -9027,7 +9087,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="20" t="s">
         <v>553</v>
       </c>
@@ -9035,7 +9095,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="20" t="s">
         <v>555</v>
       </c>
@@ -9043,7 +9103,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="20" t="s">
         <v>557</v>
       </c>
@@ -9051,7 +9111,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="20" t="s">
         <v>559</v>
       </c>
@@ -9059,7 +9119,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="20" t="s">
         <v>561</v>
       </c>
@@ -9067,7 +9127,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="20" t="s">
         <v>563</v>
       </c>
@@ -9075,7 +9135,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="20" t="s">
         <v>565</v>
       </c>
@@ -9083,7 +9143,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="20" t="s">
         <v>567</v>
       </c>
@@ -9091,7 +9151,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="20" t="s">
         <v>569</v>
       </c>
@@ -9099,7 +9159,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="20" t="s">
         <v>571</v>
       </c>
@@ -9107,7 +9167,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="20" t="s">
         <v>573</v>
       </c>
@@ -9115,7 +9175,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B130" s="20" t="s">
         <v>575</v>
       </c>
@@ -9123,7 +9183,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="20" t="s">
         <v>577</v>
       </c>
@@ -9131,7 +9191,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="20" t="s">
         <v>579</v>
       </c>
@@ -9139,7 +9199,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="20" t="s">
         <v>581</v>
       </c>
@@ -9147,7 +9207,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B134" s="20" t="s">
         <v>583</v>
       </c>
@@ -9155,7 +9215,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B135" s="20" t="s">
         <v>585</v>
       </c>
@@ -9163,7 +9223,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="20" t="s">
         <v>587</v>
       </c>
@@ -9171,7 +9231,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="20" t="s">
         <v>589</v>
       </c>
@@ -9179,7 +9239,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B138" s="20" t="s">
         <v>591</v>
       </c>
@@ -9187,7 +9247,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B139" s="20" t="s">
         <v>593</v>
       </c>
@@ -9195,7 +9255,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="140" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B140" s="21" t="s">
         <v>595</v>
       </c>
@@ -9203,14 +9263,14 @@
         <v>596</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B143" s="61" t="s">
+    <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B143" s="62" t="s">
         <v>597</v>
       </c>
-      <c r="C143" s="62"/>
-    </row>
-    <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="63"/>
+    </row>
+    <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B144" s="7" t="s">
         <v>29</v>
       </c>
@@ -9218,7 +9278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B145" s="7" t="s">
         <v>222</v>
       </c>
@@ -9226,7 +9286,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="9" t="s">
         <v>598</v>
       </c>
@@ -9234,7 +9294,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B147" s="9" t="s">
         <v>600</v>
       </c>
@@ -9242,7 +9302,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B148" s="9" t="s">
         <v>602</v>
       </c>
@@ -9250,7 +9310,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B149" s="9" t="s">
         <v>604</v>
       </c>
@@ -9258,7 +9318,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B150" s="9" t="s">
         <v>606</v>
       </c>
@@ -9266,7 +9326,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B151" s="9" t="s">
         <v>608</v>
       </c>
@@ -9274,7 +9334,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B152" s="9" t="s">
         <v>610</v>
       </c>
@@ -9282,7 +9342,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B153" s="9" t="s">
         <v>612</v>
       </c>
@@ -9290,7 +9350,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B154" s="9" t="s">
         <v>614</v>
       </c>
@@ -9298,7 +9358,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B155" s="9" t="s">
         <v>616</v>
       </c>
@@ -9306,7 +9366,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="9" t="s">
         <v>618</v>
       </c>
@@ -9314,7 +9374,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B157" s="9" t="s">
         <v>620</v>
       </c>
@@ -9322,7 +9382,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="9" t="s">
         <v>622</v>
       </c>
@@ -9330,7 +9390,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="9" t="s">
         <v>624</v>
       </c>
@@ -9338,7 +9398,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="9" t="s">
         <v>626</v>
       </c>
@@ -9346,7 +9406,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B161" s="9" t="s">
         <v>628</v>
       </c>
@@ -9354,7 +9414,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B162" s="9" t="s">
         <v>630</v>
       </c>
@@ -9362,7 +9422,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B163" s="9" t="s">
         <v>632</v>
       </c>
@@ -9370,7 +9430,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B164" s="9" t="s">
         <v>634</v>
       </c>
@@ -9378,7 +9438,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="9" t="s">
         <v>636</v>
       </c>
@@ -9386,7 +9446,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B166" s="9" t="s">
         <v>638</v>
       </c>
@@ -9394,7 +9454,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B167" s="9" t="s">
         <v>640</v>
       </c>
@@ -9402,7 +9462,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B168" s="9" t="s">
         <v>642</v>
       </c>
@@ -9410,7 +9470,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B169" s="9" t="s">
         <v>644</v>
       </c>
@@ -9418,7 +9478,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B170" s="9" t="s">
         <v>646</v>
       </c>
@@ -9426,7 +9486,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="9" t="s">
         <v>648</v>
       </c>
@@ -9434,7 +9494,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B172" s="9" t="s">
         <v>650</v>
       </c>
@@ -9442,7 +9502,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B173" s="9" t="s">
         <v>652</v>
       </c>
@@ -9450,7 +9510,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B174" s="9" t="s">
         <v>654</v>
       </c>
@@ -9458,7 +9518,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B175" s="9" t="s">
         <v>656</v>
       </c>
@@ -9466,7 +9526,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B176" s="9" t="s">
         <v>658</v>
       </c>
@@ -9474,7 +9534,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B177" s="9" t="s">
         <v>660</v>
       </c>
@@ -9482,7 +9542,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B178" s="9" t="s">
         <v>662</v>
       </c>
@@ -9490,7 +9550,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B179" s="9" t="s">
         <v>664</v>
       </c>
@@ -9498,7 +9558,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B180" s="9" t="s">
         <v>666</v>
       </c>
@@ -9506,7 +9566,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B181" s="9" t="s">
         <v>668</v>
       </c>
@@ -9514,7 +9574,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="9" t="s">
         <v>670</v>
       </c>
@@ -9522,7 +9582,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="9" t="s">
         <v>672</v>
       </c>
@@ -9530,7 +9590,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="9" t="s">
         <v>674</v>
       </c>
@@ -9538,7 +9598,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B185" s="9" t="s">
         <v>676</v>
       </c>
@@ -9546,7 +9606,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B186" s="9" t="s">
         <v>678</v>
       </c>
@@ -9554,7 +9614,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B187" s="9" t="s">
         <v>680</v>
       </c>
@@ -9562,7 +9622,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B188" s="9" t="s">
         <v>682</v>
       </c>
@@ -9570,7 +9630,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B189" s="9" t="s">
         <v>684</v>
       </c>
@@ -9578,7 +9638,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B190" s="9" t="s">
         <v>686</v>
       </c>
@@ -9586,7 +9646,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B191" s="9" t="s">
         <v>688</v>
       </c>
@@ -9594,7 +9654,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B192" s="9" t="s">
         <v>690</v>
       </c>
@@ -9602,7 +9662,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B193" s="9" t="s">
         <v>692</v>
       </c>
@@ -9610,7 +9670,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B194" s="9" t="s">
         <v>694</v>
       </c>
@@ -9618,7 +9678,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B195" s="9" t="s">
         <v>696</v>
       </c>
@@ -9626,7 +9686,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B196" s="9" t="s">
         <v>698</v>
       </c>
@@ -9634,7 +9694,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B197" s="9" t="s">
         <v>700</v>
       </c>
@@ -9642,7 +9702,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B198" s="9" t="s">
         <v>702</v>
       </c>
@@ -9650,7 +9710,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B199" s="9" t="s">
         <v>704</v>
       </c>
@@ -9658,7 +9718,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B200" s="9" t="s">
         <v>706</v>
       </c>
@@ -9666,7 +9726,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B201" s="9" t="s">
         <v>708</v>
       </c>
@@ -9674,7 +9734,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B202" s="9" t="s">
         <v>710</v>
       </c>
@@ -9682,7 +9742,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B203" s="9" t="s">
         <v>712</v>
       </c>
@@ -9690,7 +9750,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B204" s="9" t="s">
         <v>714</v>
       </c>
@@ -9698,7 +9758,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B205" s="9" t="s">
         <v>716</v>
       </c>
@@ -9706,7 +9766,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B206" s="9" t="s">
         <v>718</v>
       </c>
@@ -9714,7 +9774,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B207" s="9" t="s">
         <v>720</v>
       </c>
@@ -9722,7 +9782,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B208" s="9" t="s">
         <v>722</v>
       </c>
@@ -9730,7 +9790,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B209" s="9" t="s">
         <v>724</v>
       </c>
@@ -9738,7 +9798,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B210" s="9" t="s">
         <v>726</v>
       </c>
@@ -9746,7 +9806,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B211" s="9" t="s">
         <v>728</v>
       </c>
@@ -9754,7 +9814,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B212" s="9" t="s">
         <v>730</v>
       </c>
@@ -9762,7 +9822,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B213" s="9" t="s">
         <v>732</v>
       </c>
@@ -9770,7 +9830,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B214" s="9" t="s">
         <v>734</v>
       </c>
@@ -9778,7 +9838,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B215" s="9" t="s">
         <v>736</v>
       </c>
@@ -9786,7 +9846,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B143:C143"/>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437664F7-2FC3-4F3D-9670-08DE60001F27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF3F5A-E320-4212-9529-79C4EECC4FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="824">
   <si>
     <t>Display Name</t>
   </si>
@@ -2529,6 +2529,9 @@
   </si>
   <si>
     <t>spreadsheetResultPackage</t>
+  </si>
+  <si>
+    <t>MODULE</t>
   </si>
 </sst>
 </file>
@@ -3266,14 +3269,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3797,16 +3800,16 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="15" t="s">
@@ -3842,31 +3845,31 @@
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="15" t="s">
@@ -3920,13 +3923,13 @@
       <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="15" t="s">
@@ -3935,13 +3938,13 @@
       <c r="C13" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
@@ -3950,34 +3953,29 @@
       <c r="C14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3987,6 +3985,11 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4002,8 +4005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="H37" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4069,18 +4072,18 @@
       <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="15" t="s">
@@ -4120,35 +4123,35 @@
       <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="15" t="s">
@@ -5738,7 +5741,7 @@
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>808</v>
+        <v>179</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>820</v>
@@ -5750,7 +5753,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5" t="s">
-        <v>188</v>
+        <v>823</v>
       </c>
       <c r="T44" s="5" t="s">
         <v>821</v>

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF3F5A-E320-4212-9529-79C4EECC4FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF3F917-2E2B-45DB-825B-4813D48C0D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Runtime Scope" sheetId="4" r:id="rId4"/>
     <sheet name="Data Enums" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3269,14 +3269,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3800,16 +3800,16 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="15" t="s">
@@ -3845,31 +3845,31 @@
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="15" t="s">
@@ -3923,13 +3923,13 @@
       <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="15" t="s">
@@ -3938,13 +3938,13 @@
       <c r="C13" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
@@ -3953,29 +3953,34 @@
       <c r="C14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -3985,11 +3990,6 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4005,8 +4005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H37" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4072,18 +4072,18 @@
       <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="2:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="15" t="s">
@@ -4123,35 +4123,35 @@
       <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="15" t="s">

--- a/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
+++ b/DEV/org.openl.rules/doc/TablePropertyDefinition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF3F917-2E2B-45DB-825B-4813D48C0D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66C107D-E3B4-451E-9B92-035EDE877C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" tabRatio="410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="828">
   <si>
     <t>Display Name</t>
   </si>
@@ -605,9 +605,6 @@
     <t>Worksheet, Workbook, Module</t>
   </si>
   <si>
-    <t>CATEGORY, MODULE</t>
-  </si>
-  <si>
     <t>The scope for a properties table</t>
   </si>
   <si>
@@ -626,1912 +623,1927 @@
     <t>regexp:([a-zA-Z_]{1}[a-zA-Z0-9_]*(\\.[a-zA-Z_]{1}[a-zA-Z0-9_]*)*)</t>
   </si>
   <si>
+    <t>The name of the package for datatype generation</t>
+  </si>
+  <si>
+    <t>Cacheable</t>
+  </si>
+  <si>
+    <t>cacheable</t>
+  </si>
+  <si>
+    <t>Recalculate</t>
+  </si>
+  <si>
+    <t>recalculate</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>data: recalculate</t>
+  </si>
+  <si>
+    <t>The way of recalculation of the table for a variation - slightly varied input parameter(s)</t>
+  </si>
+  <si>
+    <t>Return On Miss</t>
+  </si>
+  <si>
+    <t>returnOnMiss</t>
+  </si>
+  <si>
+    <t>XLS_DT</t>
+  </si>
+  <si>
+    <t>Deprecated</t>
+  </si>
+  <si>
+    <t>Data String tablesPriorityRules</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>PriorityRule</t>
+  </si>
+  <si>
+    <t>max(startRequestDate)</t>
+  </si>
+  <si>
+    <t>min(endRequestDate)</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>org.openl.rules.table.properties.def</t>
+  </si>
+  <si>
+    <t>org.openl.rules.context.properties</t>
+  </si>
+  <si>
+    <t>org.openl.rules.enumeration.properties</t>
+  </si>
+  <si>
+    <t>org.openl.rules.table.constraints</t>
+  </si>
+  <si>
+    <t>org.openl.rules.enumeration</t>
+  </si>
+  <si>
+    <t>Data ContextPropertyDefinition contextDefinitions</t>
+  </si>
+  <si>
+    <t>requestDate</t>
+  </si>
+  <si>
+    <t>usState</t>
+  </si>
+  <si>
+    <t>US State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>usRegion</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition countries</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition usStates</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition regions</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display name</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>NCSA</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>EMEA</t>
+  </si>
+  <si>
+    <t>Europe; Middle East; Africa</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>APJ</t>
+  </si>
+  <si>
+    <t>Asia Pacific; Japan</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition usRegions</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Bosnia And Herzegowina</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition recalculate</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Massuchusets</t>
+  </si>
+  <si>
+    <t>ALWAYS</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>NEVER</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>ANALYZE</t>
+  </si>
+  <si>
+    <t>Analyze</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Mississipi</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>North California</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>South California</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Serbia And Montenegro</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition languages</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>Albanian</t>
+  </si>
+  <si>
+    <t>ARA</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Belarussian</t>
+  </si>
+  <si>
+    <t>BUL</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>Catalan</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>Croatian</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>DAN</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>DUT</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>FRE</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>HEB</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>HIN</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>GLE</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>LAV</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>LIT</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>Macedonian</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>Maltese</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>RUM</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>Serbian</t>
+  </si>
+  <si>
+    <t>SLO</t>
+  </si>
+  <si>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>VIE</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition currencies</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Albania, Leke</t>
+  </si>
+  <si>
+    <t>DZD</t>
+  </si>
+  <si>
+    <t>Algeria, Dinars</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>Argentina, Pesos</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>Australia, Dollars</t>
+  </si>
+  <si>
+    <t>BHD</t>
+  </si>
+  <si>
+    <t>Bahrain, Dinars</t>
+  </si>
+  <si>
+    <t>BYR</t>
+  </si>
+  <si>
+    <t>Belarus, Rubles</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>Bolivia, Bolivianos</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina, Convertible Marka</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>Brazil, Real</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>Canada, Dollars</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>Chile, Pesos</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>China, Yuan Renminbi</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>Colombia, Pesos</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Costa Rica, Colones</t>
+  </si>
+  <si>
+    <t>HRK</t>
+  </si>
+  <si>
+    <t>Croatia, Kuna</t>
+  </si>
+  <si>
+    <t>CZK</t>
+  </si>
+  <si>
+    <t>Czech Republic, Koruny</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>Denmark, Kroner</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>Dominican Republic, Pesos</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>Egypt, Pounds</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>GTQ</t>
+  </si>
+  <si>
+    <t>Guatemala, Quetzales</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t>Honduras, Lempiras</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>Hong Kong, Dollars</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>Hungary, Forint</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>Iceland, Kronur</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>India, Rupees</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>Indonesia, Rupiahs</t>
+  </si>
+  <si>
+    <t>IQD</t>
+  </si>
+  <si>
+    <t>Iraq, Dinars</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>Israel, New Shekels</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>Japan, Yen</t>
+  </si>
+  <si>
+    <t>JOD</t>
+  </si>
+  <si>
+    <t>Jordan, Dinars</t>
+  </si>
+  <si>
+    <t>KWD</t>
+  </si>
+  <si>
+    <t>Kuwait, Dinars</t>
+  </si>
+  <si>
+    <t>LVL</t>
+  </si>
+  <si>
+    <t>Latvia, Lati</t>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>Lebanon, Pounds</t>
+  </si>
+  <si>
+    <t>LTL</t>
+  </si>
+  <si>
+    <t>Lithuania, Litai</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>Macedonia, Denars</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>Malaysia, Ringgits</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>Mexico, Pesos</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>Morocco, Dirhams</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>New Zealand, Dollars</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>Nicaragua, Cordobas</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Norway, Kroner</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>Oman, Rials</t>
+  </si>
+  <si>
+    <t>PAB</t>
+  </si>
+  <si>
+    <t>Panama, Balboa</t>
+  </si>
+  <si>
+    <t>PYG</t>
+  </si>
+  <si>
+    <t>Paraguay, Guarani</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>Peru, Nuevos Soles</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Philippines, Pesos</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>Poland, Zlotych</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>Qatar, Rials</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>Romania, New Lei</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>Russia, Rubles</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>Saudi Arabia, Riyals</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>Serbia, Dinars</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Singapore, Dollars</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>South Africa, Rand</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>Sudan, Pounds</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>Sweden, Kronor</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>Switzerland, Francs</t>
+  </si>
+  <si>
+    <t>SYP</t>
+  </si>
+  <si>
+    <t>Syria, Pounds</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>Taiwan, New Dollars</t>
+  </si>
+  <si>
+    <t>TND</t>
+  </si>
+  <si>
+    <t>Tunisia, Dinars</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>Turkey, Lira</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>Ukraine, Hryvnia</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>United Arab Emirates, Dirhams</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>United Kingdom, Pounds</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>United States of America, Dollars</t>
+  </si>
+  <si>
+    <t>UYU</t>
+  </si>
+  <si>
+    <t>Uruguay, Pesos</t>
+  </si>
+  <si>
+    <t>VEF</t>
+  </si>
+  <si>
+    <t>Venezuela, Bolivares Fuertes</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>Viet Nam, Dong</t>
+  </si>
+  <si>
+    <t>YER</t>
+  </si>
+  <si>
+    <t>Yemen, Rials</t>
+  </si>
+  <si>
+    <t>Defines whether or not to use cache while recalculating the table for a variation, depending on the rule input</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Precision of comparing the returned results with the expected ones</t>
+  </si>
+  <si>
+    <t>regexp:(-?[0-9]+)</t>
+  </si>
+  <si>
+    <t>XLS_TEST_METHOD, XLS_PROPERTIES</t>
+  </si>
+  <si>
+    <t>Auto Type Discovery</t>
+  </si>
+  <si>
+    <t>autoType</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>XLS_DT, XLS_SPREADSHEET, XLS_TBASIC, XLS_COLUMN_MATCH, XLS_METHOD, XLS_PROPERTIES</t>
+  </si>
+  <si>
+    <t>data: origins</t>
+  </si>
+  <si>
+    <t>Indicates origin of the rules to allow hierarchy of more generic and more specific rules</t>
+  </si>
+  <si>
+    <t>max(origin)</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition origins</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>caProvince</t>
+  </si>
+  <si>
+    <t>data: caProvinces</t>
+  </si>
+  <si>
+    <t>Canada Province</t>
+  </si>
+  <si>
+    <t>caRegion</t>
+  </si>
+  <si>
+    <t>data: caRegions</t>
+  </si>
+  <si>
+    <t>Canada Region Operation</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition caProvinces</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Colombie-Britannique</t>
+  </si>
+  <si>
+    <t>Île-du-Prince-Édouard</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Nouveau-Brunswick</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Nouvelle-Écosse</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Nunavut</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Québec</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Terre-Neuve-et-Labrador</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Territoires du Nord-Ouest</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition caRegions</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Hors Québec</t>
+  </si>
+  <si>
+    <t>caRegions</t>
+  </si>
+  <si>
+    <t>contains(caRegion)</t>
+  </si>
+  <si>
+    <t>caProvinces</t>
+  </si>
+  <si>
+    <t>contains(caProvince)</t>
+  </si>
+  <si>
+    <t>Canada Region</t>
+  </si>
+  <si>
+    <t>Canada region(s) of operation for which the table should be used</t>
+  </si>
+  <si>
+    <t>Canada province for which the table should be used</t>
+  </si>
+  <si>
+    <t>Data EnumPropertyDefinition validateDT</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>data: validateDT</t>
+  </si>
+  <si>
+    <t>On/Off validation mode for the rule table</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controls new Spreadsheet Auto Type Discovery feature. </t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>eq(nature)</t>
+  </si>
+  <si>
+    <t>list: Defined by method getNature()</t>
+  </si>
+  <si>
+    <t>Nature (type) for which this table works and should be used</t>
+  </si>
+  <si>
+    <t>XLS_SPREADSHEET, XLS_PROPERTIES</t>
+  </si>
+  <si>
+    <t>Controls parallel execution feature. By default = false.</t>
+  </si>
+  <si>
+    <t>Concurrent Execution</t>
+  </si>
+  <si>
+    <t>contains(lob)</t>
+  </si>
+  <si>
+    <t>calculateAllCells</t>
+  </si>
+  <si>
+    <t>Calculate All Cells</t>
+  </si>
+  <si>
+    <t>If true calculates all cells in the Spreadsheet, otherwise calculates only cells these are requred for a result. By default = true.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controls generation additional fields in an plain model for the Spreadsheet. </t>
+  </si>
+  <si>
+    <t>Detaled Plain Model</t>
+  </si>
+  <si>
+    <t>detailedPlainModel</t>
+  </si>
+  <si>
+    <t>MM/dd/yyyy hh:mm a</t>
+  </si>
+  <si>
+    <t>Spreadsheet Result Package</t>
+  </si>
+  <si>
+    <t>org.openl.generated.spreadsheetresults</t>
+  </si>
+  <si>
+    <t>The name of the package for spreadsheet result beans generation</t>
+  </si>
+  <si>
+    <t>spreadsheetResultPackage</t>
+  </si>
+  <si>
     <t>MODULE, TABLE</t>
   </si>
   <si>
-    <t>The name of the package for datatype generation</t>
-  </si>
-  <si>
-    <t>Cacheable</t>
-  </si>
-  <si>
-    <t>cacheable</t>
-  </si>
-  <si>
-    <t>Recalculate</t>
-  </si>
-  <si>
-    <t>recalculate</t>
-  </si>
-  <si>
-    <t>Enum</t>
-  </si>
-  <si>
-    <t>data: recalculate</t>
-  </si>
-  <si>
-    <t>The way of recalculation of the table for a variation - slightly varied input parameter(s)</t>
-  </si>
-  <si>
-    <t>Return On Miss</t>
-  </si>
-  <si>
-    <t>returnOnMiss</t>
-  </si>
-  <si>
-    <t>XLS_DT</t>
-  </si>
-  <si>
-    <t>Deprecated</t>
-  </si>
-  <si>
-    <t>Data String tablesPriorityRules</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>PriorityRule</t>
-  </si>
-  <si>
-    <t>max(startRequestDate)</t>
-  </si>
-  <si>
-    <t>min(endRequestDate)</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>org.openl.rules.table.properties.def</t>
-  </si>
-  <si>
-    <t>org.openl.rules.context.properties</t>
-  </si>
-  <si>
-    <t>org.openl.rules.enumeration.properties</t>
-  </si>
-  <si>
-    <t>org.openl.rules.table.constraints</t>
-  </si>
-  <si>
-    <t>org.openl.rules.enumeration</t>
-  </si>
-  <si>
-    <t>Data ContextPropertyDefinition contextDefinitions</t>
-  </si>
-  <si>
-    <t>requestDate</t>
-  </si>
-  <si>
-    <t>usState</t>
-  </si>
-  <si>
-    <t>US State</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>usRegion</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition countries</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition usStates</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition regions</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display name</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>NCSA</t>
-  </si>
-  <si>
-    <t>Americas</t>
-  </si>
-  <si>
-    <t>DZ</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>European Union</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>EMEA</t>
-  </si>
-  <si>
-    <t>Europe; Middle East; Africa</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>APJ</t>
-  </si>
-  <si>
-    <t>Asia Pacific; Japan</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>BY</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition usRegions</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>Bosnia And Herzegowina</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>Southeast</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>Southwest</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Data EnumPropertyDefinition recalculate</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Massuchusets</t>
-  </si>
-  <si>
-    <t>ALWAYS</t>
-  </si>
-  <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>Michigan</t>
